--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52378473-5271-604F-AF3A-B4C1428DF2EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FCDED-6144-554A-98FD-06BD1884C384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
   <si>
     <t>ESP</t>
   </si>
@@ -398,6 +398,27 @@
 AS140</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Case620
+miyata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case620
+AS140</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case 600〜650</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年間積算透過日射量（全天、庇なし）西</t>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">ニシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -665,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -887,6 +908,21 @@
     <xf numFmtId="180" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,9 +940,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,26 +1317,26 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="87" t="s">
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10441,10 +10474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
-  <dimension ref="A1:S134"/>
+  <dimension ref="A1:J135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10452,13 +10485,13 @@
     <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5" max="19" width="10.28515625" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="10.7109375" style="3"/>
+    <col min="5" max="10" width="10.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30">
+    <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="5"/>
@@ -10469,95 +10502,50 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-    </row>
-    <row r="2" spans="1:19" ht="26" customHeight="1">
+    </row>
+    <row r="2" spans="1:10" ht="26" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="85" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
+      <c r="A3" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="91"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="G3" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
+      <c r="I3" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -10568,53 +10556,26 @@
         <v>36</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="51">
-        <v>4.2960000000000003</v>
-      </c>
-      <c r="F4" s="51">
-        <v>4.7729999999999997</v>
-      </c>
-      <c r="G4" s="51">
-        <v>5.7089999999999996</v>
-      </c>
-      <c r="H4" s="51">
-        <v>5.226</v>
-      </c>
-      <c r="I4" s="51">
-        <v>5.5960000000000001</v>
-      </c>
-      <c r="J4" s="51">
-        <v>4.8819999999999997</v>
-      </c>
-      <c r="K4" s="51">
-        <v>4.8719999999999999</v>
-      </c>
-      <c r="L4" s="51">
-        <v>5.3620000000000001</v>
-      </c>
-      <c r="M4" s="52">
-        <v>5.4523920000000201</v>
-      </c>
-      <c r="N4" s="51">
-        <v>5.6856988799999915</v>
-      </c>
-      <c r="O4" s="51">
-        <v>4.9939945105555497</v>
-      </c>
-      <c r="P4" s="53">
+      <c r="E4" s="53">
         <v>4.3870752069822396</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="F4" s="53">
         <v>4.3884562293967102</v>
       </c>
-      <c r="R4" s="53">
+      <c r="G4" s="53">
         <v>4.4298524831887098</v>
       </c>
-      <c r="S4" s="53">
+      <c r="H4" s="53">
         <v>4.4311854409469298</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="I4" s="53">
+        <v>4.56365973601409</v>
+      </c>
+      <c r="J4" s="53">
+        <v>4.56457352600387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
@@ -10625,53 +10586,26 @@
         <v>36</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="54">
-        <v>6.1369999999999996</v>
-      </c>
-      <c r="F5" s="54">
-        <v>6.4329999999999998</v>
-      </c>
-      <c r="G5" s="54">
-        <v>7.0789999999999997</v>
-      </c>
-      <c r="H5" s="54">
-        <v>7.2779999999999996</v>
-      </c>
-      <c r="I5" s="54">
-        <v>7.9640000000000004</v>
-      </c>
-      <c r="J5" s="54">
-        <v>6.492</v>
-      </c>
-      <c r="K5" s="54">
-        <v>6.492</v>
-      </c>
-      <c r="L5" s="54">
-        <v>6.7779999999999996</v>
-      </c>
-      <c r="M5" s="55">
-        <v>7.2655200000000102</v>
-      </c>
-      <c r="N5" s="54">
-        <v>7.4541489599999959</v>
-      </c>
-      <c r="O5" s="55">
-        <v>7.9057342505555601</v>
-      </c>
-      <c r="P5" s="56">
+      <c r="E5" s="56">
         <v>6.7452875892443798</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="F5" s="56">
         <v>6.7469934313606501</v>
       </c>
-      <c r="R5" s="56">
+      <c r="G5" s="56">
         <v>4.74835288414722</v>
       </c>
-      <c r="S5" s="56">
+      <c r="H5" s="56">
         <v>4.7500092684732298</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="I5" s="56">
+        <v>4.1699179344517496</v>
+      </c>
+      <c r="J5" s="56">
+        <v>4.1709312236822402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>43</v>
       </c>
@@ -10682,51 +10616,26 @@
         <v>37</v>
       </c>
       <c r="D6" s="47"/>
-      <c r="E6" s="58">
-        <v>3.4369999999999998</v>
-      </c>
-      <c r="F6" s="58">
-        <v>3.94</v>
-      </c>
-      <c r="G6" s="58">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="H6" s="58">
-        <v>4.258</v>
-      </c>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58">
-        <v>4.0369999999999999</v>
-      </c>
-      <c r="K6" s="58">
-        <v>3.9305555555555598</v>
-      </c>
-      <c r="L6" s="58">
-        <v>4.3540000000000001</v>
-      </c>
-      <c r="M6" s="58">
-        <v>4.0511999999999997</v>
-      </c>
-      <c r="N6" s="58">
-        <v>4.3411200000000001</v>
-      </c>
-      <c r="O6" s="58">
-        <v>4.0720477777777804</v>
-      </c>
-      <c r="P6" s="59">
+      <c r="E6" s="59">
         <v>3.7517925242407602</v>
       </c>
-      <c r="Q6" s="59">
+      <c r="F6" s="59">
         <v>3.7518345454419801</v>
       </c>
-      <c r="R6" s="59">
+      <c r="G6" s="59">
         <v>3.7413171046607099</v>
       </c>
-      <c r="S6" s="59">
+      <c r="H6" s="59">
         <v>3.74135867563816</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="I6" s="59">
+        <v>3.7411328000689799</v>
+      </c>
+      <c r="J6" s="59">
+        <v>3.7411433981309599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>44</v>
       </c>
@@ -10737,51 +10646,26 @@
         <v>37</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="60">
-        <v>6.194</v>
-      </c>
-      <c r="F7" s="60">
-        <v>5.9649999999999999</v>
-      </c>
-      <c r="G7" s="60">
-        <v>6.6559999999999997</v>
-      </c>
-      <c r="H7" s="60">
-        <v>6.827</v>
-      </c>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60">
-        <v>6.2859999999999996</v>
-      </c>
-      <c r="K7" s="60">
-        <v>6.4861111111111098</v>
-      </c>
-      <c r="L7" s="60">
-        <v>6.8120000000000003</v>
-      </c>
-      <c r="M7" s="60">
-        <v>6.4607999999999999</v>
-      </c>
-      <c r="N7" s="60">
-        <v>7.0992000000000006</v>
-      </c>
-      <c r="O7" s="60">
-        <v>7.0894561111111098</v>
-      </c>
-      <c r="P7" s="61">
+      <c r="E7" s="61">
         <v>6.5685983560496499</v>
       </c>
-      <c r="Q7" s="61">
+      <c r="F7" s="61">
         <v>6.5701243370405003</v>
       </c>
-      <c r="R7" s="61">
+      <c r="G7" s="61">
         <v>6.1673828533936303</v>
       </c>
-      <c r="S7" s="61">
+      <c r="H7" s="61">
         <v>6.1694182149072399</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I7" s="61">
+        <v>3.92222027830192</v>
+      </c>
+      <c r="J7" s="61">
+        <v>3.9233574810545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
@@ -10792,49 +10676,26 @@
         <v>38</v>
       </c>
       <c r="D8" s="37"/>
-      <c r="E8" s="62">
-        <v>427</v>
-      </c>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62">
-        <v>434</v>
-      </c>
-      <c r="H8" s="62">
-        <v>456</v>
-      </c>
-      <c r="I8" s="62">
-        <v>407.3</v>
-      </c>
-      <c r="J8" s="62">
-        <v>457</v>
-      </c>
-      <c r="K8" s="62">
-        <v>367.4</v>
-      </c>
-      <c r="L8" s="62">
-        <v>453</v>
-      </c>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62">
-        <v>430.23500000000001</v>
-      </c>
-      <c r="O8" s="62">
-        <v>432.14516345000101</v>
-      </c>
-      <c r="P8" s="63">
+      <c r="E8" s="63">
         <v>432.13421939075698</v>
       </c>
-      <c r="Q8" s="63">
+      <c r="F8" s="63">
         <v>432.13421939075698</v>
       </c>
-      <c r="R8" s="63">
+      <c r="G8" s="63">
         <v>432.13421939075698</v>
       </c>
-      <c r="S8" s="63">
+      <c r="H8" s="63">
         <v>432.13421939075698</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="J8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
@@ -10845,49 +10706,26 @@
         <v>38</v>
       </c>
       <c r="D9" s="40"/>
-      <c r="E9" s="64">
-        <v>959</v>
-      </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64">
-        <v>1155</v>
-      </c>
-      <c r="H9" s="64">
-        <v>1083</v>
-      </c>
-      <c r="I9" s="64">
-        <v>1217.3</v>
-      </c>
-      <c r="J9" s="64">
-        <v>1082</v>
-      </c>
-      <c r="K9" s="64">
-        <v>1101</v>
-      </c>
-      <c r="L9" s="64">
-        <v>962</v>
-      </c>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64">
-        <v>1173.5440000000001</v>
-      </c>
-      <c r="O9" s="64">
-        <v>1007.7401516</v>
-      </c>
-      <c r="P9" s="65">
+      <c r="E9" s="65">
         <v>1179.2604523596699</v>
       </c>
-      <c r="Q9" s="65">
+      <c r="F9" s="65">
         <v>1179.2604523596699</v>
       </c>
-      <c r="R9" s="65">
+      <c r="G9" s="65">
         <v>1179.2604523596699</v>
       </c>
-      <c r="S9" s="65">
+      <c r="H9" s="65">
         <v>1179.2604523596699</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+      <c r="J9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
@@ -10898,49 +10736,26 @@
         <v>38</v>
       </c>
       <c r="D10" s="42"/>
-      <c r="E10" s="64">
-        <v>1086</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64">
-        <v>1079</v>
-      </c>
-      <c r="H10" s="64">
-        <v>1003</v>
-      </c>
-      <c r="I10" s="64">
-        <v>856.5</v>
-      </c>
-      <c r="J10" s="64">
-        <v>1002</v>
-      </c>
-      <c r="K10" s="64">
-        <v>1012</v>
-      </c>
-      <c r="L10" s="64">
-        <v>1090</v>
-      </c>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64">
-        <v>1042.9390000000001</v>
-      </c>
-      <c r="O10" s="64">
-        <v>1200.5252885888899</v>
-      </c>
-      <c r="P10" s="65">
+      <c r="E10" s="65">
         <v>1040.5181340796801</v>
       </c>
-      <c r="Q10" s="65">
+      <c r="F10" s="65">
         <v>1040.5181340796801</v>
       </c>
-      <c r="R10" s="65">
+      <c r="G10" s="65">
         <v>1040.5181340796801</v>
       </c>
-      <c r="S10" s="65">
+      <c r="H10" s="65">
         <v>1040.5181340796801</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I10" s="65">
+        <v>1040.5181340796701</v>
+      </c>
+      <c r="J10" s="65">
+        <v>1040.5181340796701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>46</v>
       </c>
@@ -10951,49 +10766,26 @@
         <v>38</v>
       </c>
       <c r="D11" s="42"/>
-      <c r="E11" s="64">
-        <v>1456</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64">
-        <v>1566</v>
-      </c>
-      <c r="H11" s="64">
-        <v>1476</v>
-      </c>
-      <c r="I11" s="64">
-        <v>1467.7</v>
-      </c>
-      <c r="J11" s="64">
-        <v>1474</v>
-      </c>
-      <c r="K11" s="64">
-        <v>1522</v>
-      </c>
-      <c r="L11" s="64">
-        <v>1468</v>
-      </c>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64">
-        <v>1546.3510000000001</v>
-      </c>
-      <c r="O11" s="64">
-        <v>1537.6278685444399</v>
-      </c>
-      <c r="P11" s="65">
+      <c r="E11" s="65">
         <v>1544.9788966738599</v>
       </c>
-      <c r="Q11" s="65">
+      <c r="F11" s="65">
         <v>1544.9788966738599</v>
       </c>
-      <c r="R11" s="65">
+      <c r="G11" s="65">
         <v>892.624096566974</v>
       </c>
-      <c r="S11" s="65">
+      <c r="H11" s="65">
         <v>892.62409774406603</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="J11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -11004,49 +10796,26 @@
         <v>38</v>
       </c>
       <c r="D12" s="42"/>
-      <c r="E12" s="64">
-        <v>1797</v>
-      </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64">
-        <v>1831</v>
-      </c>
-      <c r="H12" s="64">
-        <v>1832</v>
-      </c>
-      <c r="I12" s="64">
-        <v>1831.8</v>
-      </c>
-      <c r="J12" s="64">
-        <v>1832</v>
-      </c>
-      <c r="K12" s="64">
-        <v>1832</v>
-      </c>
-      <c r="L12" s="64">
-        <v>1832</v>
-      </c>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64">
-        <v>1849.6559999999999</v>
-      </c>
-      <c r="O12" s="64">
-        <v>1831.83558790556</v>
-      </c>
-      <c r="P12" s="65">
+      <c r="E12" s="65">
         <v>1840.06074216252</v>
       </c>
-      <c r="Q12" s="65">
+      <c r="F12" s="65">
         <v>1840.06074216252</v>
       </c>
-      <c r="R12" s="65">
+      <c r="G12" s="65">
         <v>1840.06074216252</v>
       </c>
-      <c r="S12" s="65">
+      <c r="H12" s="65">
         <v>1840.06074216252</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="I12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="J12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>48</v>
       </c>
@@ -11057,47 +10826,26 @@
         <v>38</v>
       </c>
       <c r="D13" s="42"/>
-      <c r="E13" s="64">
-        <v>946</v>
-      </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64">
-        <v>1051</v>
-      </c>
-      <c r="H13" s="64">
-        <v>962</v>
-      </c>
-      <c r="I13" s="64">
-        <v>954.3</v>
-      </c>
-      <c r="J13" s="64">
-        <v>926</v>
-      </c>
-      <c r="K13" s="64">
-        <v>984.17</v>
-      </c>
-      <c r="L13" s="64">
-        <v>914</v>
-      </c>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64">
-        <v>999.41994172221905</v>
-      </c>
-      <c r="P13" s="66">
+      <c r="E13" s="66">
         <v>980.36646390777798</v>
       </c>
-      <c r="Q13" s="66">
+      <c r="F13" s="66">
         <v>980.36646390777798</v>
       </c>
-      <c r="R13" s="66">
+      <c r="G13" s="66">
         <v>787.80560311489398</v>
       </c>
-      <c r="S13" s="66">
+      <c r="H13" s="66">
         <v>787.80560303633399</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="I13" s="66">
+        <v>720.92028061101701</v>
+      </c>
+      <c r="J13" s="66">
+        <v>720.92028061101701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A14" s="43" t="s">
         <v>20</v>
       </c>
@@ -11108,47 +10856,26 @@
         <v>39</v>
       </c>
       <c r="D14" s="45"/>
-      <c r="E14" s="67">
-        <v>0.64972527472527475</v>
-      </c>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67">
-        <v>0.67113665389527455</v>
-      </c>
-      <c r="H14" s="67">
-        <v>0.6517615176151762</v>
-      </c>
-      <c r="I14" s="67">
-        <v>0.65020099475369619</v>
-      </c>
-      <c r="J14" s="67">
-        <v>0.62822252374491183</v>
-      </c>
-      <c r="K14" s="67">
-        <v>0.64662943495400782</v>
-      </c>
-      <c r="L14" s="67">
-        <v>0.62261580381471393</v>
-      </c>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67">
-        <v>0.64997517420668038</v>
-      </c>
-      <c r="P14" s="68">
+      <c r="E14" s="68">
         <v>0.63455006797722602</v>
       </c>
-      <c r="Q14" s="68">
+      <c r="F14" s="68">
         <v>0.63455006797722602</v>
       </c>
-      <c r="R14" s="68">
+      <c r="G14" s="68">
         <v>0.88257263740110503</v>
       </c>
-      <c r="S14" s="68">
+      <c r="H14" s="68">
         <v>0.88257263614925796</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="22" customHeight="1">
+      <c r="I14" s="68">
+        <v>0.46662144199060801</v>
+      </c>
+      <c r="J14" s="68">
+        <v>0.46662144199060801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="22" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -11161,1176 +10888,624 @@
       <c r="D15" s="19">
         <v>1</v>
       </c>
-      <c r="E15" s="69">
-        <v>0</v>
-      </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69">
-        <v>0</v>
-      </c>
-      <c r="H15" s="69">
-        <v>0</v>
-      </c>
-      <c r="I15" s="69">
-        <v>0</v>
-      </c>
-      <c r="J15" s="69">
-        <v>0</v>
-      </c>
-      <c r="K15" s="69">
-        <v>0</v>
-      </c>
-      <c r="L15" s="69">
-        <v>0</v>
-      </c>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69">
-        <v>0</v>
-      </c>
-      <c r="O15" s="69">
-        <v>0</v>
-      </c>
-      <c r="P15" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="70">
-        <v>0</v>
-      </c>
-      <c r="R15" s="70">
-        <v>0</v>
-      </c>
-      <c r="S15" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="22" customHeight="1">
+      <c r="E15" s="70">
+        <v>0</v>
+      </c>
+      <c r="F15" s="70">
+        <v>0</v>
+      </c>
+      <c r="G15" s="70">
+        <v>0</v>
+      </c>
+      <c r="H15" s="70">
+        <v>0</v>
+      </c>
+      <c r="I15" s="70">
+        <v>0</v>
+      </c>
+      <c r="J15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="22" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
       <c r="D16" s="49">
         <v>2</v>
       </c>
-      <c r="E16" s="71">
-        <v>0</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71">
-        <v>0</v>
-      </c>
-      <c r="H16" s="71">
-        <v>0</v>
-      </c>
-      <c r="I16" s="71">
-        <v>0</v>
-      </c>
-      <c r="J16" s="71">
-        <v>0</v>
-      </c>
-      <c r="K16" s="71">
-        <v>0</v>
-      </c>
-      <c r="L16" s="71">
-        <v>0</v>
-      </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71">
-        <v>0</v>
-      </c>
-      <c r="O16" s="71">
-        <v>0</v>
-      </c>
-      <c r="P16" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="72">
-        <v>0</v>
-      </c>
-      <c r="R16" s="72">
-        <v>0</v>
-      </c>
-      <c r="S16" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="22" customHeight="1">
+      <c r="E16" s="72">
+        <v>0</v>
+      </c>
+      <c r="F16" s="72">
+        <v>0</v>
+      </c>
+      <c r="G16" s="72">
+        <v>0</v>
+      </c>
+      <c r="H16" s="72">
+        <v>0</v>
+      </c>
+      <c r="I16" s="72">
+        <v>0</v>
+      </c>
+      <c r="J16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="22" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
       <c r="D17" s="49">
         <v>3</v>
       </c>
-      <c r="E17" s="71">
-        <v>0</v>
-      </c>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71">
-        <v>0</v>
-      </c>
-      <c r="H17" s="71">
-        <v>0</v>
-      </c>
-      <c r="I17" s="71">
-        <v>0</v>
-      </c>
-      <c r="J17" s="71">
-        <v>0</v>
-      </c>
-      <c r="K17" s="71">
-        <v>0</v>
-      </c>
-      <c r="L17" s="71">
-        <v>0</v>
-      </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71">
-        <v>0</v>
-      </c>
-      <c r="O17" s="71">
-        <v>0</v>
-      </c>
-      <c r="P17" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="72">
-        <v>0</v>
-      </c>
-      <c r="R17" s="72">
-        <v>0</v>
-      </c>
-      <c r="S17" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="22" customHeight="1">
+      <c r="E17" s="72">
+        <v>0</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0</v>
+      </c>
+      <c r="G17" s="72">
+        <v>0</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0</v>
+      </c>
+      <c r="I17" s="72">
+        <v>0</v>
+      </c>
+      <c r="J17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="22" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
       <c r="D18" s="49">
         <v>4</v>
       </c>
-      <c r="E18" s="71">
-        <v>0</v>
-      </c>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71">
-        <v>0</v>
-      </c>
-      <c r="H18" s="71">
-        <v>0</v>
-      </c>
-      <c r="I18" s="71">
-        <v>0</v>
-      </c>
-      <c r="J18" s="71">
-        <v>0</v>
-      </c>
-      <c r="K18" s="71">
-        <v>0</v>
-      </c>
-      <c r="L18" s="71">
-        <v>0</v>
-      </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71">
-        <v>0</v>
-      </c>
-      <c r="O18" s="71">
-        <v>0</v>
-      </c>
-      <c r="P18" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="72">
-        <v>0</v>
-      </c>
-      <c r="R18" s="72">
-        <v>0</v>
-      </c>
-      <c r="S18" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="22" customHeight="1">
+      <c r="E18" s="72">
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <v>0</v>
+      </c>
+      <c r="G18" s="72">
+        <v>0</v>
+      </c>
+      <c r="H18" s="72">
+        <v>0</v>
+      </c>
+      <c r="I18" s="72">
+        <v>0</v>
+      </c>
+      <c r="J18" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="22" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
       <c r="D19" s="49">
         <v>5</v>
       </c>
-      <c r="E19" s="71">
-        <v>0</v>
-      </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71">
-        <v>0</v>
-      </c>
-      <c r="H19" s="71">
-        <v>0</v>
-      </c>
-      <c r="I19" s="71">
-        <v>0</v>
-      </c>
-      <c r="J19" s="71">
-        <v>0</v>
-      </c>
-      <c r="K19" s="71">
-        <v>0</v>
-      </c>
-      <c r="L19" s="71">
-        <v>0</v>
-      </c>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71">
-        <v>0</v>
-      </c>
-      <c r="O19" s="71">
-        <v>0</v>
-      </c>
-      <c r="P19" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="72">
-        <v>0</v>
-      </c>
-      <c r="R19" s="72">
-        <v>0</v>
-      </c>
-      <c r="S19" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="22" customHeight="1">
+      <c r="E19" s="72">
+        <v>0</v>
+      </c>
+      <c r="F19" s="72">
+        <v>0</v>
+      </c>
+      <c r="G19" s="72">
+        <v>0</v>
+      </c>
+      <c r="H19" s="72">
+        <v>0</v>
+      </c>
+      <c r="I19" s="72">
+        <v>0</v>
+      </c>
+      <c r="J19" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="22" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
       <c r="D20" s="49">
         <v>6</v>
       </c>
-      <c r="E20" s="71">
-        <v>0</v>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71">
-        <v>0</v>
-      </c>
-      <c r="H20" s="71">
-        <v>0</v>
-      </c>
-      <c r="I20" s="71">
-        <v>0</v>
-      </c>
-      <c r="J20" s="71">
-        <v>0</v>
-      </c>
-      <c r="K20" s="71">
-        <v>0</v>
-      </c>
-      <c r="L20" s="71">
-        <v>0</v>
-      </c>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71">
-        <v>0</v>
-      </c>
-      <c r="O20" s="71">
-        <v>0</v>
-      </c>
-      <c r="P20" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="72">
-        <v>0</v>
-      </c>
-      <c r="R20" s="72">
-        <v>0</v>
-      </c>
-      <c r="S20" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="22" customHeight="1">
+      <c r="E20" s="72">
+        <v>0</v>
+      </c>
+      <c r="F20" s="72">
+        <v>0</v>
+      </c>
+      <c r="G20" s="72">
+        <v>0</v>
+      </c>
+      <c r="H20" s="72">
+        <v>0</v>
+      </c>
+      <c r="I20" s="72">
+        <v>0</v>
+      </c>
+      <c r="J20" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="22" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
       <c r="D21" s="49">
         <v>7</v>
       </c>
-      <c r="E21" s="71">
-        <v>1.6</v>
-      </c>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71">
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="71">
-        <v>3.0447222222222199</v>
-      </c>
-      <c r="I21" s="71">
-        <v>3.02</v>
-      </c>
-      <c r="J21" s="71">
-        <v>3</v>
-      </c>
-      <c r="K21" s="71">
-        <v>3.05</v>
-      </c>
-      <c r="L21" s="71">
-        <v>3</v>
-      </c>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71">
-        <v>3</v>
-      </c>
-      <c r="O21" s="71">
-        <v>2.0813722222222202</v>
-      </c>
-      <c r="P21" s="72">
+      <c r="E21" s="72">
         <v>4.1392058833219298</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="F21" s="72">
         <v>4.1392058833219298</v>
       </c>
-      <c r="R21" s="72">
+      <c r="G21" s="72">
         <v>2.6678017674933501</v>
       </c>
-      <c r="S21" s="72">
+      <c r="H21" s="72">
         <v>2.6678017732455301</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="22" customHeight="1">
+      <c r="I21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="J21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="22" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
       <c r="D22" s="49">
         <v>8</v>
       </c>
-      <c r="E22" s="71">
-        <v>13.8</v>
-      </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71">
-        <v>12.59</v>
-      </c>
-      <c r="H22" s="71">
-        <v>20.6463888888889</v>
-      </c>
-      <c r="I22" s="71">
-        <v>20.59</v>
-      </c>
-      <c r="J22" s="71">
-        <v>21</v>
-      </c>
-      <c r="K22" s="71">
-        <v>20.69</v>
-      </c>
-      <c r="L22" s="71">
-        <v>20.68</v>
-      </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71">
-        <v>21</v>
-      </c>
-      <c r="O22" s="71">
-        <v>19.662572222222199</v>
-      </c>
-      <c r="P22" s="72">
+      <c r="E22" s="72">
         <v>19.906615707371799</v>
       </c>
-      <c r="Q22" s="72">
+      <c r="F22" s="72">
         <v>19.906615707371799</v>
       </c>
-      <c r="R22" s="72">
+      <c r="G22" s="72">
         <v>12.81558952997</v>
       </c>
-      <c r="S22" s="72">
+      <c r="H22" s="72">
         <v>12.815589557964399</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="22" customHeight="1">
+      <c r="I22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+      <c r="J22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="22" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
       <c r="D23" s="49">
         <v>9</v>
       </c>
-      <c r="E23" s="71">
-        <v>31.6</v>
-      </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71">
-        <v>30.01</v>
-      </c>
-      <c r="H23" s="71">
-        <v>38.883611111111101</v>
-      </c>
-      <c r="I23" s="71">
-        <v>38.83</v>
-      </c>
-      <c r="J23" s="71">
-        <v>39</v>
-      </c>
-      <c r="K23" s="71">
-        <v>38.94</v>
-      </c>
-      <c r="L23" s="71">
-        <v>38.94</v>
-      </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71">
-        <v>39</v>
-      </c>
-      <c r="O23" s="71">
-        <v>38.301900000000003</v>
-      </c>
-      <c r="P23" s="72">
+      <c r="E23" s="72">
         <v>35.4789194339197</v>
       </c>
-      <c r="Q23" s="72">
+      <c r="F23" s="72">
         <v>35.4789194339197</v>
       </c>
-      <c r="R23" s="72">
+      <c r="G23" s="72">
         <v>22.848403190272499</v>
       </c>
-      <c r="S23" s="72">
+      <c r="H23" s="72">
         <v>22.848403241642899</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="22" customHeight="1">
+      <c r="I23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+      <c r="J23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="22" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
       <c r="D24" s="49">
         <v>10</v>
       </c>
-      <c r="E24" s="71">
-        <v>48.3</v>
-      </c>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71">
-        <v>46.23</v>
-      </c>
-      <c r="H24" s="71">
-        <v>54.566388888888902</v>
-      </c>
-      <c r="I24" s="71">
-        <v>54.53</v>
-      </c>
-      <c r="J24" s="71">
-        <v>55</v>
-      </c>
-      <c r="K24" s="71">
-        <v>54.67</v>
-      </c>
-      <c r="L24" s="71">
-        <v>54.56</v>
-      </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71">
-        <v>55</v>
-      </c>
-      <c r="O24" s="71">
-        <v>54.522649999999999</v>
-      </c>
-      <c r="P24" s="72">
+      <c r="E24" s="72">
         <v>48.983743617066096</v>
       </c>
-      <c r="Q24" s="72">
+      <c r="F24" s="72">
         <v>48.983743617066096</v>
       </c>
-      <c r="R24" s="72">
+      <c r="G24" s="72">
         <v>31.591968263216799</v>
       </c>
-      <c r="S24" s="72">
+      <c r="H24" s="72">
         <v>31.591968336638001</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="23" customHeight="1">
+      <c r="I24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="J24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="23" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
       <c r="D25" s="49">
         <v>11</v>
       </c>
-      <c r="E25" s="71">
-        <v>61.6</v>
-      </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71">
-        <v>59.31</v>
-      </c>
-      <c r="H25" s="71">
-        <v>65.973333333333301</v>
-      </c>
-      <c r="I25" s="71">
-        <v>54.77</v>
-      </c>
-      <c r="J25" s="71">
-        <v>66</v>
-      </c>
-      <c r="K25" s="71">
-        <v>66.08</v>
-      </c>
-      <c r="L25" s="71">
-        <v>65.989999999999995</v>
-      </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71">
-        <v>66</v>
-      </c>
-      <c r="O25" s="71">
-        <v>66.476005555555602</v>
-      </c>
-      <c r="P25" s="72">
+      <c r="E25" s="72">
         <v>58.449624348728598</v>
       </c>
-      <c r="Q25" s="72">
+      <c r="F25" s="72">
         <v>58.449624348728598</v>
       </c>
-      <c r="R25" s="72">
+      <c r="G25" s="72">
         <v>37.725650704053997</v>
       </c>
-      <c r="S25" s="72">
+      <c r="H25" s="72">
         <v>37.725650793642203</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" ht="22" customHeight="1">
+      <c r="I25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="J25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="22" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
       <c r="D26" s="49">
         <v>12</v>
       </c>
-      <c r="E26" s="71">
-        <v>69.3</v>
-      </c>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71">
-        <v>65.05</v>
-      </c>
-      <c r="H26" s="71">
-        <v>71.783888888888896</v>
-      </c>
-      <c r="I26" s="71">
-        <v>59.65</v>
-      </c>
-      <c r="J26" s="71">
-        <v>72</v>
-      </c>
-      <c r="K26" s="71">
-        <v>71.92</v>
-      </c>
-      <c r="L26" s="71">
-        <v>71.739999999999995</v>
-      </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71">
-        <v>73</v>
-      </c>
-      <c r="O26" s="71">
-        <v>72.487566666666694</v>
-      </c>
-      <c r="P26" s="72">
+      <c r="E26" s="72">
         <v>63.727583713799</v>
       </c>
-      <c r="Q26" s="72">
+      <c r="F26" s="72">
         <v>63.727583713799</v>
       </c>
-      <c r="R26" s="72">
+      <c r="G26" s="72">
         <v>41.039334639827999</v>
       </c>
-      <c r="S26" s="72">
+      <c r="H26" s="72">
         <v>41.039334737269499</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="22" customHeight="1">
+      <c r="I26" s="72">
+        <v>63.727583713799</v>
+      </c>
+      <c r="J26" s="72">
+        <v>63.727583713799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="22" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
       <c r="D27" s="49">
         <v>13</v>
       </c>
-      <c r="E27" s="71">
-        <v>71.7</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71">
-        <v>66.98</v>
-      </c>
-      <c r="H27" s="71">
-        <v>72.283888888888896</v>
-      </c>
-      <c r="I27" s="71">
-        <v>60.1</v>
-      </c>
-      <c r="J27" s="71">
-        <v>72</v>
-      </c>
-      <c r="K27" s="71">
-        <v>72.42</v>
-      </c>
-      <c r="L27" s="71">
-        <v>72.3</v>
-      </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71">
-        <v>73</v>
-      </c>
-      <c r="O27" s="71">
-        <v>73.243372222222206</v>
-      </c>
-      <c r="P27" s="72">
+      <c r="E27" s="72">
         <v>63.469189819430298</v>
       </c>
-      <c r="Q27" s="72">
+      <c r="F27" s="72">
         <v>63.469189819430298</v>
       </c>
-      <c r="R27" s="72">
+      <c r="G27" s="72">
         <v>40.865580315589398</v>
       </c>
-      <c r="S27" s="72">
+      <c r="H27" s="72">
         <v>40.865580412636703</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="22" customHeight="1">
+      <c r="I27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+      <c r="J27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="22" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
       <c r="D28" s="49">
         <v>14</v>
       </c>
-      <c r="E28" s="71">
-        <v>68.099999999999994</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71">
-        <v>63.11</v>
-      </c>
-      <c r="H28" s="71">
-        <v>66.407499999999999</v>
-      </c>
-      <c r="I28" s="71">
-        <v>55.24</v>
-      </c>
-      <c r="J28" s="71">
-        <v>66</v>
-      </c>
-      <c r="K28" s="71">
-        <v>66.53</v>
-      </c>
-      <c r="L28" s="71">
-        <v>66.38</v>
-      </c>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71">
-        <v>67</v>
-      </c>
-      <c r="O28" s="71">
-        <v>67.243438888888903</v>
-      </c>
-      <c r="P28" s="72">
+      <c r="E28" s="72">
         <v>57.163889629705899</v>
       </c>
-      <c r="Q28" s="72">
+      <c r="F28" s="72">
         <v>57.163889629705899</v>
       </c>
-      <c r="R28" s="72">
+      <c r="G28" s="72">
         <v>36.846303901398798</v>
       </c>
-      <c r="S28" s="72">
+      <c r="H28" s="72">
         <v>36.8463039881822</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" ht="22" customHeight="1">
+      <c r="I28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="J28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="22" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
       <c r="D29" s="49">
         <v>15</v>
       </c>
-      <c r="E29" s="71">
-        <v>58.9</v>
-      </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71">
-        <v>51.79</v>
-      </c>
-      <c r="H29" s="71">
-        <v>54.899722222222202</v>
-      </c>
-      <c r="I29" s="71">
-        <v>45.68</v>
-      </c>
-      <c r="J29" s="71">
-        <v>55</v>
-      </c>
-      <c r="K29" s="71">
-        <v>55</v>
-      </c>
-      <c r="L29" s="71">
-        <v>54.8</v>
-      </c>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71">
-        <v>55</v>
-      </c>
-      <c r="O29" s="71">
-        <v>55.359850000000002</v>
-      </c>
-      <c r="P29" s="72">
+      <c r="E29" s="72">
         <v>46.140358781121201</v>
       </c>
-      <c r="Q29" s="72">
+      <c r="F29" s="72">
         <v>46.140358781121201</v>
       </c>
-      <c r="R29" s="72">
+      <c r="G29" s="72">
         <v>29.740492132870699</v>
       </c>
-      <c r="S29" s="72">
+      <c r="H29" s="72">
         <v>29.740492201638801</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="22" customHeight="1">
+      <c r="I29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="J29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="22" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
       <c r="D30" s="49">
         <v>16</v>
       </c>
-      <c r="E30" s="71">
-        <v>44.4</v>
-      </c>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71">
-        <v>37.130000000000003</v>
-      </c>
-      <c r="H30" s="71">
-        <v>38.883611111111101</v>
-      </c>
-      <c r="I30" s="71">
-        <v>32.369999999999997</v>
-      </c>
-      <c r="J30" s="71">
-        <v>39</v>
-      </c>
-      <c r="K30" s="71">
-        <v>38.94</v>
-      </c>
-      <c r="L30" s="71">
-        <v>38.840000000000003</v>
-      </c>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71">
-        <v>39</v>
-      </c>
-      <c r="O30" s="71">
-        <v>38.487944444444402</v>
-      </c>
-      <c r="P30" s="72">
+      <c r="E30" s="72">
         <v>31.726053230763501</v>
       </c>
-      <c r="Q30" s="72">
+      <c r="F30" s="72">
         <v>31.726053230763501</v>
       </c>
-      <c r="R30" s="72">
+      <c r="G30" s="72">
         <v>20.415890169786898</v>
       </c>
-      <c r="S30" s="72">
+      <c r="H30" s="72">
         <v>20.4158902153135</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" ht="22" customHeight="1">
+      <c r="I30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="J30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="22" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
       <c r="D31" s="49">
         <v>17</v>
       </c>
-      <c r="E31" s="71">
-        <v>26.9</v>
-      </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71">
-        <v>19.14</v>
-      </c>
-      <c r="H31" s="71">
-        <v>20.4797222222222</v>
-      </c>
-      <c r="I31" s="71">
-        <v>17.059999999999999</v>
-      </c>
-      <c r="J31" s="71">
-        <v>20</v>
-      </c>
-      <c r="K31" s="71">
-        <v>20.52</v>
-      </c>
-      <c r="L31" s="71">
-        <v>20.46</v>
-      </c>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71">
-        <v>20</v>
-      </c>
-      <c r="O31" s="71">
-        <v>20.1858222222222</v>
-      </c>
-      <c r="P31" s="72">
+      <c r="E31" s="72">
         <v>15.642315521327401</v>
       </c>
-      <c r="Q31" s="72">
+      <c r="F31" s="72">
         <v>15.642315521327401</v>
       </c>
-      <c r="R31" s="72">
+      <c r="G31" s="72">
         <v>10.056396101591901</v>
       </c>
-      <c r="S31" s="72">
+      <c r="H31" s="72">
         <v>10.056396130725201</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="22" customHeight="1">
+      <c r="I31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+      <c r="J31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="22" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9"/>
       <c r="D32" s="49">
         <v>18</v>
       </c>
-      <c r="E32" s="71">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71">
-        <v>4.62</v>
-      </c>
-      <c r="H32" s="71">
-        <v>3.0447222222222199</v>
-      </c>
-      <c r="I32" s="71">
-        <v>2.54</v>
-      </c>
-      <c r="J32" s="71">
-        <v>3</v>
-      </c>
-      <c r="K32" s="71">
-        <v>3.05</v>
-      </c>
-      <c r="L32" s="71">
-        <v>0</v>
-      </c>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71">
-        <v>3</v>
-      </c>
-      <c r="O32" s="71">
-        <v>0</v>
-      </c>
-      <c r="P32" s="72">
+      <c r="E32" s="72">
         <v>2.6701979412288002</v>
       </c>
-      <c r="Q32" s="72">
+      <c r="F32" s="72">
         <v>2.6701979412288002</v>
       </c>
-      <c r="R32" s="72">
+      <c r="G32" s="72">
         <v>1.7130692162255701</v>
       </c>
-      <c r="S32" s="72">
+      <c r="H32" s="72">
         <v>1.7130692235110201</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" ht="22" customHeight="1">
+      <c r="I32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="J32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="22" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
       <c r="D33" s="49">
         <v>19</v>
       </c>
-      <c r="E33" s="71">
-        <v>0</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71">
-        <v>0</v>
-      </c>
-      <c r="H33" s="71">
-        <v>0</v>
-      </c>
-      <c r="I33" s="71">
-        <v>0</v>
-      </c>
-      <c r="J33" s="71">
-        <v>0</v>
-      </c>
-      <c r="K33" s="71">
-        <v>0</v>
-      </c>
-      <c r="L33" s="71">
-        <v>0</v>
-      </c>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71">
-        <v>0</v>
-      </c>
-      <c r="O33" s="71">
-        <v>0</v>
-      </c>
-      <c r="P33" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="72">
-        <v>0</v>
-      </c>
-      <c r="R33" s="72">
-        <v>0</v>
-      </c>
-      <c r="S33" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="22" customHeight="1">
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="72">
+        <v>0</v>
+      </c>
+      <c r="G33" s="72">
+        <v>0</v>
+      </c>
+      <c r="H33" s="72">
+        <v>0</v>
+      </c>
+      <c r="I33" s="72">
+        <v>0</v>
+      </c>
+      <c r="J33" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="22" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
       <c r="D34" s="49">
         <v>20</v>
       </c>
-      <c r="E34" s="71">
-        <v>0</v>
-      </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71">
-        <v>0</v>
-      </c>
-      <c r="H34" s="71">
-        <v>0</v>
-      </c>
-      <c r="I34" s="71">
-        <v>0</v>
-      </c>
-      <c r="J34" s="71">
-        <v>0</v>
-      </c>
-      <c r="K34" s="71">
-        <v>0</v>
-      </c>
-      <c r="L34" s="71">
-        <v>0</v>
-      </c>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71">
-        <v>0</v>
-      </c>
-      <c r="O34" s="71">
-        <v>0</v>
-      </c>
-      <c r="P34" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="72">
-        <v>0</v>
-      </c>
-      <c r="R34" s="72">
-        <v>0</v>
-      </c>
-      <c r="S34" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="22" customHeight="1">
+      <c r="E34" s="72">
+        <v>0</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0</v>
+      </c>
+      <c r="G34" s="72">
+        <v>0</v>
+      </c>
+      <c r="H34" s="72">
+        <v>0</v>
+      </c>
+      <c r="I34" s="72">
+        <v>0</v>
+      </c>
+      <c r="J34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="22" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
       <c r="D35" s="49">
         <v>21</v>
       </c>
-      <c r="E35" s="71">
-        <v>0</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71">
-        <v>0</v>
-      </c>
-      <c r="H35" s="71">
-        <v>0</v>
-      </c>
-      <c r="I35" s="71">
-        <v>0</v>
-      </c>
-      <c r="J35" s="71">
-        <v>0</v>
-      </c>
-      <c r="K35" s="71">
-        <v>0</v>
-      </c>
-      <c r="L35" s="71">
-        <v>0</v>
-      </c>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71">
-        <v>0</v>
-      </c>
-      <c r="O35" s="71">
-        <v>0</v>
-      </c>
-      <c r="P35" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="72">
-        <v>0</v>
-      </c>
-      <c r="R35" s="72">
-        <v>0</v>
-      </c>
-      <c r="S35" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="22" customHeight="1">
+      <c r="E35" s="72">
+        <v>0</v>
+      </c>
+      <c r="F35" s="72">
+        <v>0</v>
+      </c>
+      <c r="G35" s="72">
+        <v>0</v>
+      </c>
+      <c r="H35" s="72">
+        <v>0</v>
+      </c>
+      <c r="I35" s="72">
+        <v>0</v>
+      </c>
+      <c r="J35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="22" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9"/>
       <c r="D36" s="49">
         <v>22</v>
       </c>
-      <c r="E36" s="71">
-        <v>0</v>
-      </c>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71">
-        <v>0</v>
-      </c>
-      <c r="H36" s="71">
-        <v>0</v>
-      </c>
-      <c r="I36" s="71">
-        <v>0</v>
-      </c>
-      <c r="J36" s="71">
-        <v>0</v>
-      </c>
-      <c r="K36" s="71">
-        <v>0</v>
-      </c>
-      <c r="L36" s="71">
-        <v>0</v>
-      </c>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71">
-        <v>0</v>
-      </c>
-      <c r="O36" s="71">
-        <v>0</v>
-      </c>
-      <c r="P36" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="72">
-        <v>0</v>
-      </c>
-      <c r="R36" s="72">
-        <v>0</v>
-      </c>
-      <c r="S36" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="22" customHeight="1">
+      <c r="E36" s="72">
+        <v>0</v>
+      </c>
+      <c r="F36" s="72">
+        <v>0</v>
+      </c>
+      <c r="G36" s="72">
+        <v>0</v>
+      </c>
+      <c r="H36" s="72">
+        <v>0</v>
+      </c>
+      <c r="I36" s="72">
+        <v>0</v>
+      </c>
+      <c r="J36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="22" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9"/>
       <c r="D37" s="49">
         <v>23</v>
       </c>
-      <c r="E37" s="71">
-        <v>0</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71">
-        <v>0</v>
-      </c>
-      <c r="H37" s="71">
-        <v>0</v>
-      </c>
-      <c r="I37" s="71">
-        <v>0</v>
-      </c>
-      <c r="J37" s="71">
-        <v>0</v>
-      </c>
-      <c r="K37" s="71">
-        <v>0</v>
-      </c>
-      <c r="L37" s="71">
-        <v>0</v>
-      </c>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71">
-        <v>0</v>
-      </c>
-      <c r="O37" s="71">
-        <v>0</v>
-      </c>
-      <c r="P37" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="72">
-        <v>0</v>
-      </c>
-      <c r="R37" s="72">
-        <v>0</v>
-      </c>
-      <c r="S37" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="22" customHeight="1" thickBot="1">
+      <c r="E37" s="72">
+        <v>0</v>
+      </c>
+      <c r="F37" s="72">
+        <v>0</v>
+      </c>
+      <c r="G37" s="72">
+        <v>0</v>
+      </c>
+      <c r="H37" s="72">
+        <v>0</v>
+      </c>
+      <c r="I37" s="72">
+        <v>0</v>
+      </c>
+      <c r="J37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="22" customHeight="1" thickBot="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="20">
         <v>24</v>
       </c>
-      <c r="E38" s="73">
-        <v>0</v>
-      </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73">
-        <v>0</v>
-      </c>
-      <c r="H38" s="73">
-        <v>0</v>
-      </c>
-      <c r="I38" s="73">
-        <v>0</v>
-      </c>
-      <c r="J38" s="73">
-        <v>0</v>
-      </c>
-      <c r="K38" s="73">
-        <v>0</v>
-      </c>
-      <c r="L38" s="73">
-        <v>0</v>
-      </c>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73">
-        <v>0</v>
-      </c>
-      <c r="O38" s="73">
-        <v>0</v>
-      </c>
-      <c r="P38" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="74">
-        <v>0</v>
-      </c>
-      <c r="R38" s="74">
-        <v>0</v>
-      </c>
-      <c r="S38" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="22" customHeight="1">
+      <c r="E38" s="74">
+        <v>0</v>
+      </c>
+      <c r="F38" s="74">
+        <v>0</v>
+      </c>
+      <c r="G38" s="74">
+        <v>0</v>
+      </c>
+      <c r="H38" s="74">
+        <v>0</v>
+      </c>
+      <c r="I38" s="74">
+        <v>0</v>
+      </c>
+      <c r="J38" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="22" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>49</v>
       </c>
@@ -12343,1176 +11518,624 @@
       <c r="D39" s="18">
         <v>1</v>
       </c>
-      <c r="E39" s="75">
-        <v>0</v>
-      </c>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75">
-        <v>0</v>
-      </c>
-      <c r="H39" s="75">
-        <v>0</v>
-      </c>
-      <c r="I39" s="75">
-        <v>0</v>
-      </c>
-      <c r="J39" s="75">
-        <v>0</v>
-      </c>
-      <c r="K39" s="75">
-        <v>0</v>
-      </c>
-      <c r="L39" s="75">
-        <v>0</v>
-      </c>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75">
-        <v>0</v>
-      </c>
-      <c r="O39" s="75">
-        <v>0</v>
-      </c>
-      <c r="P39" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="76">
-        <v>0</v>
-      </c>
-      <c r="R39" s="76">
-        <v>0</v>
-      </c>
-      <c r="S39" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="22" customHeight="1">
+      <c r="E39" s="76">
+        <v>0</v>
+      </c>
+      <c r="F39" s="76">
+        <v>0</v>
+      </c>
+      <c r="G39" s="76">
+        <v>0</v>
+      </c>
+      <c r="H39" s="76">
+        <v>0</v>
+      </c>
+      <c r="I39" s="76">
+        <v>0</v>
+      </c>
+      <c r="J39" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="22" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="9"/>
       <c r="D40" s="49">
         <v>2</v>
       </c>
-      <c r="E40" s="71">
-        <v>0</v>
-      </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71">
-        <v>0</v>
-      </c>
-      <c r="H40" s="71">
-        <v>0</v>
-      </c>
-      <c r="I40" s="71">
-        <v>0</v>
-      </c>
-      <c r="J40" s="71">
-        <v>0</v>
-      </c>
-      <c r="K40" s="71">
-        <v>0</v>
-      </c>
-      <c r="L40" s="71">
-        <v>0</v>
-      </c>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71">
-        <v>0</v>
-      </c>
-      <c r="O40" s="71">
-        <v>0</v>
-      </c>
-      <c r="P40" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="72">
-        <v>0</v>
-      </c>
-      <c r="R40" s="72">
-        <v>0</v>
-      </c>
-      <c r="S40" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="22" customHeight="1">
+      <c r="E40" s="72">
+        <v>0</v>
+      </c>
+      <c r="F40" s="72">
+        <v>0</v>
+      </c>
+      <c r="G40" s="72">
+        <v>0</v>
+      </c>
+      <c r="H40" s="72">
+        <v>0</v>
+      </c>
+      <c r="I40" s="72">
+        <v>0</v>
+      </c>
+      <c r="J40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="22" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
       <c r="D41" s="49">
         <v>3</v>
       </c>
-      <c r="E41" s="71">
-        <v>0</v>
-      </c>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71">
-        <v>0</v>
-      </c>
-      <c r="H41" s="71">
-        <v>0</v>
-      </c>
-      <c r="I41" s="71">
-        <v>0</v>
-      </c>
-      <c r="J41" s="71">
-        <v>0</v>
-      </c>
-      <c r="K41" s="71">
-        <v>0</v>
-      </c>
-      <c r="L41" s="71">
-        <v>0</v>
-      </c>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71">
-        <v>0</v>
-      </c>
-      <c r="O41" s="71">
-        <v>0</v>
-      </c>
-      <c r="P41" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="72">
-        <v>0</v>
-      </c>
-      <c r="R41" s="72">
-        <v>0</v>
-      </c>
-      <c r="S41" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="22" customHeight="1">
+      <c r="E41" s="72">
+        <v>0</v>
+      </c>
+      <c r="F41" s="72">
+        <v>0</v>
+      </c>
+      <c r="G41" s="72">
+        <v>0</v>
+      </c>
+      <c r="H41" s="72">
+        <v>0</v>
+      </c>
+      <c r="I41" s="72">
+        <v>0</v>
+      </c>
+      <c r="J41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="22" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
       <c r="D42" s="49">
         <v>4</v>
       </c>
-      <c r="E42" s="71">
-        <v>0</v>
-      </c>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71">
-        <v>0</v>
-      </c>
-      <c r="H42" s="71">
-        <v>0</v>
-      </c>
-      <c r="I42" s="71">
-        <v>0</v>
-      </c>
-      <c r="J42" s="71">
-        <v>0</v>
-      </c>
-      <c r="K42" s="71">
-        <v>0</v>
-      </c>
-      <c r="L42" s="71">
-        <v>0</v>
-      </c>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71">
-        <v>0</v>
-      </c>
-      <c r="O42" s="71">
-        <v>0</v>
-      </c>
-      <c r="P42" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="72">
-        <v>0</v>
-      </c>
-      <c r="R42" s="72">
-        <v>0</v>
-      </c>
-      <c r="S42" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="22" customHeight="1">
+      <c r="E42" s="72">
+        <v>0</v>
+      </c>
+      <c r="F42" s="72">
+        <v>0</v>
+      </c>
+      <c r="G42" s="72">
+        <v>0</v>
+      </c>
+      <c r="H42" s="72">
+        <v>0</v>
+      </c>
+      <c r="I42" s="72">
+        <v>0</v>
+      </c>
+      <c r="J42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="22" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
       <c r="D43" s="49">
         <v>5</v>
       </c>
-      <c r="E43" s="71">
-        <v>0</v>
-      </c>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71">
-        <v>0</v>
-      </c>
-      <c r="H43" s="71">
-        <v>0</v>
-      </c>
-      <c r="I43" s="71">
-        <v>0</v>
-      </c>
-      <c r="J43" s="71">
-        <v>0</v>
-      </c>
-      <c r="K43" s="71">
-        <v>0</v>
-      </c>
-      <c r="L43" s="71">
-        <v>0</v>
-      </c>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71">
-        <v>0</v>
-      </c>
-      <c r="O43" s="71">
-        <v>0</v>
-      </c>
-      <c r="P43" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="72">
-        <v>0</v>
-      </c>
-      <c r="R43" s="72">
-        <v>0</v>
-      </c>
-      <c r="S43" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="22" customHeight="1">
+      <c r="E43" s="72">
+        <v>0</v>
+      </c>
+      <c r="F43" s="72">
+        <v>0</v>
+      </c>
+      <c r="G43" s="72">
+        <v>0</v>
+      </c>
+      <c r="H43" s="72">
+        <v>0</v>
+      </c>
+      <c r="I43" s="72">
+        <v>0</v>
+      </c>
+      <c r="J43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="22" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
       <c r="D44" s="49">
         <v>6</v>
       </c>
-      <c r="E44" s="71">
-        <v>0</v>
-      </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71">
-        <v>0</v>
-      </c>
-      <c r="H44" s="71">
-        <v>0</v>
-      </c>
-      <c r="I44" s="71">
-        <v>0</v>
-      </c>
-      <c r="J44" s="71">
-        <v>0</v>
-      </c>
-      <c r="K44" s="71">
-        <v>0</v>
-      </c>
-      <c r="L44" s="71">
-        <v>0</v>
-      </c>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71">
-        <v>0</v>
-      </c>
-      <c r="O44" s="71">
-        <v>0</v>
-      </c>
-      <c r="P44" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="72">
-        <v>0</v>
-      </c>
-      <c r="R44" s="72">
-        <v>0</v>
-      </c>
-      <c r="S44" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="22" customHeight="1">
+      <c r="E44" s="72">
+        <v>0</v>
+      </c>
+      <c r="F44" s="72">
+        <v>0</v>
+      </c>
+      <c r="G44" s="72">
+        <v>0</v>
+      </c>
+      <c r="H44" s="72">
+        <v>0</v>
+      </c>
+      <c r="I44" s="72">
+        <v>0</v>
+      </c>
+      <c r="J44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="22" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9"/>
       <c r="D45" s="49">
         <v>7</v>
       </c>
-      <c r="E45" s="71">
-        <v>1.6</v>
-      </c>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71">
-        <v>1.8</v>
-      </c>
-      <c r="H45" s="71">
-        <v>2.9966666666666701</v>
-      </c>
-      <c r="I45" s="71">
-        <v>3</v>
-      </c>
-      <c r="J45" s="71">
-        <v>3</v>
-      </c>
-      <c r="K45" s="71">
-        <v>2.99</v>
-      </c>
-      <c r="L45" s="71">
-        <v>3</v>
-      </c>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71">
-        <v>3</v>
-      </c>
-      <c r="O45" s="71">
-        <v>2.97671111111111</v>
-      </c>
-      <c r="P45" s="72">
+      <c r="E45" s="72">
         <v>4.1007164603674999</v>
       </c>
-      <c r="Q45" s="72">
+      <c r="F45" s="72">
         <v>4.1007164603674999</v>
       </c>
-      <c r="R45" s="72">
+      <c r="G45" s="72">
         <v>4.1007164603674999</v>
       </c>
-      <c r="S45" s="72">
+      <c r="H45" s="72">
         <v>4.1007164603674999</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" ht="22" customHeight="1">
+      <c r="I45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+      <c r="J45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="22" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9"/>
       <c r="D46" s="49">
         <v>8</v>
       </c>
-      <c r="E46" s="71">
-        <v>13.5</v>
-      </c>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71">
-        <v>13.92</v>
-      </c>
-      <c r="H46" s="71">
-        <v>20.183055555555601</v>
-      </c>
-      <c r="I46" s="71">
-        <v>20.239999999999998</v>
-      </c>
-      <c r="J46" s="71">
-        <v>20</v>
-      </c>
-      <c r="K46" s="71">
-        <v>20.170000000000002</v>
-      </c>
-      <c r="L46" s="71">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71">
-        <v>20</v>
-      </c>
-      <c r="O46" s="71">
-        <v>20.883488888888898</v>
-      </c>
-      <c r="P46" s="72">
+      <c r="E46" s="72">
         <v>19.5371160502471</v>
       </c>
-      <c r="Q46" s="72">
+      <c r="F46" s="72">
         <v>19.5371160502471</v>
       </c>
-      <c r="R46" s="72">
+      <c r="G46" s="72">
         <v>19.5371160502471</v>
       </c>
-      <c r="S46" s="72">
+      <c r="H46" s="72">
         <v>19.5371160502471</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" ht="22" customHeight="1">
+      <c r="I46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+      <c r="J46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="22" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9"/>
       <c r="D47" s="49">
         <v>9</v>
       </c>
-      <c r="E47" s="71">
-        <v>31</v>
-      </c>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71">
-        <v>31.75</v>
-      </c>
-      <c r="H47" s="71">
-        <v>37.954999999999998</v>
-      </c>
-      <c r="I47" s="71">
-        <v>38.01</v>
-      </c>
-      <c r="J47" s="71">
-        <v>38</v>
-      </c>
-      <c r="K47" s="71">
-        <v>37.92</v>
-      </c>
-      <c r="L47" s="71">
-        <v>37.9</v>
-      </c>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71">
-        <v>38</v>
-      </c>
-      <c r="O47" s="71">
-        <v>38.2902722222222</v>
-      </c>
-      <c r="P47" s="72">
+      <c r="E47" s="72">
         <v>34.579912168593196</v>
       </c>
-      <c r="Q47" s="72">
+      <c r="F47" s="72">
         <v>34.579912168593196</v>
       </c>
-      <c r="R47" s="72">
+      <c r="G47" s="72">
         <v>34.579912168593196</v>
       </c>
-      <c r="S47" s="72">
+      <c r="H47" s="72">
         <v>34.579912168593196</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" ht="22" customHeight="1">
+      <c r="I47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+      <c r="J47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="22" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9"/>
       <c r="D48" s="49">
         <v>10</v>
       </c>
-      <c r="E48" s="71">
-        <v>47.1</v>
-      </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71">
-        <v>45.24</v>
-      </c>
-      <c r="H48" s="71">
-        <v>53.244444444444397</v>
-      </c>
-      <c r="I48" s="71">
-        <v>53.27</v>
-      </c>
-      <c r="J48" s="71">
-        <v>53</v>
-      </c>
-      <c r="K48" s="71">
-        <v>53.17</v>
-      </c>
-      <c r="L48" s="71">
-        <v>53.15</v>
-      </c>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71">
-        <v>53</v>
-      </c>
-      <c r="O48" s="71">
-        <v>53.2087111111111</v>
-      </c>
-      <c r="P48" s="72">
+      <c r="E48" s="72">
         <v>47.821201299679402</v>
       </c>
-      <c r="Q48" s="72">
+      <c r="F48" s="72">
         <v>47.821201299679402</v>
       </c>
-      <c r="R48" s="72">
+      <c r="G48" s="72">
         <v>47.821201299679402</v>
       </c>
-      <c r="S48" s="72">
+      <c r="H48" s="72">
         <v>47.821201299679402</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" ht="22" customHeight="1">
+      <c r="I48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+      <c r="J48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="22" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
       <c r="D49" s="49">
         <v>11</v>
       </c>
-      <c r="E49" s="71">
-        <v>59.7</v>
-      </c>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71">
-        <v>56.63</v>
-      </c>
-      <c r="H49" s="71">
-        <v>64.467222222222205</v>
-      </c>
-      <c r="I49" s="71">
-        <v>53.37</v>
-      </c>
-      <c r="J49" s="71">
-        <v>64</v>
-      </c>
-      <c r="K49" s="71">
-        <v>64.39</v>
-      </c>
-      <c r="L49" s="71">
-        <v>64.400000000000006</v>
-      </c>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71">
-        <v>64</v>
-      </c>
-      <c r="O49" s="71">
-        <v>63.859755555555601</v>
-      </c>
-      <c r="P49" s="72">
+      <c r="E49" s="72">
         <v>56.972936122782201</v>
       </c>
-      <c r="Q49" s="72">
+      <c r="F49" s="72">
         <v>56.972936122782201</v>
       </c>
-      <c r="R49" s="72">
+      <c r="G49" s="72">
         <v>56.972936122782201</v>
       </c>
-      <c r="S49" s="72">
+      <c r="H49" s="72">
         <v>56.972936122782201</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="22" customHeight="1">
+      <c r="I49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+      <c r="J49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="22" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
       <c r="D50" s="49">
         <v>12</v>
       </c>
-      <c r="E50" s="71">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71">
-        <v>61.58</v>
-      </c>
-      <c r="H50" s="71">
-        <v>69.981944444444494</v>
-      </c>
-      <c r="I50" s="71">
-        <v>57.91</v>
-      </c>
-      <c r="J50" s="71">
-        <v>70</v>
-      </c>
-      <c r="K50" s="71">
-        <v>69.89</v>
-      </c>
-      <c r="L50" s="71">
-        <v>69.95</v>
-      </c>
-      <c r="M50" s="71"/>
-      <c r="N50" s="71">
-        <v>69</v>
-      </c>
-      <c r="O50" s="71">
-        <v>69.1038833333333</v>
-      </c>
-      <c r="P50" s="72">
+      <c r="E50" s="72">
         <v>61.327749698869702</v>
       </c>
-      <c r="Q50" s="72">
+      <c r="F50" s="72">
         <v>61.327749698869702</v>
       </c>
-      <c r="R50" s="72">
+      <c r="G50" s="72">
         <v>61.327749698869702</v>
       </c>
-      <c r="S50" s="72">
+      <c r="H50" s="72">
         <v>61.327749698869702</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" ht="22" customHeight="1">
+      <c r="I50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+      <c r="J50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="22" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
       <c r="D51" s="49">
         <v>13</v>
       </c>
-      <c r="E51" s="71">
-        <v>70.099999999999994</v>
-      </c>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71">
-        <v>63.7</v>
-      </c>
-      <c r="H51" s="71">
-        <v>70.806111111111093</v>
-      </c>
-      <c r="I51" s="71">
-        <v>58.3</v>
-      </c>
-      <c r="J51" s="71">
-        <v>71</v>
-      </c>
-      <c r="K51" s="71">
-        <v>70.75</v>
-      </c>
-      <c r="L51" s="71">
-        <v>71.16</v>
-      </c>
-      <c r="M51" s="71"/>
-      <c r="N51" s="71">
-        <v>70</v>
-      </c>
-      <c r="O51" s="71">
-        <v>70.766655555555602</v>
-      </c>
-      <c r="P51" s="72">
+      <c r="E51" s="72">
         <v>61.427469085573499</v>
       </c>
-      <c r="Q51" s="72">
+      <c r="F51" s="72">
         <v>61.427469085573499</v>
       </c>
-      <c r="R51" s="72">
+      <c r="G51" s="72">
         <v>61.427469085573499</v>
       </c>
-      <c r="S51" s="72">
+      <c r="H51" s="72">
         <v>61.427469085573499</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" ht="22" customHeight="1">
+      <c r="I51" s="72">
+        <v>61.427469085573399</v>
+      </c>
+      <c r="J51" s="72">
+        <v>61.427469085573399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="22" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9"/>
       <c r="D52" s="49">
         <v>14</v>
       </c>
-      <c r="E52" s="71">
-        <v>67.3</v>
-      </c>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71">
-        <v>61.46</v>
-      </c>
-      <c r="H52" s="71">
-        <v>65.663333333333298</v>
-      </c>
-      <c r="I52" s="71">
-        <v>54.15</v>
-      </c>
-      <c r="J52" s="71">
-        <v>66</v>
-      </c>
-      <c r="K52" s="71">
-        <v>65.69</v>
-      </c>
-      <c r="L52" s="71">
-        <v>66.02</v>
-      </c>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71">
-        <v>65</v>
-      </c>
-      <c r="O52" s="71">
-        <v>66.3829833333333</v>
-      </c>
-      <c r="P52" s="72">
+      <c r="E52" s="72">
         <v>56.276220495864997</v>
       </c>
-      <c r="Q52" s="72">
+      <c r="F52" s="72">
         <v>56.276220495864997</v>
       </c>
-      <c r="R52" s="72">
+      <c r="G52" s="72">
         <v>56.276220495864997</v>
       </c>
-      <c r="S52" s="72">
+      <c r="H52" s="72">
         <v>56.276220495864997</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" ht="22" customHeight="1">
+      <c r="I52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+      <c r="J52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="22" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="9"/>
       <c r="D53" s="49">
         <v>15</v>
       </c>
-      <c r="E53" s="71">
-        <v>58.9</v>
-      </c>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71">
-        <v>51.67</v>
-      </c>
-      <c r="H53" s="71">
-        <v>54.921388888888899</v>
-      </c>
-      <c r="I53" s="71">
-        <v>45.38</v>
-      </c>
-      <c r="J53" s="71">
-        <v>55</v>
-      </c>
-      <c r="K53" s="71">
-        <v>55.03</v>
-      </c>
-      <c r="L53" s="71">
-        <v>55.16</v>
-      </c>
-      <c r="M53" s="71"/>
-      <c r="N53" s="71">
-        <v>55</v>
-      </c>
-      <c r="O53" s="71">
-        <v>55.708683333333298</v>
-      </c>
-      <c r="P53" s="72">
+      <c r="E53" s="72">
         <v>46.126684198485002</v>
       </c>
-      <c r="Q53" s="72">
+      <c r="F53" s="72">
         <v>46.126684198485002</v>
       </c>
-      <c r="R53" s="72">
+      <c r="G53" s="72">
         <v>46.126684198485002</v>
       </c>
-      <c r="S53" s="72">
+      <c r="H53" s="72">
         <v>46.126684198485002</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" ht="22" customHeight="1">
+      <c r="I53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+      <c r="J53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="22" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="9"/>
       <c r="D54" s="49">
         <v>16</v>
       </c>
-      <c r="E54" s="71">
-        <v>44.9</v>
-      </c>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71">
-        <v>37.200000000000003</v>
-      </c>
-      <c r="H54" s="71">
-        <v>39.486944444444397</v>
-      </c>
-      <c r="I54" s="71">
-        <v>32.700000000000003</v>
-      </c>
-      <c r="J54" s="71">
-        <v>40</v>
-      </c>
-      <c r="K54" s="71">
-        <v>39.61</v>
-      </c>
-      <c r="L54" s="71">
-        <v>39.729999999999997</v>
-      </c>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71">
-        <v>39</v>
-      </c>
-      <c r="O54" s="71">
-        <v>39.011194444444399</v>
-      </c>
-      <c r="P54" s="72">
+      <c r="E54" s="72">
         <v>32.250110470764497</v>
       </c>
-      <c r="Q54" s="72">
+      <c r="F54" s="72">
         <v>32.250110470764497</v>
       </c>
-      <c r="R54" s="72">
+      <c r="G54" s="72">
         <v>32.250110470764497</v>
       </c>
-      <c r="S54" s="72">
+      <c r="H54" s="72">
         <v>32.250110470764497</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" ht="22" customHeight="1">
+      <c r="I54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+      <c r="J54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="22" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="9"/>
       <c r="D55" s="49">
         <v>17</v>
       </c>
-      <c r="E55" s="71">
-        <v>27.6</v>
-      </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71">
-        <v>16.72</v>
-      </c>
-      <c r="H55" s="71">
-        <v>21.290555555555599</v>
-      </c>
-      <c r="I55" s="71">
-        <v>17.7</v>
-      </c>
-      <c r="J55" s="71">
-        <v>21</v>
-      </c>
-      <c r="K55" s="71">
-        <v>21.42</v>
-      </c>
-      <c r="L55" s="71">
-        <v>21.6</v>
-      </c>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71">
-        <v>21</v>
-      </c>
-      <c r="O55" s="71">
-        <v>19.662572222222199</v>
-      </c>
-      <c r="P55" s="72">
+      <c r="E55" s="72">
         <v>16.123599338209999</v>
       </c>
-      <c r="Q55" s="72">
+      <c r="F55" s="72">
         <v>16.123599338209999</v>
       </c>
-      <c r="R55" s="72">
+      <c r="G55" s="72">
         <v>16.123599338209999</v>
       </c>
-      <c r="S55" s="72">
+      <c r="H55" s="72">
         <v>16.123599338209999</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" ht="22" customHeight="1">
+      <c r="I55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+      <c r="J55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="22" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="9"/>
       <c r="D56" s="49">
         <v>18</v>
       </c>
-      <c r="E56" s="71">
-        <v>9</v>
-      </c>
-      <c r="F56" s="71"/>
-      <c r="G56" s="71">
-        <v>2.52</v>
-      </c>
-      <c r="H56" s="71">
-        <v>3.27</v>
-      </c>
-      <c r="I56" s="71">
-        <v>2.73</v>
-      </c>
-      <c r="J56" s="71">
-        <v>3</v>
-      </c>
-      <c r="K56" s="71">
-        <v>3.28</v>
-      </c>
-      <c r="L56" s="71">
-        <v>0</v>
-      </c>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71">
-        <v>3</v>
-      </c>
-      <c r="O56" s="71">
-        <v>0</v>
-      </c>
-      <c r="P56" s="72">
+      <c r="E56" s="72">
         <v>2.7155242506330199</v>
       </c>
-      <c r="Q56" s="72">
+      <c r="F56" s="72">
         <v>2.7155242506330199</v>
       </c>
-      <c r="R56" s="72">
+      <c r="G56" s="72">
         <v>2.7155242506330199</v>
       </c>
-      <c r="S56" s="72">
+      <c r="H56" s="72">
         <v>2.7155242506330199</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" ht="22" customHeight="1">
+      <c r="I56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+      <c r="J56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="22" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
       <c r="D57" s="49">
         <v>19</v>
       </c>
-      <c r="E57" s="71">
-        <v>0</v>
-      </c>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71">
-        <v>0</v>
-      </c>
-      <c r="H57" s="71">
-        <v>0</v>
-      </c>
-      <c r="I57" s="71">
-        <v>0</v>
-      </c>
-      <c r="J57" s="71">
-        <v>0</v>
-      </c>
-      <c r="K57" s="71">
-        <v>0</v>
-      </c>
-      <c r="L57" s="71">
-        <v>0</v>
-      </c>
-      <c r="M57" s="71"/>
-      <c r="N57" s="71">
-        <v>0</v>
-      </c>
-      <c r="O57" s="71">
-        <v>0</v>
-      </c>
-      <c r="P57" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="72">
-        <v>0</v>
-      </c>
-      <c r="R57" s="72">
-        <v>0</v>
-      </c>
-      <c r="S57" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="22" customHeight="1">
+      <c r="E57" s="72">
+        <v>0</v>
+      </c>
+      <c r="F57" s="72">
+        <v>0</v>
+      </c>
+      <c r="G57" s="72">
+        <v>0</v>
+      </c>
+      <c r="H57" s="72">
+        <v>0</v>
+      </c>
+      <c r="I57" s="72">
+        <v>0</v>
+      </c>
+      <c r="J57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="22" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
       <c r="D58" s="49">
         <v>20</v>
       </c>
-      <c r="E58" s="71">
-        <v>0</v>
-      </c>
-      <c r="F58" s="71"/>
-      <c r="G58" s="71">
-        <v>0</v>
-      </c>
-      <c r="H58" s="71">
-        <v>0</v>
-      </c>
-      <c r="I58" s="71">
-        <v>0</v>
-      </c>
-      <c r="J58" s="71">
-        <v>0</v>
-      </c>
-      <c r="K58" s="71">
-        <v>0</v>
-      </c>
-      <c r="L58" s="71">
-        <v>0</v>
-      </c>
-      <c r="M58" s="71"/>
-      <c r="N58" s="71">
-        <v>0</v>
-      </c>
-      <c r="O58" s="71">
-        <v>0</v>
-      </c>
-      <c r="P58" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="72">
-        <v>0</v>
-      </c>
-      <c r="R58" s="72">
-        <v>0</v>
-      </c>
-      <c r="S58" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="22" customHeight="1">
+      <c r="E58" s="72">
+        <v>0</v>
+      </c>
+      <c r="F58" s="72">
+        <v>0</v>
+      </c>
+      <c r="G58" s="72">
+        <v>0</v>
+      </c>
+      <c r="H58" s="72">
+        <v>0</v>
+      </c>
+      <c r="I58" s="72">
+        <v>0</v>
+      </c>
+      <c r="J58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="22" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
       <c r="D59" s="49">
         <v>21</v>
       </c>
-      <c r="E59" s="71">
-        <v>0</v>
-      </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="71">
-        <v>0</v>
-      </c>
-      <c r="H59" s="71">
-        <v>0</v>
-      </c>
-      <c r="I59" s="71">
-        <v>0</v>
-      </c>
-      <c r="J59" s="71">
-        <v>0</v>
-      </c>
-      <c r="K59" s="71">
-        <v>0</v>
-      </c>
-      <c r="L59" s="71">
-        <v>0</v>
-      </c>
-      <c r="M59" s="71"/>
-      <c r="N59" s="71">
-        <v>0</v>
-      </c>
-      <c r="O59" s="71">
-        <v>0</v>
-      </c>
-      <c r="P59" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="72">
-        <v>0</v>
-      </c>
-      <c r="R59" s="72">
-        <v>0</v>
-      </c>
-      <c r="S59" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="22" customHeight="1">
+      <c r="E59" s="72">
+        <v>0</v>
+      </c>
+      <c r="F59" s="72">
+        <v>0</v>
+      </c>
+      <c r="G59" s="72">
+        <v>0</v>
+      </c>
+      <c r="H59" s="72">
+        <v>0</v>
+      </c>
+      <c r="I59" s="72">
+        <v>0</v>
+      </c>
+      <c r="J59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="22" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="9"/>
       <c r="D60" s="49">
         <v>22</v>
       </c>
-      <c r="E60" s="71">
-        <v>0</v>
-      </c>
-      <c r="F60" s="71"/>
-      <c r="G60" s="71">
-        <v>0</v>
-      </c>
-      <c r="H60" s="71">
-        <v>0</v>
-      </c>
-      <c r="I60" s="71">
-        <v>0</v>
-      </c>
-      <c r="J60" s="71">
-        <v>0</v>
-      </c>
-      <c r="K60" s="71">
-        <v>0</v>
-      </c>
-      <c r="L60" s="71">
-        <v>0</v>
-      </c>
-      <c r="M60" s="71"/>
-      <c r="N60" s="71">
-        <v>0</v>
-      </c>
-      <c r="O60" s="71">
-        <v>0</v>
-      </c>
-      <c r="P60" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="72">
-        <v>0</v>
-      </c>
-      <c r="R60" s="72">
-        <v>0</v>
-      </c>
-      <c r="S60" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="22" customHeight="1">
+      <c r="E60" s="72">
+        <v>0</v>
+      </c>
+      <c r="F60" s="72">
+        <v>0</v>
+      </c>
+      <c r="G60" s="72">
+        <v>0</v>
+      </c>
+      <c r="H60" s="72">
+        <v>0</v>
+      </c>
+      <c r="I60" s="72">
+        <v>0</v>
+      </c>
+      <c r="J60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="22" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
       <c r="D61" s="49">
         <v>23</v>
       </c>
-      <c r="E61" s="71">
-        <v>0</v>
-      </c>
-      <c r="F61" s="71"/>
-      <c r="G61" s="71">
-        <v>0</v>
-      </c>
-      <c r="H61" s="71">
-        <v>0</v>
-      </c>
-      <c r="I61" s="71">
-        <v>0</v>
-      </c>
-      <c r="J61" s="71">
-        <v>0</v>
-      </c>
-      <c r="K61" s="71">
-        <v>0</v>
-      </c>
-      <c r="L61" s="71">
-        <v>0</v>
-      </c>
-      <c r="M61" s="71"/>
-      <c r="N61" s="71">
-        <v>0</v>
-      </c>
-      <c r="O61" s="71">
-        <v>0</v>
-      </c>
-      <c r="P61" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="72">
-        <v>0</v>
-      </c>
-      <c r="R61" s="72">
-        <v>0</v>
-      </c>
-      <c r="S61" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="22" customHeight="1" thickBot="1">
+      <c r="E61" s="72">
+        <v>0</v>
+      </c>
+      <c r="F61" s="72">
+        <v>0</v>
+      </c>
+      <c r="G61" s="72">
+        <v>0</v>
+      </c>
+      <c r="H61" s="72">
+        <v>0</v>
+      </c>
+      <c r="I61" s="72">
+        <v>0</v>
+      </c>
+      <c r="J61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="22" customHeight="1" thickBot="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="9"/>
       <c r="D62" s="8">
         <v>24</v>
       </c>
-      <c r="E62" s="77">
-        <v>0</v>
-      </c>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77">
-        <v>0</v>
-      </c>
-      <c r="H62" s="77">
-        <v>0</v>
-      </c>
-      <c r="I62" s="77">
-        <v>0</v>
-      </c>
-      <c r="J62" s="77">
-        <v>0</v>
-      </c>
-      <c r="K62" s="77">
-        <v>0</v>
-      </c>
-      <c r="L62" s="77">
-        <v>0</v>
-      </c>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77">
-        <v>0</v>
-      </c>
-      <c r="O62" s="77">
-        <v>0</v>
-      </c>
-      <c r="P62" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="78">
-        <v>0</v>
-      </c>
-      <c r="R62" s="78">
-        <v>0</v>
-      </c>
-      <c r="S62" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="22" customHeight="1">
+      <c r="E62" s="78">
+        <v>0</v>
+      </c>
+      <c r="F62" s="78">
+        <v>0</v>
+      </c>
+      <c r="G62" s="78">
+        <v>0</v>
+      </c>
+      <c r="H62" s="78">
+        <v>0</v>
+      </c>
+      <c r="I62" s="78">
+        <v>0</v>
+      </c>
+      <c r="J62" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="22" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>51</v>
       </c>
@@ -13525,1176 +12148,624 @@
       <c r="D63" s="19">
         <v>1</v>
       </c>
-      <c r="E63" s="69">
-        <v>0</v>
-      </c>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69">
-        <v>0</v>
-      </c>
-      <c r="H63" s="69">
-        <v>0</v>
-      </c>
-      <c r="I63" s="69">
-        <v>0</v>
-      </c>
-      <c r="J63" s="69">
-        <v>0</v>
-      </c>
-      <c r="K63" s="69">
-        <v>0</v>
-      </c>
-      <c r="L63" s="69">
-        <v>0</v>
-      </c>
-      <c r="M63" s="69"/>
-      <c r="N63" s="69">
-        <v>0</v>
-      </c>
-      <c r="O63" s="69">
-        <v>0</v>
-      </c>
-      <c r="P63" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="70">
-        <v>0</v>
-      </c>
-      <c r="R63" s="70">
-        <v>0</v>
-      </c>
-      <c r="S63" s="70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="22" customHeight="1">
+      <c r="E63" s="70">
+        <v>0</v>
+      </c>
+      <c r="F63" s="70">
+        <v>0</v>
+      </c>
+      <c r="G63" s="70">
+        <v>0</v>
+      </c>
+      <c r="H63" s="70">
+        <v>0</v>
+      </c>
+      <c r="I63" s="70">
+        <v>0</v>
+      </c>
+      <c r="J63" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="22" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9"/>
       <c r="D64" s="49">
         <v>2</v>
       </c>
-      <c r="E64" s="71">
-        <v>0</v>
-      </c>
-      <c r="F64" s="71"/>
-      <c r="G64" s="71">
-        <v>0</v>
-      </c>
-      <c r="H64" s="71">
-        <v>0</v>
-      </c>
-      <c r="I64" s="71">
-        <v>0</v>
-      </c>
-      <c r="J64" s="71">
-        <v>0</v>
-      </c>
-      <c r="K64" s="71">
-        <v>0</v>
-      </c>
-      <c r="L64" s="71">
-        <v>0</v>
-      </c>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71">
-        <v>0</v>
-      </c>
-      <c r="O64" s="71">
-        <v>0</v>
-      </c>
-      <c r="P64" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="72">
-        <v>0</v>
-      </c>
-      <c r="R64" s="72">
-        <v>0</v>
-      </c>
-      <c r="S64" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="22" customHeight="1">
+      <c r="E64" s="72">
+        <v>0</v>
+      </c>
+      <c r="F64" s="72">
+        <v>0</v>
+      </c>
+      <c r="G64" s="72">
+        <v>0</v>
+      </c>
+      <c r="H64" s="72">
+        <v>0</v>
+      </c>
+      <c r="I64" s="72">
+        <v>0</v>
+      </c>
+      <c r="J64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="22" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
       <c r="D65" s="49">
         <v>3</v>
       </c>
-      <c r="E65" s="71">
-        <v>0</v>
-      </c>
-      <c r="F65" s="71"/>
-      <c r="G65" s="71">
-        <v>0</v>
-      </c>
-      <c r="H65" s="71">
-        <v>0</v>
-      </c>
-      <c r="I65" s="71">
-        <v>0</v>
-      </c>
-      <c r="J65" s="71">
-        <v>0</v>
-      </c>
-      <c r="K65" s="71">
-        <v>0</v>
-      </c>
-      <c r="L65" s="71">
-        <v>0</v>
-      </c>
-      <c r="M65" s="71"/>
-      <c r="N65" s="71">
-        <v>0</v>
-      </c>
-      <c r="O65" s="71">
-        <v>0</v>
-      </c>
-      <c r="P65" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="72">
-        <v>0</v>
-      </c>
-      <c r="R65" s="72">
-        <v>0</v>
-      </c>
-      <c r="S65" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="22" customHeight="1">
+      <c r="E65" s="72">
+        <v>0</v>
+      </c>
+      <c r="F65" s="72">
+        <v>0</v>
+      </c>
+      <c r="G65" s="72">
+        <v>0</v>
+      </c>
+      <c r="H65" s="72">
+        <v>0</v>
+      </c>
+      <c r="I65" s="72">
+        <v>0</v>
+      </c>
+      <c r="J65" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="22" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
       <c r="D66" s="49">
         <v>4</v>
       </c>
-      <c r="E66" s="71">
-        <v>0</v>
-      </c>
-      <c r="F66" s="71"/>
-      <c r="G66" s="71">
-        <v>0</v>
-      </c>
-      <c r="H66" s="71">
-        <v>0</v>
-      </c>
-      <c r="I66" s="71">
-        <v>0</v>
-      </c>
-      <c r="J66" s="71">
-        <v>0</v>
-      </c>
-      <c r="K66" s="71">
-        <v>0</v>
-      </c>
-      <c r="L66" s="71">
-        <v>0</v>
-      </c>
-      <c r="M66" s="71"/>
-      <c r="N66" s="71">
-        <v>0</v>
-      </c>
-      <c r="O66" s="71">
-        <v>0</v>
-      </c>
-      <c r="P66" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="72">
-        <v>0</v>
-      </c>
-      <c r="R66" s="72">
-        <v>0</v>
-      </c>
-      <c r="S66" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="22" customHeight="1">
+      <c r="E66" s="72">
+        <v>0</v>
+      </c>
+      <c r="F66" s="72">
+        <v>0</v>
+      </c>
+      <c r="G66" s="72">
+        <v>0</v>
+      </c>
+      <c r="H66" s="72">
+        <v>0</v>
+      </c>
+      <c r="I66" s="72">
+        <v>0</v>
+      </c>
+      <c r="J66" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="22" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
       <c r="D67" s="49">
         <v>5</v>
       </c>
-      <c r="E67" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="F67" s="71"/>
-      <c r="G67" s="71">
-        <v>0</v>
-      </c>
-      <c r="H67" s="71">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="I67" s="71">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J67" s="71">
-        <v>0</v>
-      </c>
-      <c r="K67" s="71">
-        <v>0.17</v>
-      </c>
-      <c r="L67" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="M67" s="71"/>
-      <c r="N67" s="71">
-        <v>0</v>
-      </c>
-      <c r="O67" s="71">
-        <v>0</v>
-      </c>
-      <c r="P67" s="72">
+      <c r="E67" s="72">
         <v>2.8637133784777098</v>
       </c>
-      <c r="Q67" s="72">
+      <c r="F67" s="72">
         <v>2.8637133784777098</v>
       </c>
-      <c r="R67" s="72">
+      <c r="G67" s="72">
         <v>1.9424500292482301</v>
       </c>
-      <c r="S67" s="72">
+      <c r="H67" s="72">
         <v>1.9424500346459801</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" ht="22" customHeight="1">
+      <c r="I67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="J67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="22" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
       <c r="D68" s="49">
         <v>6</v>
       </c>
-      <c r="E68" s="71">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F68" s="71"/>
-      <c r="G68" s="71">
-        <v>20.11</v>
-      </c>
-      <c r="H68" s="71">
-        <v>27.827500000000001</v>
-      </c>
-      <c r="I68" s="71">
-        <v>29.94</v>
-      </c>
-      <c r="J68" s="71">
-        <v>28</v>
-      </c>
-      <c r="K68" s="71">
-        <v>27.01</v>
-      </c>
-      <c r="L68" s="71">
-        <v>25.7</v>
-      </c>
-      <c r="M68" s="71"/>
-      <c r="N68" s="71">
-        <v>27</v>
-      </c>
-      <c r="O68" s="71">
-        <v>26.057849999999998</v>
-      </c>
-      <c r="P68" s="72">
+      <c r="E68" s="72">
         <v>35.657192616625203</v>
       </c>
-      <c r="Q68" s="72">
+      <c r="F68" s="72">
         <v>35.657192616625203</v>
       </c>
-      <c r="R68" s="72">
+      <c r="G68" s="72">
         <v>24.868446605266801</v>
       </c>
-      <c r="S68" s="72">
+      <c r="H68" s="72">
         <v>24.868446687434201</v>
       </c>
-    </row>
-    <row r="69" spans="1:19" ht="22" customHeight="1">
+      <c r="I68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="J68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="22" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
       <c r="D69" s="49">
         <v>7</v>
       </c>
-      <c r="E69" s="71">
-        <v>58.6</v>
-      </c>
-      <c r="F69" s="71"/>
-      <c r="G69" s="71">
-        <v>70.22</v>
-      </c>
-      <c r="H69" s="71">
-        <v>77.302499999999995</v>
-      </c>
-      <c r="I69" s="71">
-        <v>89.2</v>
-      </c>
-      <c r="J69" s="71">
-        <v>80</v>
-      </c>
-      <c r="K69" s="71">
-        <v>63</v>
-      </c>
-      <c r="L69" s="71">
-        <v>62.1</v>
-      </c>
-      <c r="M69" s="71"/>
-      <c r="N69" s="71">
-        <v>85</v>
-      </c>
-      <c r="O69" s="71">
-        <v>73.231744444444402</v>
-      </c>
-      <c r="P69" s="72">
+      <c r="E69" s="72">
         <v>90.292560606232698</v>
       </c>
-      <c r="Q69" s="72">
+      <c r="F69" s="72">
         <v>90.292560606232698</v>
       </c>
-      <c r="R69" s="72">
+      <c r="G69" s="72">
         <v>67.725431530582199</v>
       </c>
-      <c r="S69" s="72">
+      <c r="H69" s="72">
         <v>67.725431772020997</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" ht="22" customHeight="1">
+      <c r="I69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="J69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="22" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
       <c r="D70" s="49">
         <v>8</v>
       </c>
-      <c r="E70" s="71">
-        <v>100.4</v>
-      </c>
-      <c r="F70" s="71"/>
-      <c r="G70" s="71">
-        <v>108.13</v>
-      </c>
-      <c r="H70" s="71">
-        <v>99.989166666666705</v>
-      </c>
-      <c r="I70" s="71">
-        <v>112.85</v>
-      </c>
-      <c r="J70" s="71">
-        <v>104</v>
-      </c>
-      <c r="K70" s="71">
-        <v>71.22</v>
-      </c>
-      <c r="L70" s="71">
-        <v>107.47</v>
-      </c>
-      <c r="M70" s="71"/>
-      <c r="N70" s="71">
-        <v>125</v>
-      </c>
-      <c r="O70" s="71">
-        <v>123.719555555556</v>
-      </c>
-      <c r="P70" s="72">
+      <c r="E70" s="72">
         <v>136.13844946706701</v>
       </c>
-      <c r="Q70" s="72">
+      <c r="F70" s="72">
         <v>136.13844946706701</v>
       </c>
-      <c r="R70" s="72">
+      <c r="G70" s="72">
         <v>105.838916664409</v>
       </c>
-      <c r="S70" s="72">
+      <c r="H70" s="72">
         <v>105.838917038045</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" ht="22" customHeight="1">
+      <c r="I70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+      <c r="J70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="22" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
       <c r="D71" s="49">
         <v>9</v>
       </c>
-      <c r="E71" s="71">
-        <v>205.9</v>
-      </c>
-      <c r="F71" s="71"/>
-      <c r="G71" s="71">
-        <v>219.58</v>
-      </c>
-      <c r="H71" s="71">
-        <v>211.00638888888901</v>
-      </c>
-      <c r="I71" s="71">
-        <v>164.86</v>
-      </c>
-      <c r="J71" s="71">
-        <v>217</v>
-      </c>
-      <c r="K71" s="71">
-        <v>187.72</v>
-      </c>
-      <c r="L71" s="71">
-        <v>232.33</v>
-      </c>
-      <c r="M71" s="71"/>
-      <c r="N71" s="71">
-        <v>240</v>
-      </c>
-      <c r="O71" s="71">
-        <v>257.56690555555599</v>
-      </c>
-      <c r="P71" s="72">
+      <c r="E71" s="72">
         <v>256.058048053954</v>
       </c>
-      <c r="Q71" s="72">
+      <c r="F71" s="72">
         <v>256.058048053954</v>
       </c>
-      <c r="R71" s="72">
+      <c r="G71" s="72">
         <v>144.81783088615401</v>
       </c>
-      <c r="S71" s="72">
+      <c r="H71" s="72">
         <v>144.81783132493001</v>
       </c>
-    </row>
-    <row r="72" spans="1:19" ht="22" customHeight="1">
+      <c r="I71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="J71" s="72">
+        <v>256.058048053954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="22" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
       <c r="D72" s="49">
         <v>10</v>
       </c>
-      <c r="E72" s="71">
-        <v>326</v>
-      </c>
-      <c r="F72" s="71"/>
-      <c r="G72" s="71">
-        <v>343.67</v>
-      </c>
-      <c r="H72" s="71">
-        <v>331.00583333333299</v>
-      </c>
-      <c r="I72" s="71">
-        <v>291.83999999999997</v>
-      </c>
-      <c r="J72" s="71">
-        <v>336</v>
-      </c>
-      <c r="K72" s="71">
-        <v>314.17</v>
-      </c>
-      <c r="L72" s="71">
-        <v>349.16</v>
-      </c>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71">
-        <v>366</v>
-      </c>
-      <c r="O72" s="71">
-        <v>369.97263333333302</v>
-      </c>
-      <c r="P72" s="72">
+      <c r="E72" s="72">
         <v>377.09238254086802</v>
       </c>
-      <c r="Q72" s="72">
+      <c r="F72" s="72">
         <v>377.09238254086802</v>
       </c>
-      <c r="R72" s="72">
+      <c r="G72" s="72">
         <v>168.48714893686201</v>
       </c>
-      <c r="S72" s="72">
+      <c r="H72" s="72">
         <v>168.48714934744299</v>
       </c>
-    </row>
-    <row r="73" spans="1:19" ht="22" customHeight="1">
+      <c r="I72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="J72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="22" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
       <c r="D73" s="49">
         <v>11</v>
       </c>
-      <c r="E73" s="71">
-        <v>415.1</v>
-      </c>
-      <c r="F73" s="71"/>
-      <c r="G73" s="71">
-        <v>435.54</v>
-      </c>
-      <c r="H73" s="71">
-        <v>418.17166666666702</v>
-      </c>
-      <c r="I73" s="71">
-        <v>389.26</v>
-      </c>
-      <c r="J73" s="71">
-        <v>423</v>
-      </c>
-      <c r="K73" s="71">
-        <v>404.44</v>
-      </c>
-      <c r="L73" s="71">
-        <v>430.22</v>
-      </c>
-      <c r="M73" s="71"/>
-      <c r="N73" s="71">
-        <v>448</v>
-      </c>
-      <c r="O73" s="71">
-        <v>441.14626111111102</v>
-      </c>
-      <c r="P73" s="72">
+      <c r="E73" s="72">
         <v>449.95552662570299</v>
       </c>
-      <c r="Q73" s="72">
+      <c r="F73" s="72">
         <v>449.95552662570299</v>
       </c>
-      <c r="R73" s="72">
+      <c r="G73" s="72">
         <v>170.112162633541</v>
       </c>
-      <c r="S73" s="72">
+      <c r="H73" s="72">
         <v>170.11216297783801</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" ht="22" customHeight="1">
+      <c r="I73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="J73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="22" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
       <c r="D74" s="49">
         <v>12</v>
       </c>
-      <c r="E74" s="71">
-        <v>454.8</v>
-      </c>
-      <c r="F74" s="71"/>
-      <c r="G74" s="71">
-        <v>475.37</v>
-      </c>
-      <c r="H74" s="71">
-        <v>454.99416666666701</v>
-      </c>
-      <c r="I74" s="71">
-        <v>437.2</v>
-      </c>
-      <c r="J74" s="71">
-        <v>459</v>
-      </c>
-      <c r="K74" s="71">
-        <v>443.61</v>
-      </c>
-      <c r="L74" s="71">
-        <v>459.85</v>
-      </c>
-      <c r="M74" s="71"/>
-      <c r="N74" s="71">
-        <v>467</v>
-      </c>
-      <c r="O74" s="71">
-        <v>461.15766666666701</v>
-      </c>
-      <c r="P74" s="72">
+      <c r="E74" s="72">
         <v>468.97003171270302</v>
       </c>
-      <c r="Q74" s="72">
+      <c r="F74" s="72">
         <v>468.97003171270302</v>
       </c>
-      <c r="R74" s="72">
+      <c r="G74" s="72">
         <v>143.915530806888</v>
       </c>
-      <c r="S74" s="72">
+      <c r="H74" s="72">
         <v>143.915531051773</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" ht="22" customHeight="1">
+      <c r="I74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="J74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="22" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="9"/>
       <c r="D75" s="49">
         <v>13</v>
       </c>
-      <c r="E75" s="71">
-        <v>455.6</v>
-      </c>
-      <c r="F75" s="71"/>
-      <c r="G75" s="71">
-        <v>488.49</v>
-      </c>
-      <c r="H75" s="71">
-        <v>464.56888888888898</v>
-      </c>
-      <c r="I75" s="71">
-        <v>455.75</v>
-      </c>
-      <c r="J75" s="71">
-        <v>469</v>
-      </c>
-      <c r="K75" s="71">
-        <v>452.5</v>
-      </c>
-      <c r="L75" s="71">
-        <v>462.28</v>
-      </c>
-      <c r="M75" s="71"/>
-      <c r="N75" s="71">
-        <v>467</v>
-      </c>
-      <c r="O75" s="71">
-        <v>454.84378333333302</v>
-      </c>
-      <c r="P75" s="72">
+      <c r="E75" s="72">
         <v>458.46522359386699</v>
       </c>
-      <c r="Q75" s="72">
+      <c r="F75" s="72">
         <v>458.46522359386699</v>
       </c>
-      <c r="R75" s="72">
+      <c r="G75" s="72">
         <v>139.869999126967</v>
       </c>
-      <c r="S75" s="72">
+      <c r="H75" s="72">
         <v>139.86999935158701</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" ht="22" customHeight="1">
+      <c r="I75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+      <c r="J75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="22" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
       <c r="D76" s="49">
         <v>14</v>
       </c>
-      <c r="E76" s="71">
-        <v>408.6</v>
-      </c>
-      <c r="F76" s="71"/>
-      <c r="G76" s="71">
-        <v>443.66</v>
-      </c>
-      <c r="H76" s="71">
-        <v>413.63638888888897</v>
-      </c>
-      <c r="I76" s="71">
-        <v>413.67</v>
-      </c>
-      <c r="J76" s="71">
-        <v>418</v>
-      </c>
-      <c r="K76" s="71">
-        <v>400.56</v>
-      </c>
-      <c r="L76" s="71">
-        <v>404.57</v>
-      </c>
-      <c r="M76" s="71"/>
-      <c r="N76" s="71">
-        <v>407</v>
-      </c>
-      <c r="O76" s="71">
-        <v>391.35611666666699</v>
-      </c>
-      <c r="P76" s="72">
+      <c r="E76" s="72">
         <v>395.77516323430098</v>
       </c>
-      <c r="Q76" s="72">
+      <c r="F76" s="72">
         <v>395.77516323430098</v>
       </c>
-      <c r="R76" s="72">
+      <c r="G76" s="72">
         <v>143.46710382868901</v>
       </c>
-      <c r="S76" s="72">
+      <c r="H76" s="72">
         <v>143.46710403443501</v>
       </c>
-    </row>
-    <row r="77" spans="1:19" ht="22" customHeight="1">
+      <c r="I76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="J76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="22" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="9"/>
       <c r="D77" s="49">
         <v>15</v>
       </c>
-      <c r="E77" s="71">
-        <v>321.2</v>
-      </c>
-      <c r="F77" s="71"/>
-      <c r="G77" s="71">
-        <v>367.07</v>
-      </c>
-      <c r="H77" s="71">
-        <v>334.28388888888901</v>
-      </c>
-      <c r="I77" s="71">
-        <v>341.53</v>
-      </c>
-      <c r="J77" s="71">
-        <v>340</v>
-      </c>
-      <c r="K77" s="71">
-        <v>316.94</v>
-      </c>
-      <c r="L77" s="71">
-        <v>319.26</v>
-      </c>
-      <c r="M77" s="71"/>
-      <c r="N77" s="71">
-        <v>317</v>
-      </c>
-      <c r="O77" s="71">
-        <v>299.10132777777801</v>
-      </c>
-      <c r="P77" s="72">
+      <c r="E77" s="72">
         <v>298.27754053509602</v>
       </c>
-      <c r="Q77" s="72">
+      <c r="F77" s="72">
         <v>298.27754053509602</v>
       </c>
-      <c r="R77" s="72">
+      <c r="G77" s="72">
         <v>123.97312561053199</v>
       </c>
-      <c r="S77" s="72">
+      <c r="H77" s="72">
         <v>123.973125788239</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" ht="22" customHeight="1">
+      <c r="I77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+      <c r="J77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="22" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
       <c r="D78" s="49">
         <v>16</v>
       </c>
-      <c r="E78" s="71">
-        <v>200.6</v>
-      </c>
-      <c r="F78" s="71"/>
-      <c r="G78" s="71">
-        <v>246.71</v>
-      </c>
-      <c r="H78" s="71">
-        <v>211.94388888888901</v>
-      </c>
-      <c r="I78" s="71">
-        <v>223.71</v>
-      </c>
-      <c r="J78" s="71">
-        <v>218</v>
-      </c>
-      <c r="K78" s="71">
-        <v>188.89</v>
-      </c>
-      <c r="L78" s="71">
-        <v>193.61</v>
-      </c>
-      <c r="M78" s="71"/>
-      <c r="N78" s="71">
-        <v>187</v>
-      </c>
-      <c r="O78" s="71">
-        <v>165.45165</v>
-      </c>
-      <c r="P78" s="72">
+      <c r="E78" s="72">
         <v>170.259190480049</v>
       </c>
-      <c r="Q78" s="72">
+      <c r="F78" s="72">
         <v>170.259190480049</v>
       </c>
-      <c r="R78" s="72">
+      <c r="G78" s="72">
         <v>91.566809390533194</v>
       </c>
-      <c r="S78" s="72">
+      <c r="H78" s="72">
         <v>91.566809580252198</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" ht="22" customHeight="1">
+      <c r="I78" s="72">
+        <v>170.259190480049</v>
+      </c>
+      <c r="J78" s="72">
+        <v>170.259190480049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="22" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="9"/>
       <c r="D79" s="49">
         <v>17</v>
       </c>
-      <c r="E79" s="71">
-        <v>102.3</v>
-      </c>
-      <c r="F79" s="71"/>
-      <c r="G79" s="71">
-        <v>119.19</v>
-      </c>
-      <c r="H79" s="71">
-        <v>111.740833333333</v>
-      </c>
-      <c r="I79" s="71">
-        <v>105.72</v>
-      </c>
-      <c r="J79" s="71">
-        <v>115</v>
-      </c>
-      <c r="K79" s="71">
-        <v>86.03</v>
-      </c>
-      <c r="L79" s="71">
-        <v>132.30000000000001</v>
-      </c>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71">
-        <v>81</v>
-      </c>
-      <c r="O79" s="71">
-        <v>97.312872222222197</v>
-      </c>
-      <c r="P79" s="72">
+      <c r="E79" s="72">
         <v>80.3704132013644</v>
       </c>
-      <c r="Q79" s="72">
+      <c r="F79" s="72">
         <v>80.3704132013644</v>
       </c>
-      <c r="R79" s="72">
+      <c r="G79" s="72">
         <v>64.018195722716797</v>
       </c>
-      <c r="S79" s="72">
+      <c r="H79" s="72">
         <v>64.018195983701204</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" ht="22" customHeight="1">
+      <c r="I79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+      <c r="J79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="22" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
       <c r="D80" s="49">
         <v>18</v>
       </c>
-      <c r="E80" s="71">
-        <v>78.8</v>
-      </c>
-      <c r="F80" s="71"/>
-      <c r="G80" s="71">
-        <v>68.86</v>
-      </c>
-      <c r="H80" s="71">
-        <v>73.079166666666694</v>
-      </c>
-      <c r="I80" s="71">
-        <v>68.47</v>
-      </c>
-      <c r="J80" s="71">
-        <v>74</v>
-      </c>
-      <c r="K80" s="71">
-        <v>69.78</v>
-      </c>
-      <c r="L80" s="71">
-        <v>76.599999999999994</v>
-      </c>
-      <c r="M80" s="71"/>
-      <c r="N80" s="71">
-        <v>62</v>
-      </c>
-      <c r="O80" s="71">
-        <v>61.766755555555598</v>
-      </c>
-      <c r="P80" s="72">
+      <c r="E80" s="72">
         <v>52.3869711625888</v>
       </c>
-      <c r="Q80" s="72">
+      <c r="F80" s="72">
         <v>52.3869711625888</v>
       </c>
-      <c r="R80" s="72">
+      <c r="G80" s="72">
         <v>36.317177964302097</v>
       </c>
-      <c r="S80" s="72">
+      <c r="H80" s="72">
         <v>36.317178076405199</v>
       </c>
-    </row>
-    <row r="81" spans="1:19" ht="22" customHeight="1">
+      <c r="I80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="J80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="22" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
       <c r="D81" s="49">
         <v>19</v>
       </c>
-      <c r="E81" s="71">
-        <v>37.1</v>
-      </c>
-      <c r="F81" s="71"/>
-      <c r="G81" s="71">
-        <v>19.75</v>
-      </c>
-      <c r="H81" s="71">
-        <v>17.702500000000001</v>
-      </c>
-      <c r="I81" s="71">
-        <v>14.35</v>
-      </c>
-      <c r="J81" s="71">
-        <v>18</v>
-      </c>
-      <c r="K81" s="71">
-        <v>17.61</v>
-      </c>
-      <c r="L81" s="71">
-        <v>18.05</v>
-      </c>
-      <c r="M81" s="71"/>
-      <c r="N81" s="71">
-        <v>17</v>
-      </c>
-      <c r="O81" s="71">
-        <v>15.674244444444399</v>
-      </c>
-      <c r="P81" s="72">
+      <c r="E81" s="72">
         <v>15.185447700664</v>
       </c>
-      <c r="Q81" s="72">
+      <c r="F81" s="72">
         <v>15.185447700664</v>
       </c>
-      <c r="R81" s="72">
+      <c r="G81" s="72">
         <v>9.9984417947892297</v>
       </c>
-      <c r="S81" s="72">
+      <c r="H81" s="72">
         <v>9.9984418217724205</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" ht="22" customHeight="1">
+      <c r="I81" s="72">
+        <v>15.185447700664</v>
+      </c>
+      <c r="J81" s="72">
+        <v>15.185447700664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="22" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="9"/>
       <c r="D82" s="49">
         <v>20</v>
       </c>
-      <c r="E82" s="71">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F82" s="71"/>
-      <c r="G82" s="71">
-        <v>0</v>
-      </c>
-      <c r="H82" s="71">
-        <v>0</v>
-      </c>
-      <c r="I82" s="71">
-        <v>0</v>
-      </c>
-      <c r="J82" s="71">
-        <v>0</v>
-      </c>
-      <c r="K82" s="71">
-        <v>0</v>
-      </c>
-      <c r="L82" s="71">
-        <v>0</v>
-      </c>
-      <c r="M82" s="71"/>
-      <c r="N82" s="71">
-        <v>0</v>
-      </c>
-      <c r="O82" s="71">
-        <v>0</v>
-      </c>
-      <c r="P82" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="72">
-        <v>0</v>
-      </c>
-      <c r="R82" s="72">
-        <v>0</v>
-      </c>
-      <c r="S82" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" ht="22" customHeight="1">
+      <c r="E82" s="72">
+        <v>0</v>
+      </c>
+      <c r="F82" s="72">
+        <v>0</v>
+      </c>
+      <c r="G82" s="72">
+        <v>0</v>
+      </c>
+      <c r="H82" s="72">
+        <v>0</v>
+      </c>
+      <c r="I82" s="72">
+        <v>0</v>
+      </c>
+      <c r="J82" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="22" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="9"/>
       <c r="D83" s="49">
         <v>21</v>
       </c>
-      <c r="E83" s="71">
-        <v>0</v>
-      </c>
-      <c r="F83" s="71"/>
-      <c r="G83" s="71">
-        <v>0</v>
-      </c>
-      <c r="H83" s="71">
-        <v>0</v>
-      </c>
-      <c r="I83" s="71">
-        <v>0</v>
-      </c>
-      <c r="J83" s="71">
-        <v>0</v>
-      </c>
-      <c r="K83" s="71">
-        <v>0</v>
-      </c>
-      <c r="L83" s="71">
-        <v>0</v>
-      </c>
-      <c r="M83" s="71"/>
-      <c r="N83" s="71">
-        <v>0</v>
-      </c>
-      <c r="O83" s="71">
-        <v>0</v>
-      </c>
-      <c r="P83" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="72">
-        <v>0</v>
-      </c>
-      <c r="R83" s="72">
-        <v>0</v>
-      </c>
-      <c r="S83" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" ht="22" customHeight="1">
+      <c r="E83" s="72">
+        <v>0</v>
+      </c>
+      <c r="F83" s="72">
+        <v>0</v>
+      </c>
+      <c r="G83" s="72">
+        <v>0</v>
+      </c>
+      <c r="H83" s="72">
+        <v>0</v>
+      </c>
+      <c r="I83" s="72">
+        <v>0</v>
+      </c>
+      <c r="J83" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="22" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="9"/>
       <c r="D84" s="49">
         <v>22</v>
       </c>
-      <c r="E84" s="71">
-        <v>0</v>
-      </c>
-      <c r="F84" s="71"/>
-      <c r="G84" s="71">
-        <v>0</v>
-      </c>
-      <c r="H84" s="71">
-        <v>0</v>
-      </c>
-      <c r="I84" s="71">
-        <v>0</v>
-      </c>
-      <c r="J84" s="71">
-        <v>0</v>
-      </c>
-      <c r="K84" s="71">
-        <v>0</v>
-      </c>
-      <c r="L84" s="71">
-        <v>0</v>
-      </c>
-      <c r="M84" s="71"/>
-      <c r="N84" s="71">
-        <v>0</v>
-      </c>
-      <c r="O84" s="71">
-        <v>0</v>
-      </c>
-      <c r="P84" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="72">
-        <v>0</v>
-      </c>
-      <c r="R84" s="72">
-        <v>0</v>
-      </c>
-      <c r="S84" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" ht="22" customHeight="1">
+      <c r="E84" s="72">
+        <v>0</v>
+      </c>
+      <c r="F84" s="72">
+        <v>0</v>
+      </c>
+      <c r="G84" s="72">
+        <v>0</v>
+      </c>
+      <c r="H84" s="72">
+        <v>0</v>
+      </c>
+      <c r="I84" s="72">
+        <v>0</v>
+      </c>
+      <c r="J84" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="22" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
       <c r="D85" s="49">
         <v>23</v>
       </c>
-      <c r="E85" s="71">
-        <v>0</v>
-      </c>
-      <c r="F85" s="71"/>
-      <c r="G85" s="71">
-        <v>0</v>
-      </c>
-      <c r="H85" s="71">
-        <v>0</v>
-      </c>
-      <c r="I85" s="71">
-        <v>0</v>
-      </c>
-      <c r="J85" s="71">
-        <v>0</v>
-      </c>
-      <c r="K85" s="71">
-        <v>0</v>
-      </c>
-      <c r="L85" s="71">
-        <v>0</v>
-      </c>
-      <c r="M85" s="71"/>
-      <c r="N85" s="71">
-        <v>0</v>
-      </c>
-      <c r="O85" s="71">
-        <v>0</v>
-      </c>
-      <c r="P85" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="72">
-        <v>0</v>
-      </c>
-      <c r="R85" s="72">
-        <v>0</v>
-      </c>
-      <c r="S85" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" ht="22" customHeight="1" thickBot="1">
+      <c r="E85" s="72">
+        <v>0</v>
+      </c>
+      <c r="F85" s="72">
+        <v>0</v>
+      </c>
+      <c r="G85" s="72">
+        <v>0</v>
+      </c>
+      <c r="H85" s="72">
+        <v>0</v>
+      </c>
+      <c r="I85" s="72">
+        <v>0</v>
+      </c>
+      <c r="J85" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="22" customHeight="1" thickBot="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="20">
         <v>24</v>
       </c>
-      <c r="E86" s="73">
-        <v>0</v>
-      </c>
-      <c r="F86" s="73"/>
-      <c r="G86" s="73">
-        <v>0</v>
-      </c>
-      <c r="H86" s="73">
-        <v>0</v>
-      </c>
-      <c r="I86" s="73">
-        <v>0</v>
-      </c>
-      <c r="J86" s="73">
-        <v>0</v>
-      </c>
-      <c r="K86" s="73">
-        <v>0</v>
-      </c>
-      <c r="L86" s="73">
-        <v>0</v>
-      </c>
-      <c r="M86" s="73"/>
-      <c r="N86" s="73">
-        <v>0</v>
-      </c>
-      <c r="O86" s="73">
-        <v>0</v>
-      </c>
-      <c r="P86" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="74">
-        <v>0</v>
-      </c>
-      <c r="R86" s="74">
-        <v>0</v>
-      </c>
-      <c r="S86" s="74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" ht="22" customHeight="1">
+      <c r="E86" s="74">
+        <v>0</v>
+      </c>
+      <c r="F86" s="74">
+        <v>0</v>
+      </c>
+      <c r="G86" s="74">
+        <v>0</v>
+      </c>
+      <c r="H86" s="74">
+        <v>0</v>
+      </c>
+      <c r="I86" s="74">
+        <v>0</v>
+      </c>
+      <c r="J86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="22" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>52</v>
       </c>
@@ -14707,1176 +12778,624 @@
       <c r="D87" s="18">
         <v>1</v>
       </c>
-      <c r="E87" s="75">
-        <v>0</v>
-      </c>
-      <c r="F87" s="75"/>
-      <c r="G87" s="75">
-        <v>0</v>
-      </c>
-      <c r="H87" s="75">
-        <v>0</v>
-      </c>
-      <c r="I87" s="75">
-        <v>0</v>
-      </c>
-      <c r="J87" s="75">
-        <v>0</v>
-      </c>
-      <c r="K87" s="75">
-        <v>0</v>
-      </c>
-      <c r="L87" s="75">
-        <v>0</v>
-      </c>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75">
-        <v>0</v>
-      </c>
-      <c r="O87" s="75">
-        <v>0</v>
-      </c>
-      <c r="P87" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="76">
-        <v>0</v>
-      </c>
-      <c r="R87" s="76">
-        <v>0</v>
-      </c>
-      <c r="S87" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" ht="22" customHeight="1">
+      <c r="E87" s="76">
+        <v>0</v>
+      </c>
+      <c r="F87" s="76">
+        <v>0</v>
+      </c>
+      <c r="G87" s="76">
+        <v>0</v>
+      </c>
+      <c r="H87" s="76">
+        <v>0</v>
+      </c>
+      <c r="I87" s="76">
+        <v>0</v>
+      </c>
+      <c r="J87" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="22" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="9"/>
       <c r="D88" s="49">
         <v>2</v>
       </c>
-      <c r="E88" s="71">
-        <v>0</v>
-      </c>
-      <c r="F88" s="71"/>
-      <c r="G88" s="71">
-        <v>0</v>
-      </c>
-      <c r="H88" s="71">
-        <v>0</v>
-      </c>
-      <c r="I88" s="71">
-        <v>0</v>
-      </c>
-      <c r="J88" s="71">
-        <v>0</v>
-      </c>
-      <c r="K88" s="71">
-        <v>0</v>
-      </c>
-      <c r="L88" s="71">
-        <v>0</v>
-      </c>
-      <c r="M88" s="71"/>
-      <c r="N88" s="71">
-        <v>0</v>
-      </c>
-      <c r="O88" s="71">
-        <v>0</v>
-      </c>
-      <c r="P88" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="72">
-        <v>0</v>
-      </c>
-      <c r="R88" s="72">
-        <v>0</v>
-      </c>
-      <c r="S88" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="22" customHeight="1">
+      <c r="E88" s="72">
+        <v>0</v>
+      </c>
+      <c r="F88" s="72">
+        <v>0</v>
+      </c>
+      <c r="G88" s="72">
+        <v>0</v>
+      </c>
+      <c r="H88" s="72">
+        <v>0</v>
+      </c>
+      <c r="I88" s="72">
+        <v>0</v>
+      </c>
+      <c r="J88" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="22" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
       <c r="D89" s="49">
         <v>3</v>
       </c>
-      <c r="E89" s="71">
-        <v>0</v>
-      </c>
-      <c r="F89" s="71"/>
-      <c r="G89" s="71">
-        <v>0</v>
-      </c>
-      <c r="H89" s="71">
-        <v>0</v>
-      </c>
-      <c r="I89" s="71">
-        <v>0</v>
-      </c>
-      <c r="J89" s="71">
-        <v>0</v>
-      </c>
-      <c r="K89" s="71">
-        <v>0</v>
-      </c>
-      <c r="L89" s="71">
-        <v>0</v>
-      </c>
-      <c r="M89" s="71"/>
-      <c r="N89" s="71">
-        <v>0</v>
-      </c>
-      <c r="O89" s="71">
-        <v>0</v>
-      </c>
-      <c r="P89" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="72">
-        <v>0</v>
-      </c>
-      <c r="R89" s="72">
-        <v>0</v>
-      </c>
-      <c r="S89" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="22" customHeight="1">
+      <c r="E89" s="72">
+        <v>0</v>
+      </c>
+      <c r="F89" s="72">
+        <v>0</v>
+      </c>
+      <c r="G89" s="72">
+        <v>0</v>
+      </c>
+      <c r="H89" s="72">
+        <v>0</v>
+      </c>
+      <c r="I89" s="72">
+        <v>0</v>
+      </c>
+      <c r="J89" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="22" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
       <c r="D90" s="49">
         <v>4</v>
       </c>
-      <c r="E90" s="71">
-        <v>0</v>
-      </c>
-      <c r="F90" s="71"/>
-      <c r="G90" s="71">
-        <v>0</v>
-      </c>
-      <c r="H90" s="71">
-        <v>0</v>
-      </c>
-      <c r="I90" s="71">
-        <v>0</v>
-      </c>
-      <c r="J90" s="71">
-        <v>0</v>
-      </c>
-      <c r="K90" s="71">
-        <v>0</v>
-      </c>
-      <c r="L90" s="71">
-        <v>0</v>
-      </c>
-      <c r="M90" s="71"/>
-      <c r="N90" s="71">
-        <v>0</v>
-      </c>
-      <c r="O90" s="71">
-        <v>0</v>
-      </c>
-      <c r="P90" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="72">
-        <v>0</v>
-      </c>
-      <c r="R90" s="72">
-        <v>0</v>
-      </c>
-      <c r="S90" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="22" customHeight="1">
+      <c r="E90" s="72">
+        <v>0</v>
+      </c>
+      <c r="F90" s="72">
+        <v>0</v>
+      </c>
+      <c r="G90" s="72">
+        <v>0</v>
+      </c>
+      <c r="H90" s="72">
+        <v>0</v>
+      </c>
+      <c r="I90" s="72">
+        <v>0</v>
+      </c>
+      <c r="J90" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="22" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
       <c r="D91" s="49">
         <v>5</v>
       </c>
-      <c r="E91" s="71">
-        <v>0.4</v>
-      </c>
-      <c r="F91" s="71"/>
-      <c r="G91" s="71">
-        <v>0</v>
-      </c>
-      <c r="H91" s="71">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="I91" s="71">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J91" s="71">
-        <v>0</v>
-      </c>
-      <c r="K91" s="71">
-        <v>0.17</v>
-      </c>
-      <c r="L91" s="71">
-        <v>0.2</v>
-      </c>
-      <c r="M91" s="71"/>
-      <c r="N91" s="71">
-        <v>0</v>
-      </c>
-      <c r="O91" s="71">
-        <v>0</v>
-      </c>
-      <c r="P91" s="72">
+      <c r="E91" s="72">
         <v>2.8637133784777098</v>
       </c>
-      <c r="Q91" s="72">
+      <c r="F91" s="72">
         <v>2.8637133784777098</v>
       </c>
-      <c r="R91" s="72">
+      <c r="G91" s="72">
         <v>2.8637133784777098</v>
       </c>
-      <c r="S91" s="72">
+      <c r="H91" s="72">
         <v>2.8637133784777098</v>
       </c>
-    </row>
-    <row r="92" spans="1:19" ht="22" customHeight="1">
+      <c r="I91" s="72">
+        <v>2.8637133784777</v>
+      </c>
+      <c r="J91" s="72">
+        <v>2.8637133784777</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="22" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
       <c r="D92" s="49">
         <v>6</v>
       </c>
-      <c r="E92" s="71">
-        <v>17.899999999999999</v>
-      </c>
-      <c r="F92" s="71"/>
-      <c r="G92" s="71">
-        <v>19.96</v>
-      </c>
-      <c r="H92" s="71">
-        <v>27.827500000000001</v>
-      </c>
-      <c r="I92" s="71">
-        <v>29.94</v>
-      </c>
-      <c r="J92" s="71">
-        <v>28</v>
-      </c>
-      <c r="K92" s="71">
-        <v>27.01</v>
-      </c>
-      <c r="L92" s="71">
-        <v>25.7</v>
-      </c>
-      <c r="M92" s="71"/>
-      <c r="N92" s="71">
-        <v>27</v>
-      </c>
-      <c r="O92" s="71">
-        <v>26.057849999999998</v>
-      </c>
-      <c r="P92" s="72">
+      <c r="E92" s="72">
         <v>35.657192616625203</v>
       </c>
-      <c r="Q92" s="72">
+      <c r="F92" s="72">
         <v>35.657192616625203</v>
       </c>
-      <c r="R92" s="72">
+      <c r="G92" s="72">
         <v>35.657192616625203</v>
       </c>
-      <c r="S92" s="72">
+      <c r="H92" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="93" spans="1:19" ht="22" customHeight="1">
+      <c r="I92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="J92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="22" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
       <c r="D93" s="49">
         <v>7</v>
       </c>
-      <c r="E93" s="71">
-        <v>58.5</v>
-      </c>
-      <c r="F93" s="71"/>
-      <c r="G93" s="71">
-        <v>65.86</v>
-      </c>
-      <c r="H93" s="71">
-        <v>77.302499999999995</v>
-      </c>
-      <c r="I93" s="71">
-        <v>89.2</v>
-      </c>
-      <c r="J93" s="71">
-        <v>80</v>
-      </c>
-      <c r="K93" s="71">
-        <v>63</v>
-      </c>
-      <c r="L93" s="71">
-        <v>62.1</v>
-      </c>
-      <c r="M93" s="71"/>
-      <c r="N93" s="71">
-        <v>85</v>
-      </c>
-      <c r="O93" s="71">
-        <v>73.231744444444402</v>
-      </c>
-      <c r="P93" s="72">
+      <c r="E93" s="72">
         <v>90.292560606232698</v>
       </c>
-      <c r="Q93" s="72">
+      <c r="F93" s="72">
         <v>90.292560606232698</v>
       </c>
-      <c r="R93" s="72">
+      <c r="G93" s="72">
         <v>90.292560606232698</v>
       </c>
-      <c r="S93" s="72">
+      <c r="H93" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="94" spans="1:19" ht="22" customHeight="1">
+      <c r="I93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="J93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="22" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="9"/>
       <c r="D94" s="49">
         <v>8</v>
       </c>
-      <c r="E94" s="71">
-        <v>91.8</v>
-      </c>
-      <c r="F94" s="71"/>
-      <c r="G94" s="71">
-        <v>97.11</v>
-      </c>
-      <c r="H94" s="71">
-        <v>99.989166666666705</v>
-      </c>
-      <c r="I94" s="71">
-        <v>112.85</v>
-      </c>
-      <c r="J94" s="71">
-        <v>104</v>
-      </c>
-      <c r="K94" s="71">
-        <v>71.22</v>
-      </c>
-      <c r="L94" s="71">
-        <v>72</v>
-      </c>
-      <c r="M94" s="71"/>
-      <c r="N94" s="71">
-        <v>125</v>
-      </c>
-      <c r="O94" s="71">
-        <v>97.940772222222193</v>
-      </c>
-      <c r="P94" s="72">
+      <c r="E94" s="72">
         <v>128.822928421532</v>
       </c>
-      <c r="Q94" s="72">
+      <c r="F94" s="72">
         <v>128.822928421532</v>
       </c>
-      <c r="R94" s="72">
+      <c r="G94" s="72">
         <v>128.822928421532</v>
       </c>
-      <c r="S94" s="72">
+      <c r="H94" s="72">
         <v>128.822928421532</v>
       </c>
-    </row>
-    <row r="95" spans="1:19" ht="22" customHeight="1">
+      <c r="I94" s="72">
+        <v>128.822928421532</v>
+      </c>
+      <c r="J94" s="72">
+        <v>128.822928421532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="22" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
       <c r="D95" s="49">
         <v>9</v>
       </c>
-      <c r="E95" s="71">
-        <v>113.7</v>
-      </c>
-      <c r="F95" s="71"/>
-      <c r="G95" s="71">
-        <v>116.89</v>
-      </c>
-      <c r="H95" s="71">
-        <v>120.050555555556</v>
-      </c>
-      <c r="I95" s="71">
-        <v>121.41</v>
-      </c>
-      <c r="J95" s="71">
-        <v>125</v>
-      </c>
-      <c r="K95" s="71">
-        <v>85.58</v>
-      </c>
-      <c r="L95" s="71">
-        <v>92.6</v>
-      </c>
-      <c r="M95" s="71"/>
-      <c r="N95" s="71">
-        <v>145</v>
-      </c>
-      <c r="O95" s="71">
-        <v>116.42893888888899</v>
-      </c>
-      <c r="P95" s="72">
+      <c r="E95" s="72">
         <v>146.384406923434</v>
       </c>
-      <c r="Q95" s="72">
+      <c r="F95" s="72">
         <v>146.384406923434</v>
       </c>
-      <c r="R95" s="72">
+      <c r="G95" s="72">
         <v>146.384406923434</v>
       </c>
-      <c r="S95" s="72">
+      <c r="H95" s="72">
         <v>146.384406923434</v>
       </c>
-    </row>
-    <row r="96" spans="1:19" ht="22" customHeight="1">
+      <c r="I95" s="72">
+        <v>146.384406923433</v>
+      </c>
+      <c r="J95" s="72">
+        <v>146.384406923433</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="22" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="9"/>
       <c r="D96" s="49">
         <v>10</v>
       </c>
-      <c r="E96" s="71">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71">
-        <v>128.97</v>
-      </c>
-      <c r="H96" s="71">
-        <v>134.963055555556</v>
-      </c>
-      <c r="I96" s="71">
-        <v>123.51</v>
-      </c>
-      <c r="J96" s="71">
-        <v>140</v>
-      </c>
-      <c r="K96" s="71">
-        <v>98.03</v>
-      </c>
-      <c r="L96" s="71">
-        <v>112.8</v>
-      </c>
-      <c r="M96" s="71"/>
-      <c r="N96" s="71">
-        <v>153</v>
-      </c>
-      <c r="O96" s="71">
-        <v>129.021822222222</v>
-      </c>
-      <c r="P96" s="72">
+      <c r="E96" s="72">
         <v>152.71793835913999</v>
       </c>
-      <c r="Q96" s="72">
+      <c r="F96" s="72">
         <v>152.71793835913999</v>
       </c>
-      <c r="R96" s="72">
+      <c r="G96" s="72">
         <v>152.71793835913999</v>
       </c>
-      <c r="S96" s="72">
+      <c r="H96" s="72">
         <v>152.71793835913999</v>
       </c>
-    </row>
-    <row r="97" spans="1:19" ht="22" customHeight="1">
+      <c r="I96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+      <c r="J96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="22" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="9"/>
       <c r="D97" s="49">
         <v>11</v>
       </c>
-      <c r="E97" s="71">
-        <v>145.69999999999999</v>
-      </c>
-      <c r="F97" s="71"/>
-      <c r="G97" s="71">
-        <v>138.05000000000001</v>
-      </c>
-      <c r="H97" s="71">
-        <v>149.58472222222201</v>
-      </c>
-      <c r="I97" s="71">
-        <v>125.06</v>
-      </c>
-      <c r="J97" s="71">
-        <v>154</v>
-      </c>
-      <c r="K97" s="71">
-        <v>109.14</v>
-      </c>
-      <c r="L97" s="71">
-        <v>136.75</v>
-      </c>
-      <c r="M97" s="71"/>
-      <c r="N97" s="71">
-        <v>150</v>
-      </c>
-      <c r="O97" s="71">
-        <v>134.49850555555599</v>
-      </c>
-      <c r="P97" s="72">
+      <c r="E97" s="72">
         <v>149.82549640042001</v>
       </c>
-      <c r="Q97" s="72">
+      <c r="F97" s="72">
         <v>149.82549640042001</v>
       </c>
-      <c r="R97" s="72">
+      <c r="G97" s="72">
         <v>149.82549640042001</v>
       </c>
-      <c r="S97" s="72">
+      <c r="H97" s="72">
         <v>149.82549640042001</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" ht="22" customHeight="1">
+      <c r="I97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+      <c r="J97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="22" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
       <c r="D98" s="49">
         <v>12</v>
       </c>
-      <c r="E98" s="71">
-        <v>153.80000000000001</v>
-      </c>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71">
-        <v>141.34</v>
-      </c>
-      <c r="H98" s="71">
-        <v>153.13361111111101</v>
-      </c>
-      <c r="I98" s="71">
-        <v>121.07</v>
-      </c>
-      <c r="J98" s="71">
-        <v>157</v>
-      </c>
-      <c r="K98" s="71">
-        <v>113.06</v>
-      </c>
-      <c r="L98" s="71">
-        <v>150.9</v>
-      </c>
-      <c r="M98" s="71"/>
-      <c r="N98" s="71">
-        <v>140</v>
-      </c>
-      <c r="O98" s="71">
-        <v>133.440377777778</v>
-      </c>
-      <c r="P98" s="72">
+      <c r="E98" s="72">
         <v>142.658018842411</v>
       </c>
-      <c r="Q98" s="72">
+      <c r="F98" s="72">
         <v>142.658018842411</v>
       </c>
-      <c r="R98" s="72">
+      <c r="G98" s="72">
         <v>142.658018842411</v>
       </c>
-      <c r="S98" s="72">
+      <c r="H98" s="72">
         <v>142.658018842411</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" ht="22" customHeight="1">
+      <c r="I98" s="72">
+        <v>142.658018842411</v>
+      </c>
+      <c r="J98" s="72">
+        <v>142.658018842411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="22" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
       <c r="D99" s="49">
         <v>13</v>
       </c>
-      <c r="E99" s="71">
-        <v>267.7</v>
-      </c>
-      <c r="F99" s="71"/>
-      <c r="G99" s="71">
-        <v>243.51</v>
-      </c>
-      <c r="H99" s="71">
-        <v>266.44888888888897</v>
-      </c>
-      <c r="I99" s="71">
-        <v>117.94</v>
-      </c>
-      <c r="J99" s="71">
-        <v>270</v>
-      </c>
-      <c r="K99" s="71">
-        <v>235.17</v>
-      </c>
-      <c r="L99" s="71">
-        <v>382.5</v>
-      </c>
-      <c r="M99" s="71"/>
-      <c r="N99" s="71">
-        <v>230</v>
-      </c>
-      <c r="O99" s="71">
-        <v>347.10079444444398</v>
-      </c>
-      <c r="P99" s="72">
+      <c r="E99" s="72">
         <v>257.39997310920597</v>
       </c>
-      <c r="Q99" s="72">
+      <c r="F99" s="72">
         <v>257.39997310920597</v>
       </c>
-      <c r="R99" s="72">
+      <c r="G99" s="72">
         <v>257.39997310920597</v>
       </c>
-      <c r="S99" s="72">
+      <c r="H99" s="72">
         <v>257.39997310920597</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" ht="22" customHeight="1">
+      <c r="I99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+      <c r="J99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="22" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
       <c r="D100" s="49">
         <v>14</v>
       </c>
-      <c r="E100" s="71">
-        <v>464.8</v>
-      </c>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71">
-        <v>462.83</v>
-      </c>
-      <c r="H100" s="71">
-        <v>461.27722222222201</v>
-      </c>
-      <c r="I100" s="71">
-        <v>333.68</v>
-      </c>
-      <c r="J100" s="71">
-        <v>463</v>
-      </c>
-      <c r="K100" s="71">
-        <v>453.89</v>
-      </c>
-      <c r="L100" s="71">
-        <v>576.80999999999995</v>
-      </c>
-      <c r="M100" s="71"/>
-      <c r="N100" s="71">
-        <v>433</v>
-      </c>
-      <c r="O100" s="71">
-        <v>554.34267777777802</v>
-      </c>
-      <c r="P100" s="72">
+      <c r="E100" s="72">
         <v>457.00809230009401</v>
       </c>
-      <c r="Q100" s="72">
+      <c r="F100" s="72">
         <v>457.00809230009401</v>
       </c>
-      <c r="R100" s="72">
+      <c r="G100" s="72">
         <v>457.00809230009401</v>
       </c>
-      <c r="S100" s="72">
+      <c r="H100" s="72">
         <v>457.00809230009401</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" ht="22" customHeight="1">
+      <c r="I100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+      <c r="J100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="22" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="9"/>
       <c r="D101" s="49">
         <v>15</v>
       </c>
-      <c r="E101" s="71">
-        <v>635.1</v>
-      </c>
-      <c r="F101" s="71"/>
-      <c r="G101" s="71">
-        <v>664.62</v>
-      </c>
-      <c r="H101" s="71">
-        <v>635.51027777777801</v>
-      </c>
-      <c r="I101" s="71">
-        <v>525.35</v>
-      </c>
-      <c r="J101" s="71">
-        <v>635</v>
-      </c>
-      <c r="K101" s="71">
-        <v>652.5</v>
-      </c>
-      <c r="L101" s="71">
-        <v>744.52</v>
-      </c>
-      <c r="M101" s="71"/>
-      <c r="N101" s="71">
-        <v>606</v>
-      </c>
-      <c r="O101" s="71">
-        <v>735.52671111111101</v>
-      </c>
-      <c r="P101" s="72">
+      <c r="E101" s="72">
         <v>616.36245027703899</v>
       </c>
-      <c r="Q101" s="72">
+      <c r="F101" s="72">
         <v>616.36245027703899</v>
       </c>
-      <c r="R101" s="72">
+      <c r="G101" s="72">
         <v>616.36245027703899</v>
       </c>
-      <c r="S101" s="72">
+      <c r="H101" s="72">
         <v>616.36245027703899</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" ht="22" customHeight="1">
+      <c r="I101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+      <c r="J101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="22" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
       <c r="D102" s="49">
         <v>16</v>
       </c>
-      <c r="E102" s="71">
-        <v>738.3</v>
-      </c>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71">
-        <v>786.35</v>
-      </c>
-      <c r="H102" s="71">
-        <v>719.32555555555598</v>
-      </c>
-      <c r="I102" s="71">
-        <v>634.59</v>
-      </c>
-      <c r="J102" s="71">
-        <v>715</v>
-      </c>
-      <c r="K102" s="71">
-        <v>762.78</v>
-      </c>
-      <c r="L102" s="71">
-        <v>807.29</v>
-      </c>
-      <c r="M102" s="71"/>
-      <c r="N102" s="71">
-        <v>691</v>
-      </c>
-      <c r="O102" s="71">
-        <v>830.59542222222206</v>
-      </c>
-      <c r="P102" s="72">
+      <c r="E102" s="72">
         <v>668.52498183778198</v>
       </c>
-      <c r="Q102" s="72">
+      <c r="F102" s="72">
         <v>668.52498183778198</v>
       </c>
-      <c r="R102" s="72">
+      <c r="G102" s="72">
         <v>668.52498183778198</v>
       </c>
-      <c r="S102" s="72">
+      <c r="H102" s="72">
         <v>668.52498183778198</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" ht="22" customHeight="1">
+      <c r="I102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+      <c r="J102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="22" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
       <c r="D103" s="49">
         <v>17</v>
       </c>
-      <c r="E103" s="71">
-        <v>623.9</v>
-      </c>
-      <c r="F103" s="71"/>
-      <c r="G103" s="71">
-        <v>649.04999999999995</v>
-      </c>
-      <c r="H103" s="71">
-        <v>502.78888888888901</v>
-      </c>
-      <c r="I103" s="71">
-        <v>478.44</v>
-      </c>
-      <c r="J103" s="71">
-        <v>497</v>
-      </c>
-      <c r="K103" s="71">
-        <v>568.33000000000004</v>
-      </c>
-      <c r="L103" s="71">
-        <v>541.67999999999995</v>
-      </c>
-      <c r="M103" s="71"/>
-      <c r="N103" s="71">
-        <v>560</v>
-      </c>
-      <c r="O103" s="71">
-        <v>617.76057777777805</v>
-      </c>
-      <c r="P103" s="72">
+      <c r="E103" s="72">
         <v>511.04463204636198</v>
       </c>
-      <c r="Q103" s="72">
+      <c r="F103" s="72">
         <v>511.04463204636198</v>
       </c>
-      <c r="R103" s="72">
+      <c r="G103" s="72">
         <v>511.04463204636198</v>
       </c>
-      <c r="S103" s="72">
+      <c r="H103" s="72">
         <v>511.04463204636198</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" ht="22" customHeight="1">
+      <c r="I103" s="72">
+        <v>511.04463204636102</v>
+      </c>
+      <c r="J103" s="72">
+        <v>511.04463204636102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="22" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
       <c r="D104" s="49">
         <v>18</v>
       </c>
-      <c r="E104" s="71">
-        <v>296.89999999999998</v>
-      </c>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71">
-        <v>243.11</v>
-      </c>
-      <c r="H104" s="71">
-        <v>141.24250000000001</v>
-      </c>
-      <c r="I104" s="71">
-        <v>140.30000000000001</v>
-      </c>
-      <c r="J104" s="71">
-        <v>139</v>
-      </c>
-      <c r="K104" s="71">
-        <v>158</v>
-      </c>
-      <c r="L104" s="71">
-        <v>145.25</v>
-      </c>
-      <c r="M104" s="71"/>
-      <c r="N104" s="71">
-        <v>165</v>
-      </c>
-      <c r="O104" s="71">
-        <v>215.50923333333299</v>
-      </c>
-      <c r="P104" s="72">
+      <c r="E104" s="72">
         <v>163.21927401853401</v>
       </c>
-      <c r="Q104" s="72">
+      <c r="F104" s="72">
         <v>163.21927401853401</v>
       </c>
-      <c r="R104" s="72">
+      <c r="G104" s="72">
         <v>163.21927401853401</v>
       </c>
-      <c r="S104" s="72">
+      <c r="H104" s="72">
         <v>163.21927401853401</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" ht="22" customHeight="1">
+      <c r="I104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+      <c r="J104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="22" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
       <c r="D105" s="49">
         <v>19</v>
       </c>
-      <c r="E105" s="71">
-        <v>68.8</v>
-      </c>
-      <c r="F105" s="71"/>
-      <c r="G105" s="71">
-        <v>43.19</v>
-      </c>
-      <c r="H105" s="71">
-        <v>25.247222222222199</v>
-      </c>
-      <c r="I105" s="71">
-        <v>21.96</v>
-      </c>
-      <c r="J105" s="71">
-        <v>24</v>
-      </c>
-      <c r="K105" s="71">
-        <v>26.6</v>
-      </c>
-      <c r="L105" s="71">
-        <v>24.9</v>
-      </c>
-      <c r="M105" s="71"/>
-      <c r="N105" s="71">
-        <v>27</v>
-      </c>
-      <c r="O105" s="71">
-        <v>57.638894444444396</v>
-      </c>
-      <c r="P105" s="72">
+      <c r="E105" s="72">
         <v>26.890184979785399</v>
       </c>
-      <c r="Q105" s="72">
+      <c r="F105" s="72">
         <v>26.890184979785399</v>
       </c>
-      <c r="R105" s="72">
+      <c r="G105" s="72">
         <v>26.890184979785399</v>
       </c>
-      <c r="S105" s="72">
+      <c r="H105" s="72">
         <v>26.890184979785399</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" ht="22" customHeight="1">
+      <c r="I105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+      <c r="J105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="22" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
       <c r="D106" s="49">
         <v>20</v>
       </c>
-      <c r="E106" s="71">
-        <v>1.6</v>
-      </c>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71">
-        <v>0</v>
-      </c>
-      <c r="H106" s="71">
-        <v>0</v>
-      </c>
-      <c r="I106" s="71">
-        <v>0</v>
-      </c>
-      <c r="J106" s="71">
-        <v>0</v>
-      </c>
-      <c r="K106" s="71">
-        <v>0</v>
-      </c>
-      <c r="L106" s="71">
-        <v>0</v>
-      </c>
-      <c r="M106" s="71"/>
-      <c r="N106" s="71">
-        <v>0</v>
-      </c>
-      <c r="O106" s="71">
-        <v>0</v>
-      </c>
-      <c r="P106" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q106" s="72">
-        <v>0</v>
-      </c>
-      <c r="R106" s="72">
-        <v>0</v>
-      </c>
-      <c r="S106" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="22" customHeight="1">
+      <c r="E106" s="72">
+        <v>0</v>
+      </c>
+      <c r="F106" s="72">
+        <v>0</v>
+      </c>
+      <c r="G106" s="72">
+        <v>0</v>
+      </c>
+      <c r="H106" s="72">
+        <v>0</v>
+      </c>
+      <c r="I106" s="72">
+        <v>0</v>
+      </c>
+      <c r="J106" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="22" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="9"/>
       <c r="D107" s="49">
         <v>21</v>
       </c>
-      <c r="E107" s="71">
-        <v>0</v>
-      </c>
-      <c r="F107" s="71"/>
-      <c r="G107" s="71">
-        <v>0</v>
-      </c>
-      <c r="H107" s="71">
-        <v>0</v>
-      </c>
-      <c r="I107" s="71">
-        <v>0</v>
-      </c>
-      <c r="J107" s="71">
-        <v>0</v>
-      </c>
-      <c r="K107" s="71">
-        <v>0</v>
-      </c>
-      <c r="L107" s="71">
-        <v>0</v>
-      </c>
-      <c r="M107" s="71"/>
-      <c r="N107" s="71">
-        <v>0</v>
-      </c>
-      <c r="O107" s="71">
-        <v>0</v>
-      </c>
-      <c r="P107" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q107" s="72">
-        <v>0</v>
-      </c>
-      <c r="R107" s="72">
-        <v>0</v>
-      </c>
-      <c r="S107" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="22" customHeight="1">
+      <c r="E107" s="72">
+        <v>0</v>
+      </c>
+      <c r="F107" s="72">
+        <v>0</v>
+      </c>
+      <c r="G107" s="72">
+        <v>0</v>
+      </c>
+      <c r="H107" s="72">
+        <v>0</v>
+      </c>
+      <c r="I107" s="72">
+        <v>0</v>
+      </c>
+      <c r="J107" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="22" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
       <c r="D108" s="49">
         <v>22</v>
       </c>
-      <c r="E108" s="71">
-        <v>0</v>
-      </c>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71">
-        <v>0</v>
-      </c>
-      <c r="H108" s="71">
-        <v>0</v>
-      </c>
-      <c r="I108" s="71">
-        <v>0</v>
-      </c>
-      <c r="J108" s="71">
-        <v>0</v>
-      </c>
-      <c r="K108" s="71">
-        <v>0</v>
-      </c>
-      <c r="L108" s="71">
-        <v>0</v>
-      </c>
-      <c r="M108" s="71"/>
-      <c r="N108" s="71">
-        <v>0</v>
-      </c>
-      <c r="O108" s="71">
-        <v>0</v>
-      </c>
-      <c r="P108" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="72">
-        <v>0</v>
-      </c>
-      <c r="R108" s="72">
-        <v>0</v>
-      </c>
-      <c r="S108" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="22" customHeight="1">
+      <c r="E108" s="72">
+        <v>0</v>
+      </c>
+      <c r="F108" s="72">
+        <v>0</v>
+      </c>
+      <c r="G108" s="72">
+        <v>0</v>
+      </c>
+      <c r="H108" s="72">
+        <v>0</v>
+      </c>
+      <c r="I108" s="72">
+        <v>0</v>
+      </c>
+      <c r="J108" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="22" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
       <c r="D109" s="49">
         <v>23</v>
       </c>
-      <c r="E109" s="71">
-        <v>0</v>
-      </c>
-      <c r="F109" s="71"/>
-      <c r="G109" s="71">
-        <v>0</v>
-      </c>
-      <c r="H109" s="71">
-        <v>0</v>
-      </c>
-      <c r="I109" s="71">
-        <v>0</v>
-      </c>
-      <c r="J109" s="71">
-        <v>0</v>
-      </c>
-      <c r="K109" s="71">
-        <v>0</v>
-      </c>
-      <c r="L109" s="71">
-        <v>0</v>
-      </c>
-      <c r="M109" s="71"/>
-      <c r="N109" s="71">
-        <v>0</v>
-      </c>
-      <c r="O109" s="71">
-        <v>0</v>
-      </c>
-      <c r="P109" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q109" s="72">
-        <v>0</v>
-      </c>
-      <c r="R109" s="72">
-        <v>0</v>
-      </c>
-      <c r="S109" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" ht="22" customHeight="1" thickBot="1">
+      <c r="E109" s="72">
+        <v>0</v>
+      </c>
+      <c r="F109" s="72">
+        <v>0</v>
+      </c>
+      <c r="G109" s="72">
+        <v>0</v>
+      </c>
+      <c r="H109" s="72">
+        <v>0</v>
+      </c>
+      <c r="I109" s="72">
+        <v>0</v>
+      </c>
+      <c r="J109" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="22" customHeight="1" thickBot="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
       <c r="D110" s="8">
         <v>24</v>
       </c>
-      <c r="E110" s="77">
-        <v>0</v>
-      </c>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77">
-        <v>0</v>
-      </c>
-      <c r="H110" s="77">
-        <v>0</v>
-      </c>
-      <c r="I110" s="77">
-        <v>0</v>
-      </c>
-      <c r="J110" s="77">
-        <v>0</v>
-      </c>
-      <c r="K110" s="77">
-        <v>0</v>
-      </c>
-      <c r="L110" s="77">
-        <v>0</v>
-      </c>
-      <c r="M110" s="77"/>
-      <c r="N110" s="77">
-        <v>0</v>
-      </c>
-      <c r="O110" s="77">
-        <v>0</v>
-      </c>
-      <c r="P110" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="78">
-        <v>0</v>
-      </c>
-      <c r="R110" s="78">
-        <v>0</v>
-      </c>
-      <c r="S110" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:19" ht="22" customHeight="1">
+      <c r="E110" s="78">
+        <v>0</v>
+      </c>
+      <c r="F110" s="78">
+        <v>0</v>
+      </c>
+      <c r="G110" s="78">
+        <v>0</v>
+      </c>
+      <c r="H110" s="78">
+        <v>0</v>
+      </c>
+      <c r="I110" s="78">
+        <v>0</v>
+      </c>
+      <c r="J110" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="22" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>27</v>
       </c>
@@ -15889,1221 +13408,643 @@
       <c r="D111" s="19">
         <v>1</v>
       </c>
-      <c r="E111" s="79">
-        <v>3.25</v>
-      </c>
-      <c r="F111" s="79">
-        <v>3.8018230000000002</v>
-      </c>
-      <c r="G111" s="79">
-        <v>3.9260000000000002</v>
-      </c>
-      <c r="H111" s="79">
-        <v>4.1269999999999998</v>
-      </c>
-      <c r="I111" s="79"/>
-      <c r="J111" s="79">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="K111" s="79">
-        <v>3.7666666666666702</v>
-      </c>
-      <c r="L111" s="79">
-        <v>4.2249999999999996</v>
-      </c>
-      <c r="M111" s="79">
-        <v>3.8639999999999999</v>
-      </c>
-      <c r="N111" s="79">
-        <v>4.1990400000000001</v>
-      </c>
-      <c r="O111" s="79">
-        <v>3.9069333333333298</v>
-      </c>
-      <c r="P111" s="80">
+      <c r="E111" s="80">
         <v>3.57349608795914</v>
       </c>
-      <c r="Q111" s="80">
+      <c r="F111" s="80">
         <v>3.5736901307868099</v>
       </c>
-      <c r="R111" s="80">
+      <c r="G111" s="80">
         <v>3.5630778559007501</v>
       </c>
-      <c r="S111" s="80">
+      <c r="H111" s="80">
         <v>3.56326903379458</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" ht="22" customHeight="1">
+      <c r="I111" s="80">
+        <v>3.5902106390159698</v>
+      </c>
+      <c r="J111" s="80">
+        <v>3.5902574057944601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="22" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="9"/>
       <c r="D112" s="49">
         <v>2</v>
       </c>
-      <c r="E112" s="81">
-        <v>3.4089999999999998</v>
-      </c>
-      <c r="F112" s="81">
-        <v>3.910936</v>
-      </c>
-      <c r="G112" s="81">
-        <v>4.0350000000000001</v>
-      </c>
-      <c r="H112" s="81">
-        <v>4.258</v>
-      </c>
-      <c r="I112" s="81"/>
-      <c r="J112" s="81">
-        <v>4.0369999999999999</v>
-      </c>
-      <c r="K112" s="81">
-        <v>3.8666666666666698</v>
-      </c>
-      <c r="L112" s="81">
-        <v>4.3540000000000001</v>
-      </c>
-      <c r="M112" s="81">
-        <v>3.9887999999999999</v>
-      </c>
-      <c r="N112" s="81">
-        <v>4.3411200000000001</v>
-      </c>
-      <c r="O112" s="81">
-        <v>4.0185599999999999</v>
-      </c>
-      <c r="P112" s="82">
+      <c r="E112" s="82">
         <v>3.6930025211156998</v>
       </c>
-      <c r="Q112" s="82">
+      <c r="F112" s="82">
         <v>3.6931281616349398</v>
       </c>
-      <c r="R112" s="82">
+      <c r="G112" s="82">
         <v>3.6818666326562601</v>
       </c>
-      <c r="S112" s="82">
+      <c r="H112" s="82">
         <v>3.68199045767726</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" ht="22" customHeight="1">
+      <c r="I112" s="82">
+        <v>3.69452091630375</v>
+      </c>
+      <c r="J112" s="82">
+        <v>3.6945591839329701</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="22" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="9"/>
       <c r="D113" s="49">
         <v>3</v>
       </c>
-      <c r="E113" s="81">
-        <v>3.3919999999999999</v>
-      </c>
-      <c r="F113" s="81">
-        <v>3.8657970000000001</v>
-      </c>
-      <c r="G113" s="81">
-        <v>4.0129999999999999</v>
-      </c>
-      <c r="H113" s="81">
-        <v>4.2290000000000001</v>
-      </c>
-      <c r="I113" s="81"/>
-      <c r="J113" s="81">
-        <v>4.0030000000000001</v>
-      </c>
-      <c r="K113" s="81">
-        <v>3.9027777777777799</v>
-      </c>
-      <c r="L113" s="81">
-        <v>4.3209999999999997</v>
-      </c>
-      <c r="M113" s="81">
-        <v>4.0511999999999997</v>
-      </c>
-      <c r="N113" s="81">
-        <v>4.3281599999999996</v>
-      </c>
-      <c r="O113" s="81">
-        <v>4.0720477777777804</v>
-      </c>
-      <c r="P113" s="82">
+      <c r="E113" s="82">
         <v>3.7311421691940199</v>
       </c>
-      <c r="Q113" s="82">
+      <c r="F113" s="82">
         <v>3.7312307618195999</v>
       </c>
-      <c r="R113" s="82">
+      <c r="G113" s="82">
         <v>3.7187718164662198</v>
       </c>
-      <c r="S113" s="82">
+      <c r="H113" s="82">
         <v>3.7188592018214202</v>
       </c>
-    </row>
-    <row r="114" spans="1:19" ht="22" customHeight="1">
+      <c r="I113" s="82">
+        <v>3.72913200118718</v>
+      </c>
+      <c r="J113" s="82">
+        <v>3.7291687160267299</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="22" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
       <c r="D114" s="49">
         <v>4</v>
       </c>
-      <c r="E114" s="81">
-        <v>3.3809999999999998</v>
-      </c>
-      <c r="F114" s="81">
-        <v>3.9196019999999998</v>
-      </c>
-      <c r="G114" s="81">
-        <v>4.0410000000000004</v>
-      </c>
-      <c r="H114" s="81">
-        <v>4.22</v>
-      </c>
-      <c r="I114" s="81"/>
-      <c r="J114" s="81">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="K114" s="81">
-        <v>3.8944444444444399</v>
-      </c>
-      <c r="L114" s="81">
-        <v>4.3079999999999998</v>
-      </c>
-      <c r="M114" s="81">
-        <v>4.0464000000000002</v>
-      </c>
-      <c r="N114" s="81">
-        <v>4.3089599999999999</v>
-      </c>
-      <c r="O114" s="81">
-        <v>4.0487922222222199</v>
-      </c>
-      <c r="P114" s="82">
+      <c r="E114" s="82">
         <v>3.7401412495197301</v>
       </c>
-      <c r="Q114" s="82">
+      <c r="F114" s="82">
         <v>3.7402030249185199</v>
       </c>
-      <c r="R114" s="82">
+      <c r="G114" s="82">
         <v>3.72825181862496</v>
       </c>
-      <c r="S114" s="82">
+      <c r="H114" s="82">
         <v>3.7283127228304802</v>
       </c>
-    </row>
-    <row r="115" spans="1:19" ht="22" customHeight="1">
+      <c r="I114" s="82">
+        <v>3.7377740057007598</v>
+      </c>
+      <c r="J114" s="82">
+        <v>3.7378057180231301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="22" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
       <c r="D115" s="49">
         <v>5</v>
       </c>
-      <c r="E115" s="81">
-        <v>3.4169999999999998</v>
-      </c>
-      <c r="F115" s="81">
-        <v>3.940134</v>
-      </c>
-      <c r="G115" s="81">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="H115" s="81">
-        <v>4.22</v>
-      </c>
-      <c r="I115" s="81"/>
-      <c r="J115" s="81">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="K115" s="81">
-        <v>3.9166666666666701</v>
-      </c>
-      <c r="L115" s="81">
-        <v>4.3029999999999999</v>
-      </c>
-      <c r="M115" s="81">
-        <v>4.0415999999999999</v>
-      </c>
-      <c r="N115" s="81">
-        <v>4.2979200000000004</v>
-      </c>
-      <c r="O115" s="81">
-        <v>4.0441411111111103</v>
-      </c>
-      <c r="P115" s="82">
+      <c r="E115" s="82">
         <v>3.7517925242407602</v>
       </c>
-      <c r="Q115" s="82">
+      <c r="F115" s="82">
         <v>3.7518345454419801</v>
       </c>
-      <c r="R115" s="82">
+      <c r="G115" s="82">
         <v>3.7413171046607099</v>
       </c>
-      <c r="S115" s="82">
+      <c r="H115" s="82">
         <v>3.74135867563816</v>
       </c>
-    </row>
-    <row r="116" spans="1:19" ht="22" customHeight="1">
+      <c r="I115" s="82">
+        <v>3.7404105031095201</v>
+      </c>
+      <c r="J115" s="82">
+        <v>3.7404349277418798</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="22" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
       <c r="D116" s="49">
         <v>6</v>
       </c>
-      <c r="E116" s="81">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="F116" s="81">
-        <v>3.9258150000000001</v>
-      </c>
-      <c r="G116" s="81">
-        <v>4.0359999999999996</v>
-      </c>
-      <c r="H116" s="81">
-        <v>4.2210000000000001</v>
-      </c>
-      <c r="I116" s="81"/>
-      <c r="J116" s="81">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="K116" s="81">
-        <v>3.9305555555555598</v>
-      </c>
-      <c r="L116" s="81">
-        <v>4.3070000000000004</v>
-      </c>
-      <c r="M116" s="81">
-        <v>4.0368000000000004</v>
-      </c>
-      <c r="N116" s="81">
-        <v>4.2912000000000008</v>
-      </c>
-      <c r="O116" s="81">
-        <v>4.0453038888888901</v>
-      </c>
-      <c r="P116" s="82">
+      <c r="E116" s="82">
         <v>3.7479041328603899</v>
       </c>
-      <c r="Q116" s="82">
+      <c r="F116" s="82">
         <v>3.7479326002026601</v>
       </c>
-      <c r="R116" s="82">
+      <c r="G116" s="82">
         <v>3.7373220282573101</v>
       </c>
-      <c r="S116" s="82">
+      <c r="H116" s="82">
         <v>3.7373499463676398</v>
       </c>
-    </row>
-    <row r="117" spans="1:19" ht="22" customHeight="1">
+      <c r="I116" s="82">
+        <v>3.7356838877760201</v>
+      </c>
+      <c r="J116" s="82">
+        <v>3.7357009977584101</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="22" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
       <c r="D117" s="49">
         <v>7</v>
       </c>
-      <c r="E117" s="81">
-        <v>3.4209999999999998</v>
-      </c>
-      <c r="F117" s="81">
-        <v>3.936957</v>
-      </c>
-      <c r="G117" s="81">
-        <v>4.0449999999999999</v>
-      </c>
-      <c r="H117" s="81">
-        <v>4.2220000000000004</v>
-      </c>
-      <c r="I117" s="81"/>
-      <c r="J117" s="81">
-        <v>4.0010000000000003</v>
-      </c>
-      <c r="K117" s="81">
-        <v>3.9305555555555598</v>
-      </c>
-      <c r="L117" s="81">
-        <v>4.3070000000000004</v>
-      </c>
-      <c r="M117" s="81">
-        <v>4.0368000000000004</v>
-      </c>
-      <c r="N117" s="81">
-        <v>4.2835199999999993</v>
-      </c>
-      <c r="O117" s="81">
-        <v>4.04646666666667</v>
-      </c>
-      <c r="P117" s="82">
+      <c r="E117" s="82">
         <v>3.74775388170504</v>
       </c>
-      <c r="Q117" s="82">
+      <c r="F117" s="82">
         <v>3.74777253223554</v>
       </c>
-      <c r="R117" s="82">
+      <c r="G117" s="82">
         <v>3.7370976831092202</v>
       </c>
-      <c r="S117" s="82">
+      <c r="H117" s="82">
         <v>3.7371160320821599</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" ht="22" customHeight="1">
+      <c r="I117" s="82">
+        <v>3.7411328000689799</v>
+      </c>
+      <c r="J117" s="82">
+        <v>3.7411433981309599</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="22" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
       <c r="D118" s="49">
         <v>8</v>
       </c>
-      <c r="E118" s="81">
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="F118" s="81">
-        <v>3.702264</v>
-      </c>
-      <c r="G118" s="81">
-        <v>3.8570000000000002</v>
-      </c>
-      <c r="H118" s="81">
-        <v>4.09</v>
-      </c>
-      <c r="I118" s="81"/>
-      <c r="J118" s="81">
-        <v>3.8980000000000001</v>
-      </c>
-      <c r="K118" s="81">
-        <v>3.75277777777778</v>
-      </c>
-      <c r="L118" s="81">
-        <v>4.1669999999999998</v>
-      </c>
-      <c r="M118" s="81">
-        <v>4.0224000000000002</v>
-      </c>
-      <c r="N118" s="81">
-        <v>4.2417600000000002</v>
-      </c>
-      <c r="O118" s="81">
-        <v>3.99763</v>
-      </c>
-      <c r="P118" s="82">
+      <c r="E118" s="82">
         <v>3.5211002631468702</v>
       </c>
-      <c r="Q118" s="82">
+      <c r="F118" s="82">
         <v>3.5211040931677302</v>
       </c>
-      <c r="R118" s="82">
+      <c r="G118" s="82">
         <v>3.5162738465343399</v>
       </c>
-      <c r="S118" s="82">
+      <c r="H118" s="82">
         <v>3.5162778793046501</v>
       </c>
-    </row>
-    <row r="119" spans="1:19" ht="22" customHeight="1">
+      <c r="I118" s="82">
+        <v>3.5554416601782601</v>
+      </c>
+      <c r="J118" s="82">
+        <v>3.5554421769646201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="22" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
       <c r="D119" s="49">
         <v>9</v>
       </c>
-      <c r="E119" s="81">
-        <v>2.7669999999999999</v>
-      </c>
-      <c r="F119" s="81">
-        <v>2.6752220000000002</v>
-      </c>
-      <c r="G119" s="81">
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="H119" s="81">
-        <v>2.9020000000000001</v>
-      </c>
-      <c r="I119" s="81"/>
-      <c r="J119" s="81">
-        <v>2.706</v>
-      </c>
-      <c r="K119" s="81">
-        <v>2.4227777777777799</v>
-      </c>
-      <c r="L119" s="81">
-        <v>2.9119999999999999</v>
-      </c>
-      <c r="M119" s="81">
-        <v>3.2208000000000001</v>
-      </c>
-      <c r="N119" s="81">
-        <v>2.6179200000000002</v>
-      </c>
-      <c r="O119" s="81">
-        <v>3.3383349999999998</v>
-      </c>
-      <c r="P119" s="82">
+      <c r="E119" s="82">
         <v>2.1268667460958102</v>
       </c>
-      <c r="Q119" s="82">
+      <c r="F119" s="82">
         <v>2.1267137617237801</v>
       </c>
-      <c r="R119" s="82">
+      <c r="G119" s="82">
         <v>2.1471074744704701</v>
       </c>
-      <c r="S119" s="82">
+      <c r="H119" s="82">
         <v>2.1469571756451402</v>
       </c>
-    </row>
-    <row r="120" spans="1:19" ht="22" customHeight="1">
+      <c r="I119" s="82">
+        <v>2.5483939819079602</v>
+      </c>
+      <c r="J119" s="82">
+        <v>2.5482699890284</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="22" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
       <c r="D120" s="49">
         <v>10</v>
       </c>
-      <c r="E120" s="81">
-        <v>1.4970000000000001</v>
-      </c>
-      <c r="F120" s="81">
-        <v>1.3833219999999999</v>
-      </c>
-      <c r="G120" s="81">
-        <v>0.84299999999999997</v>
-      </c>
-      <c r="H120" s="81">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="I120" s="81"/>
-      <c r="J120" s="81">
-        <v>1.151</v>
-      </c>
-      <c r="K120" s="81">
-        <v>0.79666666666666697</v>
-      </c>
-      <c r="L120" s="81">
-        <v>1.466</v>
-      </c>
-      <c r="M120" s="81">
-        <v>1.4448000000000001</v>
-      </c>
-      <c r="N120" s="81">
-        <v>0.50640000000000007</v>
-      </c>
-      <c r="O120" s="81">
-        <v>1.4127749999999999</v>
-      </c>
-      <c r="P120" s="82">
+      <c r="E120" s="82">
         <v>0.59940979403229899</v>
       </c>
-      <c r="Q120" s="82">
+      <c r="F120" s="82">
         <v>0.59897576539559205</v>
       </c>
-      <c r="R120" s="82">
+      <c r="G120" s="82">
         <v>0.62364338500326699</v>
       </c>
-      <c r="S120" s="82">
+      <c r="H120" s="82">
         <v>0.62319021014416598</v>
       </c>
-    </row>
-    <row r="121" spans="1:19" ht="22" customHeight="1">
+      <c r="I120" s="82">
+        <v>1.75976726701637</v>
+      </c>
+      <c r="J120" s="82">
+        <v>1.7594396264361001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="22" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="9"/>
       <c r="D121" s="49">
         <v>11</v>
       </c>
-      <c r="E121" s="81">
-        <v>0.151</v>
-      </c>
-      <c r="F121" s="81">
-        <v>0</v>
-      </c>
-      <c r="G121" s="81">
-        <v>0</v>
-      </c>
-      <c r="H121" s="81">
-        <v>0</v>
-      </c>
-      <c r="I121" s="81"/>
-      <c r="J121" s="81">
-        <v>0</v>
-      </c>
-      <c r="K121" s="81">
-        <v>-3.48333333333333E-2</v>
-      </c>
-      <c r="L121" s="81">
-        <v>0</v>
-      </c>
-      <c r="M121" s="81">
-        <v>0.23039999999999999</v>
-      </c>
-      <c r="N121" s="81">
-        <v>0</v>
-      </c>
-      <c r="O121" s="81">
-        <v>-4.65111111111111E-2</v>
-      </c>
-      <c r="P121" s="82">
+      <c r="E121" s="82">
         <v>-7.1877254466433296E-2</v>
       </c>
-      <c r="Q121" s="82">
+      <c r="F121" s="82">
         <v>-7.2493763418807894E-2</v>
       </c>
-      <c r="R121" s="82">
+      <c r="G121" s="82">
         <v>-5.5459671861274699E-2</v>
       </c>
-      <c r="S121" s="82">
+      <c r="H121" s="82">
         <v>-5.5962011216143602E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:19" ht="22" customHeight="1">
+      <c r="I121" s="82">
+        <v>1.3110740534526799</v>
+      </c>
+      <c r="J121" s="82">
+        <v>1.31068177090527</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="22" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="9"/>
       <c r="D122" s="49">
         <v>12</v>
       </c>
-      <c r="E122" s="81">
-        <v>-0.77100000000000002</v>
-      </c>
-      <c r="F122" s="81">
-        <v>-1.2241709999999999</v>
-      </c>
-      <c r="G122" s="81">
-        <v>-1.552</v>
-      </c>
-      <c r="H122" s="81">
-        <v>-1.0660000000000001</v>
-      </c>
-      <c r="I122" s="81"/>
-      <c r="J122" s="81">
-        <v>-1.036</v>
-      </c>
-      <c r="K122" s="81">
-        <v>-1.4350000000000001</v>
-      </c>
-      <c r="L122" s="81">
-        <v>-0.42399999999999999</v>
-      </c>
-      <c r="M122" s="81">
-        <v>-1.1664000000000001</v>
-      </c>
-      <c r="N122" s="81">
-        <v>-2.0942400000000001</v>
-      </c>
-      <c r="O122" s="81">
-        <v>-0.99882611111111097</v>
-      </c>
-      <c r="P122" s="82">
+      <c r="E122" s="82">
         <v>-1.95094768903657</v>
       </c>
-      <c r="Q122" s="82">
+      <c r="F122" s="82">
         <v>-1.95440444309085</v>
       </c>
-      <c r="R122" s="82">
+      <c r="G122" s="82">
         <v>-1.821859528204</v>
       </c>
-      <c r="S122" s="82">
+      <c r="H122" s="82">
         <v>-1.8252191709171</v>
       </c>
-    </row>
-    <row r="123" spans="1:19" ht="22" customHeight="1">
+      <c r="I122" s="82">
+        <v>1.3507489412913001</v>
+      </c>
+      <c r="J122" s="82">
+        <v>1.35035176898634</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="22" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="9"/>
       <c r="D123" s="49">
         <v>13</v>
       </c>
-      <c r="E123" s="81">
-        <v>-2.66</v>
-      </c>
-      <c r="F123" s="81">
-        <v>-2.487117</v>
-      </c>
-      <c r="G123" s="81">
-        <v>-2.8540000000000001</v>
-      </c>
-      <c r="H123" s="81">
-        <v>-2.5859999999999999</v>
-      </c>
-      <c r="I123" s="81"/>
-      <c r="J123" s="81">
-        <v>-2.4980000000000002</v>
-      </c>
-      <c r="K123" s="81">
-        <v>-2.7202777777777798</v>
-      </c>
-      <c r="L123" s="81">
-        <v>-2.3639999999999999</v>
-      </c>
-      <c r="M123" s="81">
-        <v>-2.8992</v>
-      </c>
-      <c r="N123" s="81">
-        <v>-3.8260800000000001</v>
-      </c>
-      <c r="O123" s="81">
-        <v>-3.1174072222222202</v>
-      </c>
-      <c r="P123" s="82">
+      <c r="E123" s="82">
         <v>-3.3540107814471698</v>
       </c>
-      <c r="Q123" s="82">
+      <c r="F123" s="82">
         <v>-3.35687671633278</v>
       </c>
-      <c r="R123" s="82">
+      <c r="G123" s="82">
         <v>-3.2206051333055101</v>
       </c>
-      <c r="S123" s="82">
+      <c r="H123" s="82">
         <v>-3.2234359545440898</v>
       </c>
-    </row>
-    <row r="124" spans="1:19" ht="22" customHeight="1">
+      <c r="I123" s="82">
+        <v>1.5175589799539599</v>
+      </c>
+      <c r="J123" s="82">
+        <v>1.5173200506198501</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="22" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="9"/>
       <c r="D124" s="49">
         <v>14</v>
       </c>
-      <c r="E124" s="81">
-        <v>-3.5750000000000002</v>
-      </c>
-      <c r="F124" s="81">
-        <v>-2.9579409999999999</v>
-      </c>
-      <c r="G124" s="81">
-        <v>-3.3980000000000001</v>
-      </c>
-      <c r="H124" s="81">
-        <v>-3.2250000000000001</v>
-      </c>
-      <c r="I124" s="81"/>
-      <c r="J124" s="81">
-        <v>-3.085</v>
-      </c>
-      <c r="K124" s="81">
-        <v>-3.1555555555555599</v>
-      </c>
-      <c r="L124" s="81">
-        <v>-2.7589999999999999</v>
-      </c>
-      <c r="M124" s="81">
-        <v>-3.504</v>
-      </c>
-      <c r="N124" s="81">
-        <v>-4.12608</v>
-      </c>
-      <c r="O124" s="81">
-        <v>-3.8918172222222198</v>
-      </c>
-      <c r="P124" s="82">
+      <c r="E124" s="82">
         <v>-3.6172263719093301</v>
       </c>
-      <c r="Q124" s="82">
+      <c r="F124" s="82">
         <v>-3.6188948540100401</v>
       </c>
-      <c r="R124" s="82">
+      <c r="G124" s="82">
         <v>-3.5258266889641998</v>
       </c>
-      <c r="S124" s="82">
+      <c r="H124" s="82">
         <v>-3.5274961690872302</v>
       </c>
-    </row>
-    <row r="125" spans="1:19" ht="22" customHeight="1">
+      <c r="I124" s="82">
+        <v>1.28301810817312</v>
+      </c>
+      <c r="J124" s="82">
+        <v>1.2829207875333499</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="22" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="9"/>
       <c r="D125" s="49">
         <v>15</v>
       </c>
-      <c r="E125" s="81">
-        <v>-3.5270000000000001</v>
-      </c>
-      <c r="F125" s="81">
-        <v>-2.631008</v>
-      </c>
-      <c r="G125" s="81">
-        <v>-3.1160000000000001</v>
-      </c>
-      <c r="H125" s="81">
-        <v>-2.8260000000000001</v>
-      </c>
-      <c r="I125" s="81"/>
-      <c r="J125" s="81">
-        <v>-2.637</v>
-      </c>
-      <c r="K125" s="81">
-        <v>-2.8444444444444401</v>
-      </c>
-      <c r="L125" s="81">
-        <v>-2.431</v>
-      </c>
-      <c r="M125" s="81">
-        <v>-3.0720000000000001</v>
-      </c>
-      <c r="N125" s="81">
-        <v>-3.3292799999999998</v>
-      </c>
-      <c r="O125" s="81">
-        <v>-3.7708883333333301</v>
-      </c>
-      <c r="P125" s="82">
+      <c r="E125" s="82">
         <v>-2.9636077091718702</v>
       </c>
-      <c r="Q125" s="82">
+      <c r="F125" s="82">
         <v>-2.9641156377458699</v>
       </c>
-      <c r="R125" s="82">
+      <c r="G125" s="82">
         <v>-2.9092487998220999</v>
       </c>
-      <c r="S125" s="82">
+      <c r="H125" s="82">
         <v>-2.9097749891207498</v>
       </c>
-    </row>
-    <row r="126" spans="1:19" ht="22" customHeight="1">
+      <c r="I125" s="82">
+        <v>0.92973030662925005</v>
+      </c>
+      <c r="J125" s="82">
+        <v>0.92957443424696495</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="22" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="9"/>
       <c r="D126" s="49">
         <v>16</v>
       </c>
-      <c r="E126" s="81">
-        <v>-2.4350000000000001</v>
-      </c>
-      <c r="F126" s="81">
-        <v>-1.3491299999999999</v>
-      </c>
-      <c r="G126" s="81">
-        <v>-1.82</v>
-      </c>
-      <c r="H126" s="81">
-        <v>-1.552</v>
-      </c>
-      <c r="I126" s="81"/>
-      <c r="J126" s="81">
-        <v>-1.345</v>
-      </c>
-      <c r="K126" s="81">
-        <v>-1.71583333333333</v>
-      </c>
-      <c r="L126" s="81">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="M126" s="81">
-        <v>-1.7856000000000001</v>
-      </c>
-      <c r="N126" s="81">
-        <v>-1.6905599999999998</v>
-      </c>
-      <c r="O126" s="81">
-        <v>-2.7185744444444402</v>
-      </c>
-      <c r="P126" s="82">
+      <c r="E126" s="82">
         <v>-1.4730398717164701</v>
       </c>
-      <c r="Q126" s="82">
+      <c r="F126" s="82">
         <v>-1.47265990199384</v>
       </c>
-      <c r="R126" s="82">
+      <c r="G126" s="82">
         <v>-1.44457634308589</v>
       </c>
-      <c r="S126" s="82">
+      <c r="H126" s="82">
         <v>-1.44421443493153</v>
       </c>
-    </row>
-    <row r="127" spans="1:19" ht="22" customHeight="1">
+      <c r="I126" s="82">
+        <v>0.78201792688753202</v>
+      </c>
+      <c r="J126" s="82">
+        <v>0.78174475149497902</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="22" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="9"/>
       <c r="D127" s="49">
         <v>17</v>
       </c>
-      <c r="E127" s="81">
-        <v>-0.35599999999999998</v>
-      </c>
-      <c r="F127" s="81">
-        <v>0</v>
-      </c>
-      <c r="G127" s="81">
-        <v>0</v>
-      </c>
-      <c r="H127" s="81">
-        <v>-1E-3</v>
-      </c>
-      <c r="I127" s="81"/>
-      <c r="J127" s="81">
-        <v>0</v>
-      </c>
-      <c r="K127" s="81">
-        <v>0</v>
-      </c>
-      <c r="L127" s="81">
-        <v>0</v>
-      </c>
-      <c r="M127" s="81">
-        <v>-0.48</v>
-      </c>
-      <c r="N127" s="81">
-        <v>0</v>
-      </c>
-      <c r="O127" s="81">
-        <v>-0.59417944444444404</v>
-      </c>
-      <c r="P127" s="82">
+      <c r="E127" s="82">
         <v>-2.05361721602948E-2</v>
       </c>
-      <c r="Q127" s="82">
+      <c r="F127" s="82">
         <v>-2.0342154632648001E-2</v>
       </c>
-      <c r="R127" s="82">
+      <c r="G127" s="82">
         <v>-1.70738763256904E-2</v>
       </c>
-      <c r="S127" s="82">
+      <c r="H127" s="82">
         <v>-1.68835951215596E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:19" ht="22" customHeight="1">
+      <c r="I127" s="82">
+        <v>1.4146684913705001</v>
+      </c>
+      <c r="J127" s="82">
+        <v>1.4145084759111699</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="22" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="9"/>
       <c r="D128" s="49">
         <v>18</v>
       </c>
-      <c r="E128" s="81">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="F128" s="81">
-        <v>0.95016849999999997</v>
-      </c>
-      <c r="G128" s="81">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="H128" s="81">
-        <v>0.8</v>
-      </c>
-      <c r="I128" s="81"/>
-      <c r="J128" s="81">
-        <v>0.88</v>
-      </c>
-      <c r="K128" s="81">
-        <v>0.77305555555555605</v>
-      </c>
-      <c r="L128" s="81">
-        <v>1.292</v>
-      </c>
-      <c r="M128" s="81">
-        <v>0.81120000000000003</v>
-      </c>
-      <c r="N128" s="81">
-        <v>7.8719999999999998E-2</v>
-      </c>
-      <c r="O128" s="81">
-        <v>0.21395111111111101</v>
-      </c>
-      <c r="P128" s="82">
+      <c r="E128" s="82">
         <v>0.42360065453588402</v>
       </c>
-      <c r="Q128" s="82">
+      <c r="F128" s="82">
         <v>0.42477651607761802</v>
       </c>
-      <c r="R128" s="82">
+      <c r="G128" s="82">
         <v>0.42273877676178501</v>
       </c>
-      <c r="S128" s="82">
+      <c r="H128" s="82">
         <v>0.423640348941064</v>
       </c>
-    </row>
-    <row r="129" spans="1:19" ht="22" customHeight="1">
+      <c r="I128" s="82">
+        <v>2.39968752970276</v>
+      </c>
+      <c r="J128" s="82">
+        <v>2.3998520613259502</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="22" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="9"/>
       <c r="D129" s="49">
         <v>19</v>
       </c>
-      <c r="E129" s="81">
-        <v>1.53</v>
-      </c>
-      <c r="F129" s="81">
-        <v>2.3779189999999999</v>
-      </c>
-      <c r="G129" s="81">
-        <v>2.2320000000000002</v>
-      </c>
-      <c r="H129" s="81">
-        <v>2.34</v>
-      </c>
-      <c r="I129" s="81"/>
-      <c r="J129" s="81">
-        <v>2.331</v>
-      </c>
-      <c r="K129" s="81">
-        <v>2.3013888888888898</v>
-      </c>
-      <c r="L129" s="81">
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="M129" s="81">
-        <v>2.3184</v>
-      </c>
-      <c r="N129" s="81">
-        <v>2.6616000000000004</v>
-      </c>
-      <c r="O129" s="81">
-        <v>2.0023033333333302</v>
-      </c>
-      <c r="P129" s="82">
+      <c r="E129" s="82">
         <v>1.8280985175472499</v>
       </c>
-      <c r="Q129" s="82">
+      <c r="F129" s="82">
         <v>1.82988695680057</v>
       </c>
-      <c r="R129" s="82">
+      <c r="G129" s="82">
         <v>1.82172014082066</v>
       </c>
-      <c r="S129" s="82">
+      <c r="H129" s="82">
         <v>1.8236293895145901</v>
       </c>
-    </row>
-    <row r="130" spans="1:19" ht="22" customHeight="1">
+      <c r="I129" s="82">
+        <v>2.9358439336715998</v>
+      </c>
+      <c r="J129" s="82">
+        <v>2.9362658333979699</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="22" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9"/>
       <c r="D130" s="49">
         <v>20</v>
       </c>
-      <c r="E130" s="81">
-        <v>2.3210000000000002</v>
-      </c>
-      <c r="F130" s="81">
-        <v>2.8664869999999998</v>
-      </c>
-      <c r="G130" s="81">
-        <v>2.9329999999999998</v>
-      </c>
-      <c r="H130" s="81">
-        <v>2.988</v>
-      </c>
-      <c r="I130" s="81"/>
-      <c r="J130" s="81">
-        <v>2.9489999999999998</v>
-      </c>
-      <c r="K130" s="81">
-        <v>2.9666666666666699</v>
-      </c>
-      <c r="L130" s="81">
-        <v>2.9409999999999998</v>
-      </c>
-      <c r="M130" s="81">
-        <v>3.2303999999999999</v>
-      </c>
-      <c r="N130" s="81">
-        <v>3.3297600000000003</v>
-      </c>
-      <c r="O130" s="81">
-        <v>2.9860133333333301</v>
-      </c>
-      <c r="P130" s="82">
+      <c r="E130" s="82">
         <v>2.5710302292953799</v>
       </c>
-      <c r="Q130" s="82">
+      <c r="F130" s="82">
         <v>2.57268608538581</v>
       </c>
-      <c r="R130" s="82">
+      <c r="G130" s="82">
         <v>2.5611717118381998</v>
       </c>
-      <c r="S130" s="82">
+      <c r="H130" s="82">
         <v>2.56286612814693</v>
       </c>
-    </row>
-    <row r="131" spans="1:19" ht="22" customHeight="1">
+      <c r="I130" s="82">
+        <v>3.16078402370914</v>
+      </c>
+      <c r="J130" s="82">
+        <v>3.1612443615905601</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="22" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9"/>
       <c r="D131" s="49">
         <v>21</v>
       </c>
-      <c r="E131" s="81">
-        <v>2.641</v>
-      </c>
-      <c r="F131" s="81">
-        <v>3.212612</v>
-      </c>
-      <c r="G131" s="81">
-        <v>3.323</v>
-      </c>
-      <c r="H131" s="81">
-        <v>3.3650000000000002</v>
-      </c>
-      <c r="I131" s="81"/>
-      <c r="J131" s="81">
-        <v>3.3090000000000002</v>
-      </c>
-      <c r="K131" s="81">
-        <v>3.2777777777777799</v>
-      </c>
-      <c r="L131" s="81">
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="M131" s="81">
-        <v>3.5327999999999999</v>
-      </c>
-      <c r="N131" s="81">
-        <v>3.6158399999999999</v>
-      </c>
-      <c r="O131" s="81">
-        <v>3.31159111111111</v>
-      </c>
-      <c r="P131" s="82">
+      <c r="E131" s="82">
         <v>2.9766136851374898</v>
       </c>
-      <c r="Q131" s="82">
+      <c r="F131" s="82">
         <v>2.97800219020524</v>
       </c>
-      <c r="R131" s="82">
+      <c r="G131" s="82">
         <v>2.9667423904594701</v>
       </c>
-      <c r="S131" s="82">
+      <c r="H131" s="82">
         <v>2.9681452640656798</v>
       </c>
-    </row>
-    <row r="132" spans="1:19" ht="22" customHeight="1">
+      <c r="I131" s="82">
+        <v>3.2814293390622198</v>
+      </c>
+      <c r="J131" s="82">
+        <v>3.2818095437989001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="22" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9"/>
       <c r="D132" s="49">
         <v>22</v>
       </c>
-      <c r="E132" s="81">
-        <v>2.899</v>
-      </c>
-      <c r="F132" s="81">
-        <v>3.2845110000000002</v>
-      </c>
-      <c r="G132" s="81">
-        <v>3.4870000000000001</v>
-      </c>
-      <c r="H132" s="81">
-        <v>3.532</v>
-      </c>
-      <c r="I132" s="81"/>
-      <c r="J132" s="81">
-        <v>3.347</v>
-      </c>
-      <c r="K132" s="81">
-        <v>3.4611111111111099</v>
-      </c>
-      <c r="L132" s="81">
-        <v>3.5939999999999999</v>
-      </c>
-      <c r="M132" s="81">
-        <v>3.6192000000000002</v>
-      </c>
-      <c r="N132" s="81">
-        <v>3.6979199999999999</v>
-      </c>
-      <c r="O132" s="81">
-        <v>3.4860077777777798</v>
-      </c>
-      <c r="P132" s="82">
+      <c r="E132" s="82">
         <v>3.1880497360790798</v>
       </c>
-      <c r="Q132" s="82">
+      <c r="F132" s="82">
         <v>3.18906066864057</v>
       </c>
-      <c r="R132" s="82">
+      <c r="G132" s="82">
         <v>3.17933707287431</v>
       </c>
-      <c r="S132" s="82">
+      <c r="H132" s="82">
         <v>3.1803544833631698</v>
       </c>
-    </row>
-    <row r="133" spans="1:19" ht="22" customHeight="1">
+      <c r="I132" s="82">
+        <v>3.3394863663017702</v>
+      </c>
+      <c r="J132" s="82">
+        <v>3.3397622279239698</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="22" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9"/>
       <c r="D133" s="49">
         <v>23</v>
       </c>
-      <c r="E133" s="81">
-        <v>3.0169999999999999</v>
-      </c>
-      <c r="F133" s="81">
-        <v>3.3307470000000001</v>
-      </c>
-      <c r="G133" s="81">
-        <v>3.5139999999999998</v>
-      </c>
-      <c r="H133" s="81">
-        <v>3.605</v>
-      </c>
-      <c r="I133" s="81"/>
-      <c r="J133" s="81">
-        <v>3.4940000000000002</v>
-      </c>
-      <c r="K133" s="81">
-        <v>3.5</v>
-      </c>
-      <c r="L133" s="81">
-        <v>3.6960000000000002</v>
-      </c>
-      <c r="M133" s="81">
-        <v>3.6192000000000002</v>
-      </c>
-      <c r="N133" s="81">
-        <v>3.69984</v>
-      </c>
-      <c r="O133" s="81">
-        <v>3.5418211111111102</v>
-      </c>
-      <c r="P133" s="82">
+      <c r="E133" s="82">
         <v>3.2463680307142502</v>
       </c>
-      <c r="Q133" s="82">
+      <c r="F133" s="82">
         <v>3.2470470465871899</v>
       </c>
-      <c r="R133" s="82">
+      <c r="G133" s="82">
         <v>3.23735118416967</v>
       </c>
-      <c r="S133" s="82">
+      <c r="H133" s="82">
         <v>3.23803355146678</v>
       </c>
-    </row>
-    <row r="134" spans="1:19" ht="22" customHeight="1" thickBot="1">
-      <c r="A134" s="25"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="20">
+      <c r="I133" s="82">
+        <v>3.3210431909828899</v>
+      </c>
+      <c r="J133" s="82">
+        <v>3.32122743252381</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="22" customHeight="1">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="8">
         <v>24</v>
       </c>
-      <c r="E134" s="83">
-        <v>3.008</v>
-      </c>
-      <c r="F134" s="83">
-        <v>3.387975</v>
-      </c>
-      <c r="G134" s="83">
-        <v>3.5609999999999999</v>
-      </c>
-      <c r="H134" s="83">
-        <v>3.6629999999999998</v>
-      </c>
-      <c r="I134" s="83"/>
-      <c r="J134" s="83">
-        <v>3.5270000000000001</v>
-      </c>
-      <c r="K134" s="83">
-        <v>3.4722222222222201</v>
-      </c>
-      <c r="L134" s="83">
-        <v>3.7690000000000001</v>
-      </c>
-      <c r="M134" s="83">
-        <v>3.6143999999999998</v>
-      </c>
-      <c r="N134" s="83">
-        <v>3.7027200000000002</v>
-      </c>
-      <c r="O134" s="83">
-        <v>3.5581</v>
-      </c>
-      <c r="P134" s="84">
+      <c r="E134" s="88">
         <v>3.26434128943706</v>
       </c>
-      <c r="Q134" s="84">
+      <c r="F134" s="88">
         <v>3.26477098961875</v>
       </c>
-      <c r="R134" s="84">
+      <c r="G134" s="88">
         <v>3.2536651354386401</v>
       </c>
-      <c r="S134" s="84">
+      <c r="H134" s="88">
         <v>3.2540967406963599</v>
+      </c>
+      <c r="I134" s="88">
+        <v>3.30180648653451</v>
+      </c>
+      <c r="J134" s="88">
+        <v>3.30192053660239</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="85"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="89"/>
+      <c r="H135" s="89"/>
+      <c r="I135" s="89">
+        <v>674.31902791520997</v>
+      </c>
+      <c r="J135" s="89">
+        <v>674.31902791520997</v>
       </c>
     </row>
   </sheetData>
@@ -17111,8 +14052,8 @@
     <mergeCell ref="A3:B3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="R39:R62">
-    <cfRule type="dataBar" priority="25">
+  <conditionalFormatting sqref="G39:G62">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17125,8 +14066,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R15:R38">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="G15:G38">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17139,8 +14080,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R63:R86">
-    <cfRule type="dataBar" priority="23">
+  <conditionalFormatting sqref="G63:G86">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17153,8 +14094,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R87:R110">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="G87:G110">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17167,8 +14108,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R111:R134">
-    <cfRule type="dataBar" priority="21">
+  <conditionalFormatting sqref="G111:G134">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17181,8 +14122,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39:O62 S39:S62">
-    <cfRule type="dataBar" priority="40">
+  <conditionalFormatting sqref="H39:H62">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17195,8 +14136,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15:O38 S15:S38">
-    <cfRule type="dataBar" priority="42">
+  <conditionalFormatting sqref="H15:H38">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17209,8 +14150,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:O86 S63:S86">
-    <cfRule type="dataBar" priority="44">
+  <conditionalFormatting sqref="H63:H86">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17223,8 +14164,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87:O110 S87:S110">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="H87:H110">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17237,8 +14178,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111:O134 S111:S134">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="H111:H134">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17251,8 +14192,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q39:Q62">
-    <cfRule type="dataBar" priority="11">
+  <conditionalFormatting sqref="F39:F62">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17265,8 +14206,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q15:Q38">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="F15:F38">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17279,8 +14220,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q63:Q86">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="F63:F86">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17293,8 +14234,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q87:Q110">
-    <cfRule type="dataBar" priority="14">
+  <conditionalFormatting sqref="F87:F110">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17307,8 +14248,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q111:Q134">
-    <cfRule type="dataBar" priority="15">
+  <conditionalFormatting sqref="F111:F134">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17321,8 +14262,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:P62">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="E39:E62">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17335,8 +14276,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P38">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="E15:E38">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17349,8 +14290,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P63:P86">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="E63:E86">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17363,8 +14304,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P87:P110">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="E87:E110">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17377,8 +14318,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P111:P134">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="E111:E134">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17391,8 +14332,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P39:P62">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="E39:E62">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17405,8 +14346,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:P38">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="E15:E38">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17419,8 +14360,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P63:P86">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="E63:E86">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17433,8 +14374,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P87:P110">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="E87:E110">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -17447,7 +14388,77 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P111:P134">
+  <conditionalFormatting sqref="E111:E134">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17C6694E-38ED-FE40-BFAB-3E14670E20CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39:I62">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7BB501C4-77D0-0845-B5DC-543A06316592}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15:I38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE9316C9-A481-7D4B-B520-9A6E79A7E1BB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I63:I86">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9D714E4F-E45D-5E49-8C6A-0CFBE2729460}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87:I110">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F4D5925-96DA-AF43-8BEA-AF10656A3188}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I111:I134">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -17456,7 +14467,77 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{17C6694E-38ED-FE40-BFAB-3E14670E20CC}</x14:id>
+          <x14:id>{E8973C20-5B8D-074E-9C92-B0A6A2BB2F1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:J62">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9409C884-606D-DD4A-AA2E-E10C6DF624BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J38">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{155255C1-B70D-1347-9519-D26616DC2CBD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J63:J86">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{963705FA-D065-F145-B967-10CA78CFFF81}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J87:J110">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{736A4DB6-0824-FB49-9563-C01296AA34E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J111:J134">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAF32A60-9A4B-484D-92C5-1B4B3C9F3E2E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17476,7 +14557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R39:R62</xm:sqref>
+          <xm:sqref>G39:G62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3F102A9E-A50A-E745-9782-5161BEFCC258}">
@@ -17489,7 +14570,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R15:R38</xm:sqref>
+          <xm:sqref>G15:G38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9FDDDD1D-9E76-9749-A847-105588ECEE77}">
@@ -17502,7 +14583,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R63:R86</xm:sqref>
+          <xm:sqref>G63:G86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{133C3AA1-A16A-4849-AE8D-98830CADACC2}">
@@ -17515,7 +14596,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R87:R110</xm:sqref>
+          <xm:sqref>G87:G110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{30316081-F6F8-CB40-B56D-372401707B5D}">
@@ -17528,7 +14609,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>R111:R134</xm:sqref>
+          <xm:sqref>G111:G134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60EE139A-CC60-4246-98E3-315B30688F0F}">
@@ -17541,7 +14622,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E39:O62 S39:S62</xm:sqref>
+          <xm:sqref>H39:H62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{127D525D-C728-A34B-A2F3-519A09EE098C}">
@@ -17554,7 +14635,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E15:O38 S15:S38</xm:sqref>
+          <xm:sqref>H15:H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{37878C2F-1DF3-664C-A6A3-1FF7F03D4993}">
@@ -17567,7 +14648,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E63:O86 S63:S86</xm:sqref>
+          <xm:sqref>H63:H86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F7B7119A-28FE-0A49-B6AD-7BB05C7D217C}">
@@ -17580,7 +14661,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E87:O110 S87:S110</xm:sqref>
+          <xm:sqref>H87:H110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{890EC0BB-BB67-3B45-98C4-729430FCD71E}">
@@ -17593,7 +14674,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>E111:O134 S111:S134</xm:sqref>
+          <xm:sqref>H111:H134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FB440EA-B8C1-C340-88DA-8894FB5F96A2}">
@@ -17606,7 +14687,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q39:Q62</xm:sqref>
+          <xm:sqref>F39:F62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A1174A65-C643-4A44-AC90-05E1C07BF093}">
@@ -17619,7 +14700,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q15:Q38</xm:sqref>
+          <xm:sqref>F15:F38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{23165D4B-1068-2844-8FC0-6EA29FA95B45}">
@@ -17632,7 +14713,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q63:Q86</xm:sqref>
+          <xm:sqref>F63:F86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B63DE5E7-81A4-064B-BA8D-FB60A7443324}">
@@ -17645,7 +14726,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q87:Q110</xm:sqref>
+          <xm:sqref>F87:F110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{271F7CF8-8702-474A-98D9-9FC6F47A2525}">
@@ -17658,7 +14739,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>Q111:Q134</xm:sqref>
+          <xm:sqref>F111:F134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{DC5A71FB-4954-F348-B5DA-67E11FB8ED8A}">
@@ -17671,7 +14752,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P39:P62</xm:sqref>
+          <xm:sqref>E39:E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{53A09E09-84A1-974F-8624-741B750E9C6C}">
@@ -17684,7 +14765,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P15:P38</xm:sqref>
+          <xm:sqref>E15:E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0F467468-86AE-594B-B834-4AAD12526816}">
@@ -17697,7 +14778,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P63:P86</xm:sqref>
+          <xm:sqref>E63:E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EC03410F-B046-D147-A77B-2601370674CC}">
@@ -17710,7 +14791,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P87:P110</xm:sqref>
+          <xm:sqref>E87:E110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0FDD281B-2909-AE4D-935C-011FCED71163}">
@@ -17723,7 +14804,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P111:P134</xm:sqref>
+          <xm:sqref>E111:E134</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3A9B504B-58B4-2B41-B4D9-72FB17D2D181}">
@@ -17736,7 +14817,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P39:P62</xm:sqref>
+          <xm:sqref>E39:E62</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1A2DD1E1-2ED6-D640-AAC1-0C6631CDF856}">
@@ -17749,7 +14830,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P15:P38</xm:sqref>
+          <xm:sqref>E15:E38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{82F1802D-BCF3-044F-ADCF-3713DBE23F58}">
@@ -17762,7 +14843,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P63:P86</xm:sqref>
+          <xm:sqref>E63:E86</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F86E9C5D-9056-C84E-A036-C83705CD156B}">
@@ -17775,7 +14856,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P87:P110</xm:sqref>
+          <xm:sqref>E87:E110</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{17C6694E-38ED-FE40-BFAB-3E14670E20CC}">
@@ -17788,7 +14869,137 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P111:P134</xm:sqref>
+          <xm:sqref>E111:E134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BB501C4-77D0-0845-B5DC-543A06316592}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I39:I62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE9316C9-A481-7D4B-B520-9A6E79A7E1BB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I15:I38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9D714E4F-E45D-5E49-8C6A-0CFBE2729460}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I63:I86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F4D5925-96DA-AF43-8BEA-AF10656A3188}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I87:I110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E8973C20-5B8D-074E-9C92-B0A6A2BB2F1B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I111:I134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9409C884-606D-DD4A-AA2E-E10C6DF624BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J39:J62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{155255C1-B70D-1347-9519-D26616DC2CBD}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J15:J38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{963705FA-D065-F145-B967-10CA78CFFF81}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J63:J86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{736A4DB6-0824-FB49-9563-C01296AA34E4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J87:J110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CAF32A60-9A4B-484D-92C5-1B4B3C9F3E2E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J111:J134</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5FCDED-6144-554A-98FD-06BD1884C384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5BCA7-E71A-454A-88D7-033035020989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
   <si>
     <t>ESP</t>
   </si>
@@ -419,6 +419,16 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Case630
+miyata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case630
+AS140</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -686,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -922,6 +932,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1317,26 +1333,26 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="94" t="s">
+      <c r="P2" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="92" t="s">
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10474,10 +10490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10485,11 +10501,11 @@
     <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5" max="10" width="10.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="3"/>
+    <col min="5" max="12" width="10.28515625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30">
+    <row r="1" spans="1:12" ht="30">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -10502,8 +10518,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="26" customHeight="1">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="26" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -10514,12 +10532,14 @@
       <c r="H2" s="17"/>
       <c r="I2" s="86"/>
       <c r="J2" s="85"/>
-    </row>
-    <row r="3" spans="1:10" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="90" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="90"/>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
+      <c r="A3" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="91"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10544,8 +10564,14 @@
       <c r="J3" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
+      <c r="K3" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -10574,8 +10600,14 @@
       <c r="J4" s="53">
         <v>4.56457352600387</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="K4" s="53">
+        <v>4.8942249123262496</v>
+      </c>
+      <c r="L4" s="53">
+        <v>4.8949042402478797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
@@ -10604,8 +10636,14 @@
       <c r="J5" s="56">
         <v>4.1709312236822402</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="K5" s="56">
+        <v>2.7837487202088398</v>
+      </c>
+      <c r="L5" s="56">
+        <v>2.7844979813214299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>43</v>
       </c>
@@ -10634,8 +10672,14 @@
       <c r="J6" s="59">
         <v>3.7411433981309599</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="K6" s="59">
+        <v>3.7209467675913799</v>
+      </c>
+      <c r="L6" s="59">
+        <v>3.7209567789373201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>44</v>
       </c>
@@ -10664,8 +10708,14 @@
       <c r="J7" s="61">
         <v>3.9233574810545</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K7" s="61">
+        <v>3.3784411301593398</v>
+      </c>
+      <c r="L7" s="61">
+        <v>3.3789172413259898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
@@ -10694,8 +10744,14 @@
       <c r="J8" s="63">
         <v>432.13421939075698</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="L8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
@@ -10724,8 +10780,14 @@
       <c r="J9" s="65">
         <v>1179.2604523596699</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K9" s="65">
+        <v>910.43872781691505</v>
+      </c>
+      <c r="L9" s="65">
+        <v>910.43872593476601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
@@ -10754,8 +10816,14 @@
       <c r="J10" s="65">
         <v>1040.5181340796701</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K10" s="65">
+        <v>799.61167407024197</v>
+      </c>
+      <c r="L10" s="65">
+        <v>799.61166970442298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>46</v>
       </c>
@@ -10784,8 +10852,14 @@
       <c r="J11" s="65">
         <v>1544.9788966738599</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="L11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -10814,8 +10888,14 @@
       <c r="J12" s="65">
         <v>1840.06074216252</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="K12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="L12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>48</v>
       </c>
@@ -10844,8 +10924,14 @@
       <c r="J13" s="66">
         <v>720.92028061101701</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="K13" s="66">
+        <v>523.65166259917498</v>
+      </c>
+      <c r="L13" s="66">
+        <v>523.65166257035105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A14" s="43" t="s">
         <v>20</v>
       </c>
@@ -10874,8 +10960,14 @@
       <c r="J14" s="68">
         <v>0.46662144199060801</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="22" customHeight="1">
+      <c r="K14" s="68">
+        <v>0.33893774453911801</v>
+      </c>
+      <c r="L14" s="68">
+        <v>0.33893774452046199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="22" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -10906,8 +10998,14 @@
       <c r="J15" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="22" customHeight="1">
+      <c r="K15" s="70">
+        <v>0</v>
+      </c>
+      <c r="L15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="22" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -10932,8 +11030,14 @@
       <c r="J16" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="22" customHeight="1">
+      <c r="K16" s="72">
+        <v>0</v>
+      </c>
+      <c r="L16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="22" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
@@ -10958,8 +11062,14 @@
       <c r="J17" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="22" customHeight="1">
+      <c r="K17" s="72">
+        <v>0</v>
+      </c>
+      <c r="L17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="22" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -10984,8 +11094,14 @@
       <c r="J18" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="22" customHeight="1">
+      <c r="K18" s="72">
+        <v>0</v>
+      </c>
+      <c r="L18" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="22" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -11010,8 +11126,14 @@
       <c r="J19" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="22" customHeight="1">
+      <c r="K19" s="72">
+        <v>0</v>
+      </c>
+      <c r="L19" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="22" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
@@ -11036,8 +11158,14 @@
       <c r="J20" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="22" customHeight="1">
+      <c r="K20" s="72">
+        <v>0</v>
+      </c>
+      <c r="L20" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="22" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
@@ -11062,8 +11190,14 @@
       <c r="J21" s="72">
         <v>4.1392058833219298</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="22" customHeight="1">
+      <c r="K21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="L21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="22" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
@@ -11088,8 +11222,14 @@
       <c r="J22" s="72">
         <v>19.906615707371799</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="22" customHeight="1">
+      <c r="K22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+      <c r="L22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="22" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
@@ -11114,8 +11254,14 @@
       <c r="J23" s="72">
         <v>35.4789194339197</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="22" customHeight="1">
+      <c r="K23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+      <c r="L23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="22" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -11140,8 +11286,14 @@
       <c r="J24" s="72">
         <v>48.983743617066096</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="23" customHeight="1">
+      <c r="K24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="L24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="23" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
@@ -11166,8 +11318,14 @@
       <c r="J25" s="72">
         <v>58.449624348728598</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="22" customHeight="1">
+      <c r="K25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="L25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="22" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -11192,8 +11350,14 @@
       <c r="J26" s="72">
         <v>63.727583713799</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="22" customHeight="1">
+      <c r="K26" s="72">
+        <v>63.727583713799</v>
+      </c>
+      <c r="L26" s="72">
+        <v>63.727583713799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="22" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
@@ -11218,8 +11382,14 @@
       <c r="J27" s="72">
         <v>63.469189819430298</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="22" customHeight="1">
+      <c r="K27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+      <c r="L27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="22" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
@@ -11244,8 +11414,14 @@
       <c r="J28" s="72">
         <v>57.163889629705899</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="22" customHeight="1">
+      <c r="K28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="L28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="22" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
@@ -11270,8 +11446,14 @@
       <c r="J29" s="72">
         <v>46.140358781121201</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="22" customHeight="1">
+      <c r="K29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="L29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="22" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
@@ -11296,8 +11478,14 @@
       <c r="J30" s="72">
         <v>31.726053230763501</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="22" customHeight="1">
+      <c r="K30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="L30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="22" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
@@ -11322,8 +11510,14 @@
       <c r="J31" s="72">
         <v>15.642315521327401</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="22" customHeight="1">
+      <c r="K31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+      <c r="L31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="22" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9"/>
@@ -11348,8 +11542,14 @@
       <c r="J32" s="72">
         <v>2.6701979412288002</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="22" customHeight="1">
+      <c r="K32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="L32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="22" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
@@ -11374,8 +11574,14 @@
       <c r="J33" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="22" customHeight="1">
+      <c r="K33" s="72">
+        <v>0</v>
+      </c>
+      <c r="L33" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="22" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -11400,8 +11606,14 @@
       <c r="J34" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="22" customHeight="1">
+      <c r="K34" s="72">
+        <v>0</v>
+      </c>
+      <c r="L34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="22" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
@@ -11426,8 +11638,14 @@
       <c r="J35" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="22" customHeight="1">
+      <c r="K35" s="72">
+        <v>0</v>
+      </c>
+      <c r="L35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="22" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9"/>
@@ -11452,8 +11670,14 @@
       <c r="J36" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="22" customHeight="1">
+      <c r="K36" s="72">
+        <v>0</v>
+      </c>
+      <c r="L36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="22" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9"/>
@@ -11478,8 +11702,14 @@
       <c r="J37" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="22" customHeight="1" thickBot="1">
+      <c r="K37" s="72">
+        <v>0</v>
+      </c>
+      <c r="L37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="22" customHeight="1" thickBot="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -11504,8 +11734,14 @@
       <c r="J38" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="22" customHeight="1">
+      <c r="K38" s="74">
+        <v>0</v>
+      </c>
+      <c r="L38" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="22" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>49</v>
       </c>
@@ -11536,8 +11772,14 @@
       <c r="J39" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" ht="22" customHeight="1">
+      <c r="K39" s="76">
+        <v>0</v>
+      </c>
+      <c r="L39" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="22" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="9"/>
@@ -11562,8 +11804,14 @@
       <c r="J40" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" ht="22" customHeight="1">
+      <c r="K40" s="72">
+        <v>0</v>
+      </c>
+      <c r="L40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="22" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
@@ -11588,8 +11836,14 @@
       <c r="J41" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" ht="22" customHeight="1">
+      <c r="K41" s="72">
+        <v>0</v>
+      </c>
+      <c r="L41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="22" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -11614,8 +11868,14 @@
       <c r="J42" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" ht="22" customHeight="1">
+      <c r="K42" s="72">
+        <v>0</v>
+      </c>
+      <c r="L42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="22" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
@@ -11640,8 +11900,14 @@
       <c r="J43" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" ht="22" customHeight="1">
+      <c r="K43" s="72">
+        <v>0</v>
+      </c>
+      <c r="L43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="22" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
@@ -11666,8 +11932,14 @@
       <c r="J44" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" ht="22" customHeight="1">
+      <c r="K44" s="72">
+        <v>0</v>
+      </c>
+      <c r="L44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="22" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9"/>
@@ -11692,8 +11964,14 @@
       <c r="J45" s="72">
         <v>4.1007164603674999</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" ht="22" customHeight="1">
+      <c r="K45" s="72">
+        <v>3.1259552431308402</v>
+      </c>
+      <c r="L45" s="72">
+        <v>3.1259551940957202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="22" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9"/>
@@ -11718,8 +11996,14 @@
       <c r="J46" s="72">
         <v>19.5371160502471</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" ht="22" customHeight="1">
+      <c r="K46" s="72">
+        <v>14.8952180903987</v>
+      </c>
+      <c r="L46" s="72">
+        <v>14.895217858649801</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="22" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9"/>
@@ -11744,8 +12028,14 @@
       <c r="J47" s="72">
         <v>34.579912168593196</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" ht="22" customHeight="1">
+      <c r="K47" s="72">
+        <v>26.364500178360899</v>
+      </c>
+      <c r="L47" s="72">
+        <v>26.364499773539901</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="22" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9"/>
@@ -11770,8 +12060,14 @@
       <c r="J48" s="72">
         <v>47.821201299679402</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" ht="22" customHeight="1">
+      <c r="K48" s="72">
+        <v>36.451914282835403</v>
+      </c>
+      <c r="L48" s="72">
+        <v>36.451913729418997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="22" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
@@ -11796,8 +12092,14 @@
       <c r="J49" s="72">
         <v>56.972936122782201</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" ht="22" customHeight="1">
+      <c r="K49" s="72">
+        <v>43.423558186655903</v>
+      </c>
+      <c r="L49" s="72">
+        <v>43.423557533228099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="22" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -11822,8 +12124,14 @@
       <c r="J50" s="72">
         <v>61.327749698869702</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" ht="22" customHeight="1">
+      <c r="K50" s="72">
+        <v>46.757811775354902</v>
+      </c>
+      <c r="L50" s="72">
+        <v>46.757811075942698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="22" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
@@ -11848,8 +12156,14 @@
       <c r="J51" s="72">
         <v>61.427469085573399</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" ht="22" customHeight="1">
+      <c r="K51" s="72">
+        <v>46.737975064163997</v>
+      </c>
+      <c r="L51" s="72">
+        <v>46.737974367985899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="22" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9"/>
@@ -11874,8 +12188,14 @@
       <c r="J52" s="72">
         <v>56.276220495864997</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" ht="22" customHeight="1">
+      <c r="K52" s="72">
+        <v>42.664273960753498</v>
+      </c>
+      <c r="L52" s="72">
+        <v>42.664273327307001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="22" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="9"/>
@@ -11900,8 +12220,14 @@
       <c r="J53" s="72">
         <v>46.126684198485002</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" ht="22" customHeight="1">
+      <c r="K53" s="72">
+        <v>34.982028006700297</v>
+      </c>
+      <c r="L53" s="72">
+        <v>34.982027486632902</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="22" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="9"/>
@@ -11926,8 +12252,14 @@
       <c r="J54" s="72">
         <v>32.250110470764497</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" ht="22" customHeight="1">
+      <c r="K54" s="72">
+        <v>24.500357689360001</v>
+      </c>
+      <c r="L54" s="72">
+        <v>24.500357327485698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="22" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="9"/>
@@ -11952,8 +12284,14 @@
       <c r="J55" s="72">
         <v>16.123599338209999</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" ht="22" customHeight="1">
+      <c r="K55" s="72">
+        <v>12.3283813096796</v>
+      </c>
+      <c r="L55" s="72">
+        <v>12.3283811267874</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="22" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="9"/>
@@ -11978,8 +12316,14 @@
       <c r="J56" s="72">
         <v>2.7155242506330199</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" ht="22" customHeight="1">
+      <c r="K56" s="72">
+        <v>2.07814624129005</v>
+      </c>
+      <c r="L56" s="72">
+        <v>2.07814620903499</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="22" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
@@ -12004,8 +12348,14 @@
       <c r="J57" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" ht="22" customHeight="1">
+      <c r="K57" s="72">
+        <v>0</v>
+      </c>
+      <c r="L57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="22" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -12030,8 +12380,14 @@
       <c r="J58" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" ht="22" customHeight="1">
+      <c r="K58" s="72">
+        <v>0</v>
+      </c>
+      <c r="L58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="22" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
@@ -12056,8 +12412,14 @@
       <c r="J59" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" ht="22" customHeight="1">
+      <c r="K59" s="72">
+        <v>0</v>
+      </c>
+      <c r="L59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="22" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="9"/>
@@ -12082,8 +12444,14 @@
       <c r="J60" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" ht="22" customHeight="1">
+      <c r="K60" s="72">
+        <v>0</v>
+      </c>
+      <c r="L60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="22" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
@@ -12108,8 +12476,14 @@
       <c r="J61" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" ht="22" customHeight="1" thickBot="1">
+      <c r="K61" s="72">
+        <v>0</v>
+      </c>
+      <c r="L61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="22" customHeight="1" thickBot="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="9"/>
@@ -12134,8 +12508,14 @@
       <c r="J62" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" ht="22" customHeight="1">
+      <c r="K62" s="78">
+        <v>0</v>
+      </c>
+      <c r="L62" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="22" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>51</v>
       </c>
@@ -12166,8 +12546,14 @@
       <c r="J63" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" ht="22" customHeight="1">
+      <c r="K63" s="70">
+        <v>0</v>
+      </c>
+      <c r="L63" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="22" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9"/>
@@ -12192,8 +12578,14 @@
       <c r="J64" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" ht="22" customHeight="1">
+      <c r="K64" s="72">
+        <v>0</v>
+      </c>
+      <c r="L64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="22" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
@@ -12218,8 +12610,14 @@
       <c r="J65" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" ht="22" customHeight="1">
+      <c r="K65" s="72">
+        <v>0</v>
+      </c>
+      <c r="L65" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="22" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
@@ -12244,8 +12642,14 @@
       <c r="J66" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" ht="22" customHeight="1">
+      <c r="K66" s="72">
+        <v>0</v>
+      </c>
+      <c r="L66" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="22" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
@@ -12270,8 +12674,14 @@
       <c r="J67" s="72">
         <v>2.8637133784777098</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" ht="22" customHeight="1">
+      <c r="K67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="L67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="22" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
@@ -12296,8 +12706,14 @@
       <c r="J68" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" ht="22" customHeight="1">
+      <c r="K68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="L68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="22" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
@@ -12322,8 +12738,14 @@
       <c r="J69" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" ht="22" customHeight="1">
+      <c r="K69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="L69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="22" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
@@ -12348,8 +12770,14 @@
       <c r="J70" s="72">
         <v>136.13844946706701</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" ht="22" customHeight="1">
+      <c r="K70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+      <c r="L70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="22" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
@@ -12374,8 +12802,14 @@
       <c r="J71" s="72">
         <v>256.058048053954</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" ht="22" customHeight="1">
+      <c r="K71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="L71" s="72">
+        <v>256.058048053954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="22" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
@@ -12400,8 +12834,14 @@
       <c r="J72" s="72">
         <v>377.09238254086802</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="22" customHeight="1">
+      <c r="K72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="L72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="22" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
@@ -12426,8 +12866,14 @@
       <c r="J73" s="72">
         <v>449.95552662570299</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" ht="22" customHeight="1">
+      <c r="K73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="L73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="22" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
@@ -12452,8 +12898,14 @@
       <c r="J74" s="72">
         <v>468.97003171270302</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" ht="22" customHeight="1">
+      <c r="K74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="L74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="22" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="9"/>
@@ -12478,8 +12930,14 @@
       <c r="J75" s="72">
         <v>458.46522359386699</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" ht="22" customHeight="1">
+      <c r="K75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+      <c r="L75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="22" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
@@ -12504,8 +12962,14 @@
       <c r="J76" s="72">
         <v>395.77516323430098</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" ht="22" customHeight="1">
+      <c r="K76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="L76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="22" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="9"/>
@@ -12530,8 +12994,14 @@
       <c r="J77" s="72">
         <v>298.27754053509602</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" ht="22" customHeight="1">
+      <c r="K77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+      <c r="L77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="22" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
@@ -12556,8 +13026,14 @@
       <c r="J78" s="72">
         <v>170.259190480049</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" ht="22" customHeight="1">
+      <c r="K78" s="72">
+        <v>170.259190480049</v>
+      </c>
+      <c r="L78" s="72">
+        <v>170.259190480049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="22" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="9"/>
@@ -12582,8 +13058,14 @@
       <c r="J79" s="72">
         <v>80.3704132013644</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" ht="22" customHeight="1">
+      <c r="K79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+      <c r="L79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="22" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
@@ -12608,8 +13090,14 @@
       <c r="J80" s="72">
         <v>52.3869711625888</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" ht="22" customHeight="1">
+      <c r="K80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="L80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="22" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
@@ -12634,8 +13122,14 @@
       <c r="J81" s="72">
         <v>15.185447700664</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" ht="22" customHeight="1">
+      <c r="K81" s="72">
+        <v>15.185447700664</v>
+      </c>
+      <c r="L81" s="72">
+        <v>15.185447700664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="22" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="9"/>
@@ -12660,8 +13154,14 @@
       <c r="J82" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" ht="22" customHeight="1">
+      <c r="K82" s="72">
+        <v>0</v>
+      </c>
+      <c r="L82" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="22" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="9"/>
@@ -12686,8 +13186,14 @@
       <c r="J83" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" ht="22" customHeight="1">
+      <c r="K83" s="72">
+        <v>0</v>
+      </c>
+      <c r="L83" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="22" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="9"/>
@@ -12712,8 +13218,14 @@
       <c r="J84" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" ht="22" customHeight="1">
+      <c r="K84" s="72">
+        <v>0</v>
+      </c>
+      <c r="L84" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="22" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
@@ -12738,8 +13250,14 @@
       <c r="J85" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" ht="22" customHeight="1" thickBot="1">
+      <c r="K85" s="72">
+        <v>0</v>
+      </c>
+      <c r="L85" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="22" customHeight="1" thickBot="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
@@ -12764,8 +13282,14 @@
       <c r="J86" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" ht="22" customHeight="1">
+      <c r="K86" s="74">
+        <v>0</v>
+      </c>
+      <c r="L86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="22" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>52</v>
       </c>
@@ -12796,8 +13320,14 @@
       <c r="J87" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" ht="22" customHeight="1">
+      <c r="K87" s="76">
+        <v>0</v>
+      </c>
+      <c r="L87" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="22" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="9"/>
@@ -12822,8 +13352,14 @@
       <c r="J88" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" ht="22" customHeight="1">
+      <c r="K88" s="72">
+        <v>0</v>
+      </c>
+      <c r="L88" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="22" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
@@ -12848,8 +13384,14 @@
       <c r="J89" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" ht="22" customHeight="1">
+      <c r="K89" s="72">
+        <v>0</v>
+      </c>
+      <c r="L89" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="22" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
@@ -12874,8 +13416,14 @@
       <c r="J90" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" ht="22" customHeight="1">
+      <c r="K90" s="72">
+        <v>0</v>
+      </c>
+      <c r="L90" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="22" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
@@ -12900,8 +13448,14 @@
       <c r="J91" s="72">
         <v>2.8637133784777</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" ht="22" customHeight="1">
+      <c r="K91" s="72">
+        <v>2.21464515192346</v>
+      </c>
+      <c r="L91" s="72">
+        <v>2.2146451238568199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="22" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
@@ -12926,8 +13480,14 @@
       <c r="J92" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" ht="22" customHeight="1">
+      <c r="K92" s="72">
+        <v>27.6792362159029</v>
+      </c>
+      <c r="L92" s="72">
+        <v>27.679235917198</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="22" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
@@ -12952,8 +13512,14 @@
       <c r="J93" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" ht="22" customHeight="1">
+      <c r="K93" s="72">
+        <v>72.221824341204993</v>
+      </c>
+      <c r="L93" s="72">
+        <v>72.221823826417193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="22" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="9"/>
@@ -12978,8 +13544,14 @@
       <c r="J94" s="72">
         <v>128.822928421532</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="22" customHeight="1">
+      <c r="K94" s="72">
+        <v>106.995433092402</v>
+      </c>
+      <c r="L94" s="72">
+        <v>106.995432710435</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="22" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
@@ -13004,8 +13576,14 @@
       <c r="J95" s="72">
         <v>146.384406923433</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="22" customHeight="1">
+      <c r="K95" s="72">
+        <v>125.27987669584201</v>
+      </c>
+      <c r="L95" s="72">
+        <v>125.279876553234</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="22" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="9"/>
@@ -13030,8 +13608,14 @@
       <c r="J96" s="72">
         <v>152.71793835913999</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="22" customHeight="1">
+      <c r="K96" s="72">
+        <v>134.02810136564</v>
+      </c>
+      <c r="L96" s="72">
+        <v>134.02810130371901</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="22" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="9"/>
@@ -13056,8 +13640,14 @@
       <c r="J97" s="72">
         <v>149.82549640042001</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="22" customHeight="1">
+      <c r="K97" s="72">
+        <v>134.11112504578301</v>
+      </c>
+      <c r="L97" s="72">
+        <v>134.111124991032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="22" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
@@ -13082,8 +13672,14 @@
       <c r="J98" s="72">
         <v>142.658018842411</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" ht="22" customHeight="1">
+      <c r="K98" s="72">
+        <v>129.22909260719001</v>
+      </c>
+      <c r="L98" s="72">
+        <v>129.229092416101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="22" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
@@ -13108,8 +13704,14 @@
       <c r="J99" s="72">
         <v>257.39997310920597</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" ht="22" customHeight="1">
+      <c r="K99" s="72">
+        <v>204.50908291136599</v>
+      </c>
+      <c r="L99" s="72">
+        <v>204.509082776719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="22" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
@@ -13134,8 +13736,14 @@
       <c r="J100" s="72">
         <v>457.00809230009401</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" ht="22" customHeight="1">
+      <c r="K100" s="72">
+        <v>348.54928132015499</v>
+      </c>
+      <c r="L100" s="72">
+        <v>348.54928124913999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="22" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="9"/>
@@ -13160,8 +13768,14 @@
       <c r="J101" s="72">
         <v>616.36245027703899</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" ht="22" customHeight="1">
+      <c r="K101" s="72">
+        <v>490.25650938624801</v>
+      </c>
+      <c r="L101" s="72">
+        <v>490.25650935483202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="22" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
@@ -13186,8 +13800,14 @@
       <c r="J102" s="72">
         <v>668.52498183778198</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" ht="22" customHeight="1">
+      <c r="K102" s="72">
+        <v>553.50680874920397</v>
+      </c>
+      <c r="L102" s="72">
+        <v>553.50680874065097</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="22" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
@@ -13212,8 +13832,14 @@
       <c r="J103" s="72">
         <v>511.04463204636102</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" ht="22" customHeight="1">
+      <c r="K103" s="72">
+        <v>430.34964139565699</v>
+      </c>
+      <c r="L103" s="72">
+        <v>430.34964128544198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="22" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
@@ -13238,8 +13864,14 @@
       <c r="J104" s="72">
         <v>163.21927401853401</v>
       </c>
-    </row>
-    <row r="105" spans="1:10" ht="22" customHeight="1">
+      <c r="K104" s="72">
+        <v>134.645605014057</v>
+      </c>
+      <c r="L104" s="72">
+        <v>134.64560455287199</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="22" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
@@ -13264,8 +13896,14 @@
       <c r="J105" s="72">
         <v>26.890184979785399</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" ht="22" customHeight="1">
+      <c r="K105" s="72">
+        <v>21.563837044747402</v>
+      </c>
+      <c r="L105" s="72">
+        <v>21.5638368813336</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="22" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
@@ -13290,8 +13928,14 @@
       <c r="J106" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" ht="22" customHeight="1">
+      <c r="K106" s="72">
+        <v>0</v>
+      </c>
+      <c r="L106" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="22" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="9"/>
@@ -13316,8 +13960,14 @@
       <c r="J107" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" ht="22" customHeight="1">
+      <c r="K107" s="72">
+        <v>0</v>
+      </c>
+      <c r="L107" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="22" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
@@ -13342,8 +13992,14 @@
       <c r="J108" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" ht="22" customHeight="1">
+      <c r="K108" s="72">
+        <v>0</v>
+      </c>
+      <c r="L108" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="22" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
@@ -13368,8 +14024,14 @@
       <c r="J109" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" ht="22" customHeight="1" thickBot="1">
+      <c r="K109" s="72">
+        <v>0</v>
+      </c>
+      <c r="L109" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="22" customHeight="1" thickBot="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
@@ -13394,8 +14056,14 @@
       <c r="J110" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" ht="22" customHeight="1">
+      <c r="K110" s="78">
+        <v>0</v>
+      </c>
+      <c r="L110" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="22" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>27</v>
       </c>
@@ -13426,8 +14094,14 @@
       <c r="J111" s="80">
         <v>3.5902574057944601</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" ht="22" customHeight="1">
+      <c r="K111" s="80">
+        <v>3.5717194323840999</v>
+      </c>
+      <c r="L111" s="80">
+        <v>3.5717500484957201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="22" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="9"/>
@@ -13452,8 +14126,14 @@
       <c r="J112" s="82">
         <v>3.6945591839329701</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" ht="22" customHeight="1">
+      <c r="K112" s="82">
+        <v>3.67369287738051</v>
+      </c>
+      <c r="L112" s="82">
+        <v>3.6737213335760499</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="22" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="9"/>
@@ -13478,8 +14158,14 @@
       <c r="J113" s="82">
         <v>3.7291687160267299</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" ht="22" customHeight="1">
+      <c r="K113" s="82">
+        <v>3.7056297725193899</v>
+      </c>
+      <c r="L113" s="82">
+        <v>3.7056604001062601</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="22" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
@@ -13504,8 +14190,14 @@
       <c r="J114" s="82">
         <v>3.7378057180231301</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" ht="22" customHeight="1">
+      <c r="K114" s="82">
+        <v>3.7153282653722202</v>
+      </c>
+      <c r="L114" s="82">
+        <v>3.7153561004473699</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="22" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
@@ -13530,8 +14222,14 @@
       <c r="J115" s="82">
         <v>3.7404349277418798</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" ht="22" customHeight="1">
+      <c r="K115" s="82">
+        <v>3.7198480385887298</v>
+      </c>
+      <c r="L115" s="82">
+        <v>3.7198703329627101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="22" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
@@ -13556,8 +14254,14 @@
       <c r="J116" s="82">
         <v>3.7357009977584101</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" ht="22" customHeight="1">
+      <c r="K116" s="82">
+        <v>3.71508407018014</v>
+      </c>
+      <c r="L116" s="82">
+        <v>3.71510016738188</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="22" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
@@ -13582,8 +14286,14 @@
       <c r="J117" s="82">
         <v>3.7411433981309599</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" ht="22" customHeight="1">
+      <c r="K117" s="82">
+        <v>3.7209467675913799</v>
+      </c>
+      <c r="L117" s="82">
+        <v>3.7209567789373201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="22" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
@@ -13608,8 +14318,14 @@
       <c r="J118" s="82">
         <v>3.5554421769646201</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" ht="22" customHeight="1">
+      <c r="K118" s="82">
+        <v>3.5754199672793399</v>
+      </c>
+      <c r="L118" s="82">
+        <v>3.5754215949598498</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="22" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
@@ -13634,8 +14350,14 @@
       <c r="J119" s="82">
         <v>2.5482699890284</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" ht="22" customHeight="1">
+      <c r="K119" s="82">
+        <v>2.8005520157912098</v>
+      </c>
+      <c r="L119" s="82">
+        <v>2.8004583316909302</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="22" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
@@ -13660,8 +14382,14 @@
       <c r="J120" s="82">
         <v>1.7594396264361001</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" ht="22" customHeight="1">
+      <c r="K120" s="82">
+        <v>2.2365563974609199</v>
+      </c>
+      <c r="L120" s="82">
+        <v>2.2363063759294799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="22" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="9"/>
@@ -13686,8 +14414,14 @@
       <c r="J121" s="82">
         <v>1.31068177090527</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" ht="22" customHeight="1">
+      <c r="K121" s="82">
+        <v>1.9765209670686801</v>
+      </c>
+      <c r="L121" s="82">
+        <v>1.97622641516333</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="22" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="9"/>
@@ -13712,8 +14446,14 @@
       <c r="J122" s="82">
         <v>1.35035176898634</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" ht="22" customHeight="1">
+      <c r="K122" s="82">
+        <v>1.87627110362157</v>
+      </c>
+      <c r="L122" s="82">
+        <v>1.8760421907793601</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="22" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="9"/>
@@ -13738,8 +14478,14 @@
       <c r="J123" s="82">
         <v>1.5173200506198501</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" ht="22" customHeight="1">
+      <c r="K123" s="82">
+        <v>1.8735763450616501</v>
+      </c>
+      <c r="L123" s="82">
+        <v>1.8734255671584299</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="22" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="9"/>
@@ -13764,8 +14510,14 @@
       <c r="J124" s="82">
         <v>1.2829207875333499</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" ht="22" customHeight="1">
+      <c r="K124" s="82">
+        <v>1.7760415830756799</v>
+      </c>
+      <c r="L124" s="82">
+        <v>1.77595778955735</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="22" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="9"/>
@@ -13790,8 +14542,14 @@
       <c r="J125" s="82">
         <v>0.92957443424696495</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" ht="22" customHeight="1">
+      <c r="K125" s="82">
+        <v>1.5049855240688299</v>
+      </c>
+      <c r="L125" s="82">
+        <v>1.5049099185312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="22" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="9"/>
@@ -13816,8 +14574,14 @@
       <c r="J126" s="82">
         <v>0.78174475149497902</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" ht="22" customHeight="1">
+      <c r="K126" s="82">
+        <v>1.34776110049646</v>
+      </c>
+      <c r="L126" s="82">
+        <v>1.34762876905024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="22" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="9"/>
@@ -13842,8 +14606,14 @@
       <c r="J127" s="82">
         <v>1.4145084759111699</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" ht="22" customHeight="1">
+      <c r="K127" s="82">
+        <v>1.84965226425158</v>
+      </c>
+      <c r="L127" s="82">
+        <v>1.8495211096817801</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="22" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="9"/>
@@ -13868,8 +14638,14 @@
       <c r="J128" s="82">
         <v>2.3998520613259502</v>
       </c>
-    </row>
-    <row r="129" spans="1:10" ht="22" customHeight="1">
+      <c r="K128" s="82">
+        <v>2.64847871345312</v>
+      </c>
+      <c r="L128" s="82">
+        <v>2.6485536793672102</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="22" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="9"/>
@@ -13894,8 +14670,14 @@
       <c r="J129" s="82">
         <v>2.9362658333979699</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" ht="22" customHeight="1">
+      <c r="K129" s="82">
+        <v>3.0533497616799101</v>
+      </c>
+      <c r="L129" s="82">
+        <v>3.0536014838599299</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" ht="22" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9"/>
@@ -13920,8 +14702,14 @@
       <c r="J130" s="82">
         <v>3.1612443615905601</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="22" customHeight="1">
+      <c r="K130" s="82">
+        <v>3.2103106246901798</v>
+      </c>
+      <c r="L130" s="82">
+        <v>3.2105987688672899</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" ht="22" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9"/>
@@ -13946,8 +14734,14 @@
       <c r="J131" s="82">
         <v>3.2818095437989001</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" ht="22" customHeight="1">
+      <c r="K131" s="82">
+        <v>3.2983419087566199</v>
+      </c>
+      <c r="L131" s="82">
+        <v>3.2985854072403602</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" ht="22" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9"/>
@@ -13972,8 +14766,14 @@
       <c r="J132" s="82">
         <v>3.3397622279239698</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" ht="22" customHeight="1">
+      <c r="K132" s="82">
+        <v>3.3411905645727198</v>
+      </c>
+      <c r="L132" s="82">
+        <v>3.34137023977561</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" ht="22" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9"/>
@@ -13998,8 +14798,14 @@
       <c r="J133" s="82">
         <v>3.32122743252381</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" ht="22" customHeight="1">
+      <c r="K133" s="82">
+        <v>3.3130183893937999</v>
+      </c>
+      <c r="L133" s="82">
+        <v>3.31313976786257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" ht="22" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="9"/>
@@ -14024,8 +14830,14 @@
       <c r="J134" s="88">
         <v>3.30192053660239</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134" s="88">
+        <v>3.2864714055417799</v>
+      </c>
+      <c r="L134" s="88">
+        <v>3.28654531354784</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="39" t="s">
         <v>48</v>
       </c>
@@ -14046,6 +14858,12 @@
       <c r="J135" s="89">
         <v>674.31902791520997</v>
       </c>
+      <c r="K135" s="89">
+        <v>487.49206742675</v>
+      </c>
+      <c r="L135" s="89">
+        <v>487.49206742675</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14053,7 +14871,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G39:G62">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14067,7 +14885,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G38">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14081,7 +14899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G86">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14095,7 +14913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G110">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14109,7 +14927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G134">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14123,7 +14941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H62">
-    <cfRule type="dataBar" priority="50">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14137,7 +14955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H38">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14151,7 +14969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H86">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14165,7 +14983,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H110">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14179,7 +14997,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H134">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14193,7 +15011,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F62">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14207,7 +15025,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F38">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14221,7 +15039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F86">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14235,7 +15053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:F110">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14249,7 +15067,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F134">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14263,7 +15081,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14277,7 +15095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14291,7 +15109,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14305,7 +15123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14319,7 +15137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14333,7 +15151,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14347,7 +15165,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14361,7 +15179,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14375,7 +15193,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14389,7 +15207,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14403,7 +15221,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I62">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14417,7 +15235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I38">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14431,7 +15249,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I86">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14445,7 +15263,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:I110">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14459,7 +15277,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I134">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14473,7 +15291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J62">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14487,7 +15305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J38">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14501,7 +15319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J86">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14515,7 +15333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:J110">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14529,6 +15347,146 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J134">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CAF32A60-9A4B-484D-92C5-1B4B3C9F3E2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39:K62">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3352E625-8B98-C849-88B3-EC81F6C52030}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15:K38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8145D9C3-D9AF-BA46-8E44-3E3DA7FE91CC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K63:K86">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EF43FA73-5BB8-7845-A75F-BA8E5FA154B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87:K110">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FC11F4E-483A-CB42-B20B-A7F449C42165}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K111:K134">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FB7FF9BA-B5D0-3A4C-8A8F-BDDA3DCC5BE3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39:L62">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A60C8AA-64C8-C348-8D18-2E9396BC7EC2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:L38">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{15660C04-8F81-EF46-B983-CE5E214EE818}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L63:L86">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{598912D3-8504-1A42-B0EE-98B83D297208}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L87:L110">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B3C42A59-7BF7-1B40-B8BE-1D1E24DE01B4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L111:L134">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -14537,7 +15495,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CAF32A60-9A4B-484D-92C5-1B4B3C9F3E2E}</x14:id>
+          <x14:id>{8CAA0415-339E-364B-9A8F-B3D0EA11C2F0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -15001,6 +15959,136 @@
           </x14:cfRule>
           <xm:sqref>J111:J134</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3352E625-8B98-C849-88B3-EC81F6C52030}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K39:K62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8145D9C3-D9AF-BA46-8E44-3E3DA7FE91CC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K15:K38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EF43FA73-5BB8-7845-A75F-BA8E5FA154B7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K63:K86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1FC11F4E-483A-CB42-B20B-A7F449C42165}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K87:K110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FB7FF9BA-B5D0-3A4C-8A8F-BDDA3DCC5BE3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K111:K134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A60C8AA-64C8-C348-8D18-2E9396BC7EC2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L39:L62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{15660C04-8F81-EF46-B983-CE5E214EE818}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L15:L38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{598912D3-8504-1A42-B0EE-98B83D297208}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L63:L86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3C42A59-7BF7-1B40-B8BE-1D1E24DE01B4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L87:L110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8CAA0415-339E-364B-9A8F-B3D0EA11C2F0}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L111:L134</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5BCA7-E71A-454A-88D7-033035020989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6F166-ED2B-6F49-9616-8904BF6D1357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
   <si>
     <t>ESP</t>
   </si>
@@ -429,6 +429,16 @@
 AS140</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Case640
+miyata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case640
+AS140</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -696,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,6 +942,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1333,26 +1349,26 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="96" t="s">
+      <c r="P2" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="94" t="s">
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10490,10 +10506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:N135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10501,11 +10517,11 @@
     <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5" max="12" width="10.28515625" style="3" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="3"/>
+    <col min="5" max="14" width="10.28515625" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -10520,8 +10536,10 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="26" customHeight="1">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="26" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -10534,12 +10552,14 @@
       <c r="J2" s="85"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="92" t="s">
+      <c r="M2" s="93"/>
+      <c r="N2" s="92"/>
+    </row>
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
+      <c r="A3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="93"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10570,8 +10590,14 @@
       <c r="L3" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
+      <c r="M3" s="87" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -10606,8 +10632,14 @@
       <c r="L4" s="53">
         <v>4.8949042402478797</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="M4" s="53">
+        <v>2.69479193411944</v>
+      </c>
+      <c r="N4" s="53">
+        <v>2.6960040066298601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
@@ -10642,8 +10674,14 @@
       <c r="L5" s="56">
         <v>2.7844979813214299</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="M5" s="56">
+        <v>6.4599231024670498</v>
+      </c>
+      <c r="N5" s="56">
+        <v>6.4620399697199096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>43</v>
       </c>
@@ -10678,8 +10716,14 @@
       <c r="L6" s="59">
         <v>3.7209567789373201</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="M6" s="59">
+        <v>6.3682125817112896</v>
+      </c>
+      <c r="N6" s="59">
+        <v>6.3683027397084899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>44</v>
       </c>
@@ -10714,8 +10758,14 @@
       <c r="L7" s="61">
         <v>3.3789172413259898</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M7" s="61">
+        <v>6.5043048485274202</v>
+      </c>
+      <c r="N7" s="61">
+        <v>6.5060890364122699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
@@ -10750,8 +10800,14 @@
       <c r="L8" s="63">
         <v>432.13421939075698</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="N8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
@@ -10786,8 +10842,14 @@
       <c r="L9" s="65">
         <v>910.43872593476601</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+      <c r="N9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
@@ -10822,8 +10884,14 @@
       <c r="L10" s="65">
         <v>799.61166970442298</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+      <c r="N10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>46</v>
       </c>
@@ -10858,8 +10926,14 @@
       <c r="L11" s="65">
         <v>1544.9788966738599</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="N11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -10894,8 +10968,14 @@
       <c r="L12" s="65">
         <v>1840.06074216252</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="M12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="N12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>48</v>
       </c>
@@ -10930,8 +11010,14 @@
       <c r="L13" s="66">
         <v>523.65166257035105</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="M13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+      <c r="N13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A14" s="43" t="s">
         <v>20</v>
       </c>
@@ -10966,8 +11052,14 @@
       <c r="L14" s="68">
         <v>0.33893774452046199</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="22" customHeight="1">
+      <c r="M14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+      <c r="N14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="22" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -11004,8 +11096,14 @@
       <c r="L15" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="22" customHeight="1">
+      <c r="M15" s="70">
+        <v>0</v>
+      </c>
+      <c r="N15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="22" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -11036,8 +11134,14 @@
       <c r="L16" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="22" customHeight="1">
+      <c r="M16" s="72">
+        <v>0</v>
+      </c>
+      <c r="N16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="22" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
@@ -11068,8 +11172,14 @@
       <c r="L17" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="22" customHeight="1">
+      <c r="M17" s="72">
+        <v>0</v>
+      </c>
+      <c r="N17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="22" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -11100,8 +11210,14 @@
       <c r="L18" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="22" customHeight="1">
+      <c r="M18" s="72">
+        <v>0</v>
+      </c>
+      <c r="N18" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="22" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -11132,8 +11248,14 @@
       <c r="L19" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="22" customHeight="1">
+      <c r="M19" s="72">
+        <v>0</v>
+      </c>
+      <c r="N19" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="22" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
@@ -11164,8 +11286,14 @@
       <c r="L20" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="22" customHeight="1">
+      <c r="M20" s="72">
+        <v>0</v>
+      </c>
+      <c r="N20" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="22" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
@@ -11196,8 +11324,14 @@
       <c r="L21" s="72">
         <v>4.1392058833219298</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="22" customHeight="1">
+      <c r="M21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="N21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="22" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
@@ -11228,8 +11362,14 @@
       <c r="L22" s="72">
         <v>19.906615707371799</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="22" customHeight="1">
+      <c r="M22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+      <c r="N22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="22" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
@@ -11260,8 +11400,14 @@
       <c r="L23" s="72">
         <v>35.4789194339197</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="22" customHeight="1">
+      <c r="M23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+      <c r="N23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="22" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -11292,8 +11438,14 @@
       <c r="L24" s="72">
         <v>48.983743617066096</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="23" customHeight="1">
+      <c r="M24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="N24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="23" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
@@ -11324,8 +11476,14 @@
       <c r="L25" s="72">
         <v>58.449624348728598</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="22" customHeight="1">
+      <c r="M25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="N25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="22" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -11356,8 +11514,14 @@
       <c r="L26" s="72">
         <v>63.727583713799</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="22" customHeight="1">
+      <c r="M26" s="72">
+        <v>63.727583713799</v>
+      </c>
+      <c r="N26" s="72">
+        <v>63.727583713799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="22" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
@@ -11388,8 +11552,14 @@
       <c r="L27" s="72">
         <v>63.469189819430298</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="22" customHeight="1">
+      <c r="M27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+      <c r="N27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="22" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
@@ -11420,8 +11590,14 @@
       <c r="L28" s="72">
         <v>57.163889629705899</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="22" customHeight="1">
+      <c r="M28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="N28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="22" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
@@ -11452,8 +11628,14 @@
       <c r="L29" s="72">
         <v>46.140358781121201</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="22" customHeight="1">
+      <c r="M29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="N29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="22" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
@@ -11484,8 +11666,14 @@
       <c r="L30" s="72">
         <v>31.726053230763501</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="22" customHeight="1">
+      <c r="M30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="N30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="22" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
@@ -11516,8 +11704,14 @@
       <c r="L31" s="72">
         <v>15.642315521327401</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="22" customHeight="1">
+      <c r="M31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+      <c r="N31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="22" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9"/>
@@ -11548,8 +11742,14 @@
       <c r="L32" s="72">
         <v>2.6701979412288002</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="22" customHeight="1">
+      <c r="M32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="N32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="22" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
@@ -11580,8 +11780,14 @@
       <c r="L33" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="22" customHeight="1">
+      <c r="M33" s="72">
+        <v>0</v>
+      </c>
+      <c r="N33" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="22" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -11612,8 +11818,14 @@
       <c r="L34" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="22" customHeight="1">
+      <c r="M34" s="72">
+        <v>0</v>
+      </c>
+      <c r="N34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="22" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
@@ -11644,8 +11856,14 @@
       <c r="L35" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="22" customHeight="1">
+      <c r="M35" s="72">
+        <v>0</v>
+      </c>
+      <c r="N35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="22" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9"/>
@@ -11676,8 +11894,14 @@
       <c r="L36" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="22" customHeight="1">
+      <c r="M36" s="72">
+        <v>0</v>
+      </c>
+      <c r="N36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="22" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9"/>
@@ -11708,8 +11932,14 @@
       <c r="L37" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="22" customHeight="1" thickBot="1">
+      <c r="M37" s="72">
+        <v>0</v>
+      </c>
+      <c r="N37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="22" customHeight="1" thickBot="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -11740,8 +11970,14 @@
       <c r="L38" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="22" customHeight="1">
+      <c r="M38" s="74">
+        <v>0</v>
+      </c>
+      <c r="N38" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="22" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>49</v>
       </c>
@@ -11778,8 +12014,14 @@
       <c r="L39" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="22" customHeight="1">
+      <c r="M39" s="76">
+        <v>0</v>
+      </c>
+      <c r="N39" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="22" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="9"/>
@@ -11810,8 +12052,14 @@
       <c r="L40" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="22" customHeight="1">
+      <c r="M40" s="72">
+        <v>0</v>
+      </c>
+      <c r="N40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="22" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
@@ -11842,8 +12090,14 @@
       <c r="L41" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="22" customHeight="1">
+      <c r="M41" s="72">
+        <v>0</v>
+      </c>
+      <c r="N41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="22" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -11874,8 +12128,14 @@
       <c r="L42" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="22" customHeight="1">
+      <c r="M42" s="72">
+        <v>0</v>
+      </c>
+      <c r="N42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="22" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
@@ -11906,8 +12166,14 @@
       <c r="L43" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="22" customHeight="1">
+      <c r="M43" s="72">
+        <v>0</v>
+      </c>
+      <c r="N43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="22" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
@@ -11938,8 +12204,14 @@
       <c r="L44" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="22" customHeight="1">
+      <c r="M44" s="72">
+        <v>0</v>
+      </c>
+      <c r="N44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="22" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9"/>
@@ -11970,8 +12242,14 @@
       <c r="L45" s="72">
         <v>3.1259551940957202</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="22" customHeight="1">
+      <c r="M45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+      <c r="N45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="22" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9"/>
@@ -12002,8 +12280,14 @@
       <c r="L46" s="72">
         <v>14.895217858649801</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="22" customHeight="1">
+      <c r="M46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+      <c r="N46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="22" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9"/>
@@ -12034,8 +12318,14 @@
       <c r="L47" s="72">
         <v>26.364499773539901</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="22" customHeight="1">
+      <c r="M47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+      <c r="N47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="22" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9"/>
@@ -12066,8 +12356,14 @@
       <c r="L48" s="72">
         <v>36.451913729418997</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="22" customHeight="1">
+      <c r="M48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+      <c r="N48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="22" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
@@ -12098,8 +12394,14 @@
       <c r="L49" s="72">
         <v>43.423557533228099</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="22" customHeight="1">
+      <c r="M49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+      <c r="N49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="22" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -12130,8 +12432,14 @@
       <c r="L50" s="72">
         <v>46.757811075942698</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="22" customHeight="1">
+      <c r="M50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+      <c r="N50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="22" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
@@ -12162,8 +12470,14 @@
       <c r="L51" s="72">
         <v>46.737974367985899</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="22" customHeight="1">
+      <c r="M51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+      <c r="N51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="22" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9"/>
@@ -12194,8 +12508,14 @@
       <c r="L52" s="72">
         <v>42.664273327307001</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="22" customHeight="1">
+      <c r="M52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+      <c r="N52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="22" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="9"/>
@@ -12226,8 +12546,14 @@
       <c r="L53" s="72">
         <v>34.982027486632902</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="22" customHeight="1">
+      <c r="M53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+      <c r="N53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="22" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="9"/>
@@ -12258,8 +12584,14 @@
       <c r="L54" s="72">
         <v>24.500357327485698</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="22" customHeight="1">
+      <c r="M54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+      <c r="N54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="22" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="9"/>
@@ -12290,8 +12622,14 @@
       <c r="L55" s="72">
         <v>12.3283811267874</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="22" customHeight="1">
+      <c r="M55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+      <c r="N55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="22" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="9"/>
@@ -12322,8 +12660,14 @@
       <c r="L56" s="72">
         <v>2.07814620903499</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="22" customHeight="1">
+      <c r="M56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+      <c r="N56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="22" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
@@ -12354,8 +12698,14 @@
       <c r="L57" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="22" customHeight="1">
+      <c r="M57" s="72">
+        <v>0</v>
+      </c>
+      <c r="N57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="22" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -12386,8 +12736,14 @@
       <c r="L58" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="22" customHeight="1">
+      <c r="M58" s="72">
+        <v>0</v>
+      </c>
+      <c r="N58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="22" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
@@ -12418,8 +12774,14 @@
       <c r="L59" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="22" customHeight="1">
+      <c r="M59" s="72">
+        <v>0</v>
+      </c>
+      <c r="N59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="22" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="9"/>
@@ -12450,8 +12812,14 @@
       <c r="L60" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" ht="22" customHeight="1">
+      <c r="M60" s="72">
+        <v>0</v>
+      </c>
+      <c r="N60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="22" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
@@ -12482,8 +12850,14 @@
       <c r="L61" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="22" customHeight="1" thickBot="1">
+      <c r="M61" s="72">
+        <v>0</v>
+      </c>
+      <c r="N61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="22" customHeight="1" thickBot="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="9"/>
@@ -12514,8 +12888,14 @@
       <c r="L62" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="22" customHeight="1">
+      <c r="M62" s="78">
+        <v>0</v>
+      </c>
+      <c r="N62" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="22" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>51</v>
       </c>
@@ -12552,8 +12932,14 @@
       <c r="L63" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="22" customHeight="1">
+      <c r="M63" s="70">
+        <v>0</v>
+      </c>
+      <c r="N63" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="22" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9"/>
@@ -12584,8 +12970,14 @@
       <c r="L64" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="22" customHeight="1">
+      <c r="M64" s="72">
+        <v>0</v>
+      </c>
+      <c r="N64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="22" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
@@ -12616,8 +13008,14 @@
       <c r="L65" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="22" customHeight="1">
+      <c r="M65" s="72">
+        <v>0</v>
+      </c>
+      <c r="N65" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="22" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
@@ -12648,8 +13046,14 @@
       <c r="L66" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="22" customHeight="1">
+      <c r="M66" s="72">
+        <v>0</v>
+      </c>
+      <c r="N66" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="22" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
@@ -12680,8 +13084,14 @@
       <c r="L67" s="72">
         <v>2.8637133784777098</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="22" customHeight="1">
+      <c r="M67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="N67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="22" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
@@ -12712,8 +13122,14 @@
       <c r="L68" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="22" customHeight="1">
+      <c r="M68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="N68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="22" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
@@ -12744,8 +13160,14 @@
       <c r="L69" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="22" customHeight="1">
+      <c r="M69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="N69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="22" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
@@ -12776,8 +13198,14 @@
       <c r="L70" s="72">
         <v>136.13844946706701</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="22" customHeight="1">
+      <c r="M70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+      <c r="N70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="22" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
@@ -12808,8 +13236,14 @@
       <c r="L71" s="72">
         <v>256.058048053954</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="22" customHeight="1">
+      <c r="M71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="N71" s="72">
+        <v>256.058048053954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="22" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
@@ -12840,8 +13274,14 @@
       <c r="L72" s="72">
         <v>377.09238254086802</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="22" customHeight="1">
+      <c r="M72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="N72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="22" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
@@ -12872,8 +13312,14 @@
       <c r="L73" s="72">
         <v>449.95552662570299</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="22" customHeight="1">
+      <c r="M73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="N73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="22" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
@@ -12904,8 +13350,14 @@
       <c r="L74" s="72">
         <v>468.97003171270302</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="22" customHeight="1">
+      <c r="M74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="N74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="22" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="9"/>
@@ -12936,8 +13388,14 @@
       <c r="L75" s="72">
         <v>458.46522359386699</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="22" customHeight="1">
+      <c r="M75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+      <c r="N75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="22" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
@@ -12968,8 +13426,14 @@
       <c r="L76" s="72">
         <v>395.77516323430098</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="22" customHeight="1">
+      <c r="M76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="N76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="22" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="9"/>
@@ -13000,8 +13464,14 @@
       <c r="L77" s="72">
         <v>298.27754053509602</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="22" customHeight="1">
+      <c r="M77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+      <c r="N77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="22" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
@@ -13032,8 +13502,14 @@
       <c r="L78" s="72">
         <v>170.259190480049</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="22" customHeight="1">
+      <c r="M78" s="72">
+        <v>170.259190480049</v>
+      </c>
+      <c r="N78" s="72">
+        <v>170.259190480049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="22" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="9"/>
@@ -13064,8 +13540,14 @@
       <c r="L79" s="72">
         <v>80.3704132013644</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="22" customHeight="1">
+      <c r="M79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+      <c r="N79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="22" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
@@ -13096,8 +13578,14 @@
       <c r="L80" s="72">
         <v>52.3869711625888</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="22" customHeight="1">
+      <c r="M80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="N80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="22" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
@@ -13128,8 +13616,14 @@
       <c r="L81" s="72">
         <v>15.185447700664</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="22" customHeight="1">
+      <c r="M81" s="72">
+        <v>15.185447700664</v>
+      </c>
+      <c r="N81" s="72">
+        <v>15.185447700664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="22" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="9"/>
@@ -13160,8 +13654,14 @@
       <c r="L82" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="22" customHeight="1">
+      <c r="M82" s="72">
+        <v>0</v>
+      </c>
+      <c r="N82" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="22" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="9"/>
@@ -13192,8 +13692,14 @@
       <c r="L83" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="22" customHeight="1">
+      <c r="M83" s="72">
+        <v>0</v>
+      </c>
+      <c r="N83" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="22" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="9"/>
@@ -13224,8 +13730,14 @@
       <c r="L84" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="22" customHeight="1">
+      <c r="M84" s="72">
+        <v>0</v>
+      </c>
+      <c r="N84" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="22" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
@@ -13256,8 +13768,14 @@
       <c r="L85" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="22" customHeight="1" thickBot="1">
+      <c r="M85" s="72">
+        <v>0</v>
+      </c>
+      <c r="N85" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="22" customHeight="1" thickBot="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
@@ -13288,8 +13806,14 @@
       <c r="L86" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="22" customHeight="1">
+      <c r="M86" s="74">
+        <v>0</v>
+      </c>
+      <c r="N86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="22" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>52</v>
       </c>
@@ -13326,8 +13850,14 @@
       <c r="L87" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="22" customHeight="1">
+      <c r="M87" s="76">
+        <v>0</v>
+      </c>
+      <c r="N87" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="22" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="9"/>
@@ -13358,8 +13888,14 @@
       <c r="L88" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" ht="22" customHeight="1">
+      <c r="M88" s="72">
+        <v>0</v>
+      </c>
+      <c r="N88" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="22" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
@@ -13390,8 +13926,14 @@
       <c r="L89" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="22" customHeight="1">
+      <c r="M89" s="72">
+        <v>0</v>
+      </c>
+      <c r="N89" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="22" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
@@ -13422,8 +13964,14 @@
       <c r="L90" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="22" customHeight="1">
+      <c r="M90" s="72">
+        <v>0</v>
+      </c>
+      <c r="N90" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="22" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
@@ -13454,8 +14002,14 @@
       <c r="L91" s="72">
         <v>2.2146451238568199</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="22" customHeight="1">
+      <c r="M91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="N91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="22" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
@@ -13486,8 +14040,14 @@
       <c r="L92" s="72">
         <v>27.679235917198</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="22" customHeight="1">
+      <c r="M92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="N92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="22" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
@@ -13518,8 +14078,14 @@
       <c r="L93" s="72">
         <v>72.221823826417193</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="22" customHeight="1">
+      <c r="M93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="N93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="22" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="9"/>
@@ -13550,8 +14116,14 @@
       <c r="L94" s="72">
         <v>106.995432710435</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="22" customHeight="1">
+      <c r="M94" s="72">
+        <v>128.822928421532</v>
+      </c>
+      <c r="N94" s="72">
+        <v>128.822928421532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="22" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
@@ -13582,8 +14154,14 @@
       <c r="L95" s="72">
         <v>125.279876553234</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" ht="22" customHeight="1">
+      <c r="M95" s="72">
+        <v>146.384406923434</v>
+      </c>
+      <c r="N95" s="72">
+        <v>146.384406923434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="22" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="9"/>
@@ -13614,8 +14192,14 @@
       <c r="L96" s="72">
         <v>134.02810130371901</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" ht="22" customHeight="1">
+      <c r="M96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+      <c r="N96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="22" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="9"/>
@@ -13646,8 +14230,14 @@
       <c r="L97" s="72">
         <v>134.111124991032</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="22" customHeight="1">
+      <c r="M97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+      <c r="N97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="22" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
@@ -13678,8 +14268,14 @@
       <c r="L98" s="72">
         <v>129.229092416101</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="22" customHeight="1">
+      <c r="M98" s="72">
+        <v>142.658018842411</v>
+      </c>
+      <c r="N98" s="72">
+        <v>142.658018842411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="22" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
@@ -13710,8 +14306,14 @@
       <c r="L99" s="72">
         <v>204.509082776719</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="22" customHeight="1">
+      <c r="M99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+      <c r="N99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="22" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
@@ -13742,8 +14344,14 @@
       <c r="L100" s="72">
         <v>348.54928124913999</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="22" customHeight="1">
+      <c r="M100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+      <c r="N100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="22" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="9"/>
@@ -13774,8 +14382,14 @@
       <c r="L101" s="72">
         <v>490.25650935483202</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="22" customHeight="1">
+      <c r="M101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+      <c r="N101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="22" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
@@ -13806,8 +14420,14 @@
       <c r="L102" s="72">
         <v>553.50680874065097</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="22" customHeight="1">
+      <c r="M102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+      <c r="N102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="22" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
@@ -13838,8 +14458,14 @@
       <c r="L103" s="72">
         <v>430.34964128544198</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="22" customHeight="1">
+      <c r="M103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+      <c r="N103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="22" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
@@ -13870,8 +14496,14 @@
       <c r="L104" s="72">
         <v>134.64560455287199</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="22" customHeight="1">
+      <c r="M104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+      <c r="N104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="22" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
@@ -13902,8 +14534,14 @@
       <c r="L105" s="72">
         <v>21.5638368813336</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" ht="22" customHeight="1">
+      <c r="M105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+      <c r="N105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="22" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
@@ -13934,8 +14572,14 @@
       <c r="L106" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" ht="22" customHeight="1">
+      <c r="M106" s="72">
+        <v>0</v>
+      </c>
+      <c r="N106" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="22" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="9"/>
@@ -13966,8 +14610,14 @@
       <c r="L107" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" ht="22" customHeight="1">
+      <c r="M107" s="72">
+        <v>0</v>
+      </c>
+      <c r="N107" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="22" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
@@ -13998,8 +14648,14 @@
       <c r="L108" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" ht="22" customHeight="1">
+      <c r="M108" s="72">
+        <v>0</v>
+      </c>
+      <c r="N108" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="22" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
@@ -14030,8 +14686,14 @@
       <c r="L109" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" ht="22" customHeight="1" thickBot="1">
+      <c r="M109" s="72">
+        <v>0</v>
+      </c>
+      <c r="N109" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="22" customHeight="1" thickBot="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
@@ -14062,8 +14724,14 @@
       <c r="L110" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" ht="22" customHeight="1">
+      <c r="M110" s="78">
+        <v>0</v>
+      </c>
+      <c r="N110" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="22" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>27</v>
       </c>
@@ -14100,8 +14768,14 @@
       <c r="L111" s="80">
         <v>3.5717500484957201</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" ht="22" customHeight="1">
+      <c r="M111" s="80">
+        <v>1.42930590836108</v>
+      </c>
+      <c r="N111" s="80">
+        <v>1.42980827056293</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="22" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="9"/>
@@ -14132,8 +14806,14 @@
       <c r="L112" s="82">
         <v>3.6737213335760499</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" ht="22" customHeight="1">
+      <c r="M112" s="82">
+        <v>2.1158905782193602</v>
+      </c>
+      <c r="N112" s="82">
+        <v>2.1166171308218602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="22" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="9"/>
@@ -14164,8 +14844,14 @@
       <c r="L113" s="82">
         <v>3.7056604001062601</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" ht="22" customHeight="1">
+      <c r="M113" s="82">
+        <v>2.45392121850178</v>
+      </c>
+      <c r="N113" s="82">
+        <v>2.4546912506710798</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="22" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
@@ -14196,8 +14882,14 @@
       <c r="L114" s="82">
         <v>3.7153561004473699</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" ht="22" customHeight="1">
+      <c r="M114" s="82">
+        <v>2.6175589799910601</v>
+      </c>
+      <c r="N114" s="82">
+        <v>2.61820236670474</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="22" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
@@ -14228,8 +14920,14 @@
       <c r="L115" s="82">
         <v>3.7198703329627101</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" ht="22" customHeight="1">
+      <c r="M115" s="82">
+        <v>2.7055252082601902</v>
+      </c>
+      <c r="N115" s="82">
+        <v>2.7059989103891802</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="22" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
@@ -14260,8 +14958,14 @@
       <c r="L116" s="82">
         <v>3.71510016738188</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" ht="22" customHeight="1">
+      <c r="M116" s="82">
+        <v>2.7458841631895301</v>
+      </c>
+      <c r="N116" s="82">
+        <v>2.7462089718105802</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="22" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
@@ -14292,8 +14996,14 @@
       <c r="L117" s="82">
         <v>3.7209567789373201</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" ht="22" customHeight="1">
+      <c r="M117" s="82">
+        <v>2.7717167207012698</v>
+      </c>
+      <c r="N117" s="82">
+        <v>2.7719284157476198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="22" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
@@ -14324,8 +15034,14 @@
       <c r="L118" s="82">
         <v>3.5754215949598498</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" ht="22" customHeight="1">
+      <c r="M118" s="82">
+        <v>6.3682125817112896</v>
+      </c>
+      <c r="N118" s="82">
+        <v>6.3683027397084899</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="22" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
@@ -14356,8 +15072,14 @@
       <c r="L119" s="82">
         <v>2.8004583316909302</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" ht="22" customHeight="1">
+      <c r="M119" s="82">
+        <v>3.1164568856300101</v>
+      </c>
+      <c r="N119" s="82">
+        <v>3.1158627994719899</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="22" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
@@ -14388,8 +15110,14 @@
       <c r="L120" s="82">
         <v>2.2363063759294799</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" ht="22" customHeight="1">
+      <c r="M120" s="82">
+        <v>1.01999900080304</v>
+      </c>
+      <c r="N120" s="82">
+        <v>1.0191255644430599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="22" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="9"/>
@@ -14420,8 +15148,14 @@
       <c r="L121" s="82">
         <v>1.97622641516333</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" ht="22" customHeight="1">
+      <c r="M121" s="82">
+        <v>-1.62630885183743E-2</v>
+      </c>
+      <c r="N121" s="82">
+        <v>-1.6887888191306901E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="22" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="9"/>
@@ -14452,8 +15186,14 @@
       <c r="L122" s="82">
         <v>1.8760421907793601</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" ht="22" customHeight="1">
+      <c r="M122" s="82">
+        <v>-1.6578944482804101</v>
+      </c>
+      <c r="N122" s="82">
+        <v>-1.6620686753995699</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="22" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="9"/>
@@ -14484,8 +15224,14 @@
       <c r="L123" s="82">
         <v>1.8734255671584299</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" ht="22" customHeight="1">
+      <c r="M123" s="82">
+        <v>-3.2283724081935898</v>
+      </c>
+      <c r="N123" s="82">
+        <v>-3.23178694197225</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="22" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="9"/>
@@ -14516,8 +15262,14 @@
       <c r="L124" s="82">
         <v>1.77595778955735</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" ht="22" customHeight="1">
+      <c r="M124" s="82">
+        <v>-3.5665230520081601</v>
+      </c>
+      <c r="N124" s="82">
+        <v>-3.5684894496470698</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="22" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="9"/>
@@ -14548,8 +15300,14 @@
       <c r="L125" s="82">
         <v>1.5049099185312</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" ht="22" customHeight="1">
+      <c r="M125" s="82">
+        <v>-2.9437148386929399</v>
+      </c>
+      <c r="N125" s="82">
+        <v>-2.9443721191211498</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="22" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="9"/>
@@ -14580,8 +15338,14 @@
       <c r="L126" s="82">
         <v>1.34762876905024</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" ht="22" customHeight="1">
+      <c r="M126" s="82">
+        <v>-1.46538199220809</v>
+      </c>
+      <c r="N126" s="82">
+        <v>-1.4650725129792299</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="22" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="9"/>
@@ -14612,8 +15376,14 @@
       <c r="L127" s="82">
         <v>1.8495211096817801</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" ht="22" customHeight="1">
+      <c r="M127" s="82">
+        <v>-1.9558493400134401E-2</v>
+      </c>
+      <c r="N127" s="82">
+        <v>-1.9374538483483701E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="22" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="9"/>
@@ -14644,8 +15414,14 @@
       <c r="L128" s="82">
         <v>2.6485536793672102</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" ht="22" customHeight="1">
+      <c r="M128" s="82">
+        <v>0.42497378278728898</v>
+      </c>
+      <c r="N128" s="82">
+        <v>0.42611545089313202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="22" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="9"/>
@@ -14676,8 +15452,14 @@
       <c r="L129" s="82">
         <v>3.0536014838599299</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" ht="22" customHeight="1">
+      <c r="M129" s="82">
+        <v>1.82947709615613</v>
+      </c>
+      <c r="N129" s="82">
+        <v>1.8312577070249301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="22" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9"/>
@@ -14708,8 +15490,14 @@
       <c r="L130" s="82">
         <v>3.2105987688672899</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" ht="22" customHeight="1">
+      <c r="M130" s="82">
+        <v>2.5717038152844802</v>
+      </c>
+      <c r="N130" s="82">
+        <v>2.5733552649387699</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="22" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9"/>
@@ -14740,8 +15528,14 @@
       <c r="L131" s="82">
         <v>3.2985854072403602</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" ht="22" customHeight="1">
+      <c r="M131" s="82">
+        <v>2.9769761754494199</v>
+      </c>
+      <c r="N131" s="82">
+        <v>2.9783615235030201</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="22" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9"/>
@@ -14772,8 +15566,14 @@
       <c r="L132" s="82">
         <v>3.34137023977561</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" ht="22" customHeight="1">
+      <c r="M132" s="82">
+        <v>3.18824186591509</v>
+      </c>
+      <c r="N132" s="82">
+        <v>3.1892508319538302</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="22" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9"/>
@@ -14804,8 +15604,14 @@
       <c r="L133" s="82">
         <v>3.31313976786257</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" ht="22" customHeight="1">
+      <c r="M133" s="82">
+        <v>3.24646945723401</v>
+      </c>
+      <c r="N133" s="82">
+        <v>3.2471473011649001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="22" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="9"/>
@@ -14836,8 +15642,14 @@
       <c r="L134" s="88">
         <v>3.28654531354784</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="88">
+        <v>0.154899555377254</v>
+      </c>
+      <c r="N134" s="88">
+        <v>0.155108052067924</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
       <c r="A135" s="39" t="s">
         <v>48</v>
       </c>
@@ -14864,6 +15676,8 @@
       <c r="L135" s="89">
         <v>487.49206742675</v>
       </c>
+      <c r="M135" s="89"/>
+      <c r="N135" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14871,7 +15685,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G39:G62">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14885,7 +15699,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G38">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14899,7 +15713,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G86">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14913,7 +15727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G110">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14927,7 +15741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G134">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14941,7 +15755,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H62">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14955,7 +15769,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H38">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14969,7 +15783,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H86">
-    <cfRule type="dataBar" priority="64">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14983,7 +15797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H110">
-    <cfRule type="dataBar" priority="66">
+    <cfRule type="dataBar" priority="76">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -14997,7 +15811,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H134">
-    <cfRule type="dataBar" priority="68">
+    <cfRule type="dataBar" priority="78">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15011,7 +15825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F62">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15025,7 +15839,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F38">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15039,7 +15853,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F86">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15053,7 +15867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:F110">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15067,7 +15881,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F134">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15081,7 +15895,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15095,7 +15909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15109,7 +15923,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15123,7 +15937,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15137,7 +15951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15151,7 +15965,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15165,7 +15979,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15179,7 +15993,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15193,7 +16007,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15207,7 +16021,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15221,7 +16035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I62">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15235,7 +16049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I38">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15249,7 +16063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I86">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15263,7 +16077,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:I110">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15277,7 +16091,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I134">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15291,7 +16105,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J62">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15305,7 +16119,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J38">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15319,7 +16133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J86">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15333,7 +16147,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:J110">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15347,7 +16161,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J134">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15361,7 +16175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K62">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15375,7 +16189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K38">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15389,7 +16203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K86">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15403,7 +16217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:K110">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15417,7 +16231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K111:K134">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15431,7 +16245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L62">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15445,7 +16259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L38">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15459,7 +16273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:L86">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15473,7 +16287,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:L110">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15487,6 +16301,146 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L111:L134">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8CAA0415-339E-364B-9A8F-B3D0EA11C2F0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39:M62">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BD2E3BA6-2E49-A842-9813-C3BC02D4A544}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15:M38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{72600796-D32D-EC4B-BC9E-B074F194095F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M63:M86">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5F02DB0A-976E-434A-8105-BB7FBD3DB0C3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M87:M110">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3367FB97-5678-7D4E-9AC2-4872FD0B9F85}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M111:M134">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{47025641-D67D-CB42-AE38-1DB257CE8C7D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39:N62">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E4CECAE6-CFE8-8548-B54C-FB78B23ECDF7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N38">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{415B00F8-AC73-E440-AC2C-E21A37C91C79}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63:N86">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1383808C-D4B8-F245-92AE-CB6C6AAEBF53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87:N110">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9146CF8D-4577-FB4F-8765-897D0C2BC589}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N111:N134">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -15495,7 +16449,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8CAA0415-339E-364B-9A8F-B3D0EA11C2F0}</x14:id>
+          <x14:id>{70AAB0C2-F254-8943-A1D5-EFE7B7DBF0FA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -16089,6 +17043,136 @@
           </x14:cfRule>
           <xm:sqref>L111:L134</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BD2E3BA6-2E49-A842-9813-C3BC02D4A544}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M39:M62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{72600796-D32D-EC4B-BC9E-B074F194095F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M15:M38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5F02DB0A-976E-434A-8105-BB7FBD3DB0C3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M63:M86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3367FB97-5678-7D4E-9AC2-4872FD0B9F85}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M87:M110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{47025641-D67D-CB42-AE38-1DB257CE8C7D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M111:M134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E4CECAE6-CFE8-8548-B54C-FB78B23ECDF7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N39:N62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{415B00F8-AC73-E440-AC2C-E21A37C91C79}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N15:N38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1383808C-D4B8-F245-92AE-CB6C6AAEBF53}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N63:N86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9146CF8D-4577-FB4F-8765-897D0C2BC589}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N87:N110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{70AAB0C2-F254-8943-A1D5-EFE7B7DBF0FA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N111:N134</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D6F166-ED2B-6F49-9616-8904BF6D1357}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02192E-A16C-4942-9470-C704BF6852E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t>ESP</t>
   </si>
@@ -439,6 +439,16 @@
 AS140</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Case650
+miyata</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case650
+AS140</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -706,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -942,6 +952,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,26 +1365,26 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="98" t="s">
+      <c r="P2" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="96" t="s">
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
-      <c r="Y2" s="97"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="99"/>
+      <c r="X2" s="99"/>
+      <c r="Y2" s="99"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10506,10 +10522,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
-  <dimension ref="A1:N135"/>
+  <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10517,11 +10533,11 @@
     <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5" max="14" width="10.28515625" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="3"/>
+    <col min="5" max="16" width="10.28515625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30">
+    <row r="1" spans="1:16" ht="30">
       <c r="A1" s="1" t="s">
         <v>70</v>
       </c>
@@ -10538,8 +10554,10 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="26" customHeight="1">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="26" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="5"/>
@@ -10554,12 +10572,14 @@
       <c r="L2" s="90"/>
       <c r="M2" s="93"/>
       <c r="N2" s="92"/>
-    </row>
-    <row r="3" spans="1:14" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="94" t="s">
+      <c r="O2" s="95"/>
+      <c r="P2" s="94"/>
+    </row>
+    <row r="3" spans="1:16" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
+      <c r="A3" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10596,8 +10616,14 @@
       <c r="N3" s="15" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
+      <c r="O3" s="87" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -10638,8 +10664,14 @@
       <c r="N4" s="53">
         <v>2.6960040066298601</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="O4" s="53">
+        <v>0</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="32" t="s">
         <v>42</v>
       </c>
@@ -10680,8 +10712,14 @@
       <c r="N5" s="56">
         <v>6.4620399697199096</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="O5" s="56">
+        <v>5.30352261567832</v>
+      </c>
+      <c r="P5" s="56">
+        <v>5.3066173992352903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="31" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="46" t="s">
         <v>43</v>
       </c>
@@ -10722,8 +10760,14 @@
       <c r="N6" s="59">
         <v>6.3683027397084899</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="O6" s="59">
+        <v>0</v>
+      </c>
+      <c r="P6" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A7" s="34" t="s">
         <v>44</v>
       </c>
@@ -10764,8 +10808,14 @@
       <c r="N7" s="61">
         <v>6.5060890364122699</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O7" s="61">
+        <v>6.3742316819802403</v>
+      </c>
+      <c r="P7" s="61">
+        <v>6.3754132073976502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>45</v>
       </c>
@@ -10806,8 +10856,14 @@
       <c r="N8" s="63">
         <v>432.13421939075698</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="P8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>12</v>
       </c>
@@ -10848,8 +10904,14 @@
       <c r="N9" s="65">
         <v>1179.2604523596699</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+      <c r="P9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>13</v>
       </c>
@@ -10890,8 +10952,14 @@
       <c r="N10" s="65">
         <v>1040.5181340796801</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+      <c r="P10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>46</v>
       </c>
@@ -10932,8 +11000,14 @@
       <c r="N11" s="65">
         <v>1544.9788966738599</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="P11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>47</v>
       </c>
@@ -10974,8 +11048,14 @@
       <c r="N12" s="65">
         <v>1840.06074216252</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="O12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="P12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>48</v>
       </c>
@@ -11016,8 +11096,14 @@
       <c r="N13" s="66">
         <v>980.36646390777798</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="O13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+      <c r="P13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
       <c r="A14" s="43" t="s">
         <v>20</v>
       </c>
@@ -11058,8 +11144,14 @@
       <c r="N14" s="68">
         <v>0.63455006797722602</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="22" customHeight="1">
+      <c r="O14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+      <c r="P14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1">
       <c r="A15" s="22" t="s">
         <v>23</v>
       </c>
@@ -11102,8 +11194,14 @@
       <c r="N15" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="22" customHeight="1">
+      <c r="O15" s="70">
+        <v>0</v>
+      </c>
+      <c r="P15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="16"/>
       <c r="C16" s="10"/>
@@ -11140,8 +11238,14 @@
       <c r="N16" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="22" customHeight="1">
+      <c r="O16" s="72">
+        <v>0</v>
+      </c>
+      <c r="P16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="22" customHeight="1">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="9"/>
@@ -11178,8 +11282,14 @@
       <c r="N17" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="22" customHeight="1">
+      <c r="O17" s="72">
+        <v>0</v>
+      </c>
+      <c r="P17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="22" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="9"/>
@@ -11216,8 +11326,14 @@
       <c r="N18" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="22" customHeight="1">
+      <c r="O18" s="72">
+        <v>0</v>
+      </c>
+      <c r="P18" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="22" customHeight="1">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="9"/>
@@ -11254,8 +11370,14 @@
       <c r="N19" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="22" customHeight="1">
+      <c r="O19" s="72">
+        <v>0</v>
+      </c>
+      <c r="P19" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="22" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="9"/>
@@ -11292,8 +11414,14 @@
       <c r="N20" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="22" customHeight="1">
+      <c r="O20" s="72">
+        <v>0</v>
+      </c>
+      <c r="P20" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="22" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="9"/>
@@ -11330,8 +11458,14 @@
       <c r="N21" s="72">
         <v>4.1392058833219298</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="22" customHeight="1">
+      <c r="O21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="P21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="22" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="9"/>
@@ -11368,8 +11502,14 @@
       <c r="N22" s="72">
         <v>19.906615707371799</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="22" customHeight="1">
+      <c r="O22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+      <c r="P22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="22" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="9"/>
@@ -11406,8 +11546,14 @@
       <c r="N23" s="72">
         <v>35.4789194339197</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="22" customHeight="1">
+      <c r="O23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+      <c r="P23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="22" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="9"/>
@@ -11444,8 +11590,14 @@
       <c r="N24" s="72">
         <v>48.983743617066096</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="23" customHeight="1">
+      <c r="O24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="P24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="23" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="9"/>
@@ -11482,8 +11634,14 @@
       <c r="N25" s="72">
         <v>58.449624348728598</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="22" customHeight="1">
+      <c r="O25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="P25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="22" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="9"/>
@@ -11520,8 +11678,14 @@
       <c r="N26" s="72">
         <v>63.727583713799</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="22" customHeight="1">
+      <c r="O26" s="72">
+        <v>63.727583713799</v>
+      </c>
+      <c r="P26" s="72">
+        <v>63.727583713799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="22" customHeight="1">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="9"/>
@@ -11558,8 +11722,14 @@
       <c r="N27" s="72">
         <v>63.469189819430298</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="22" customHeight="1">
+      <c r="O27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+      <c r="P27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="22" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="9"/>
@@ -11596,8 +11766,14 @@
       <c r="N28" s="72">
         <v>57.163889629705899</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="22" customHeight="1">
+      <c r="O28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="P28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="22" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="9"/>
@@ -11634,8 +11810,14 @@
       <c r="N29" s="72">
         <v>46.140358781121201</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="22" customHeight="1">
+      <c r="O29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="P29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="22" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9"/>
@@ -11672,8 +11854,14 @@
       <c r="N30" s="72">
         <v>31.726053230763501</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="22" customHeight="1">
+      <c r="O30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="P30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="22" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9"/>
@@ -11710,8 +11898,14 @@
       <c r="N31" s="72">
         <v>15.642315521327401</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="22" customHeight="1">
+      <c r="O31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+      <c r="P31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="22" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="9"/>
@@ -11748,8 +11942,14 @@
       <c r="N32" s="72">
         <v>2.6701979412288002</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="22" customHeight="1">
+      <c r="O32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="P32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="22" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="9"/>
@@ -11786,8 +11986,14 @@
       <c r="N33" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="22" customHeight="1">
+      <c r="O33" s="72">
+        <v>0</v>
+      </c>
+      <c r="P33" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="22" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="9"/>
@@ -11824,8 +12030,14 @@
       <c r="N34" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="22" customHeight="1">
+      <c r="O34" s="72">
+        <v>0</v>
+      </c>
+      <c r="P34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="22" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="9"/>
@@ -11862,8 +12074,14 @@
       <c r="N35" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="22" customHeight="1">
+      <c r="O35" s="72">
+        <v>0</v>
+      </c>
+      <c r="P35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="22" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="9"/>
@@ -11900,8 +12118,14 @@
       <c r="N36" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="22" customHeight="1">
+      <c r="O36" s="72">
+        <v>0</v>
+      </c>
+      <c r="P36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="22" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="9"/>
@@ -11938,8 +12162,14 @@
       <c r="N37" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="22" customHeight="1" thickBot="1">
+      <c r="O37" s="72">
+        <v>0</v>
+      </c>
+      <c r="P37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="22" customHeight="1" thickBot="1">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
@@ -11976,8 +12206,14 @@
       <c r="N38" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="22" customHeight="1">
+      <c r="O38" s="74">
+        <v>0</v>
+      </c>
+      <c r="P38" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="22" customHeight="1">
       <c r="A39" s="21" t="s">
         <v>49</v>
       </c>
@@ -12020,8 +12256,14 @@
       <c r="N39" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="22" customHeight="1">
+      <c r="O39" s="76">
+        <v>0</v>
+      </c>
+      <c r="P39" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="22" customHeight="1">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="9"/>
@@ -12058,8 +12300,14 @@
       <c r="N40" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="22" customHeight="1">
+      <c r="O40" s="72">
+        <v>0</v>
+      </c>
+      <c r="P40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="22" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="9"/>
@@ -12096,8 +12344,14 @@
       <c r="N41" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="22" customHeight="1">
+      <c r="O41" s="72">
+        <v>0</v>
+      </c>
+      <c r="P41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="22" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="9"/>
@@ -12134,8 +12388,14 @@
       <c r="N42" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="22" customHeight="1">
+      <c r="O42" s="72">
+        <v>0</v>
+      </c>
+      <c r="P42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="22" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="9"/>
@@ -12172,8 +12432,14 @@
       <c r="N43" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="22" customHeight="1">
+      <c r="O43" s="72">
+        <v>0</v>
+      </c>
+      <c r="P43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="22" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="9"/>
@@ -12210,8 +12476,14 @@
       <c r="N44" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="22" customHeight="1">
+      <c r="O44" s="72">
+        <v>0</v>
+      </c>
+      <c r="P44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="22" customHeight="1">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="9"/>
@@ -12248,8 +12520,14 @@
       <c r="N45" s="72">
         <v>4.1007164603674999</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="22" customHeight="1">
+      <c r="O45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+      <c r="P45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="22" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="9"/>
@@ -12286,8 +12564,14 @@
       <c r="N46" s="72">
         <v>19.5371160502471</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="22" customHeight="1">
+      <c r="O46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+      <c r="P46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="22" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="9"/>
@@ -12324,8 +12608,14 @@
       <c r="N47" s="72">
         <v>34.579912168593196</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="22" customHeight="1">
+      <c r="O47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+      <c r="P47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="22" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="9"/>
@@ -12362,8 +12652,14 @@
       <c r="N48" s="72">
         <v>47.821201299679402</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="22" customHeight="1">
+      <c r="O48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+      <c r="P48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="22" customHeight="1">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="9"/>
@@ -12400,8 +12696,14 @@
       <c r="N49" s="72">
         <v>56.972936122782201</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" ht="22" customHeight="1">
+      <c r="O49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+      <c r="P49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="22" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="9"/>
@@ -12438,8 +12740,14 @@
       <c r="N50" s="72">
         <v>61.327749698869702</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" ht="22" customHeight="1">
+      <c r="O50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+      <c r="P50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="22" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="9"/>
@@ -12476,8 +12784,14 @@
       <c r="N51" s="72">
         <v>61.427469085573499</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" ht="22" customHeight="1">
+      <c r="O51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+      <c r="P51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="22" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="9"/>
@@ -12514,8 +12828,14 @@
       <c r="N52" s="72">
         <v>56.276220495864997</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" ht="22" customHeight="1">
+      <c r="O52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+      <c r="P52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="22" customHeight="1">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="9"/>
@@ -12552,8 +12872,14 @@
       <c r="N53" s="72">
         <v>46.126684198485002</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="22" customHeight="1">
+      <c r="O53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+      <c r="P53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="22" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="9"/>
@@ -12590,8 +12916,14 @@
       <c r="N54" s="72">
         <v>32.250110470764497</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="22" customHeight="1">
+      <c r="O54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+      <c r="P54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="22" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="9"/>
@@ -12628,8 +12960,14 @@
       <c r="N55" s="72">
         <v>16.123599338209999</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="22" customHeight="1">
+      <c r="O55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+      <c r="P55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="22" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="9"/>
@@ -12666,8 +13004,14 @@
       <c r="N56" s="72">
         <v>2.7155242506330199</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="22" customHeight="1">
+      <c r="O56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+      <c r="P56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="22" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="9"/>
@@ -12704,8 +13048,14 @@
       <c r="N57" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="22" customHeight="1">
+      <c r="O57" s="72">
+        <v>0</v>
+      </c>
+      <c r="P57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="22" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="9"/>
@@ -12742,8 +13092,14 @@
       <c r="N58" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="22" customHeight="1">
+      <c r="O58" s="72">
+        <v>0</v>
+      </c>
+      <c r="P58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="22" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="9"/>
@@ -12780,8 +13136,14 @@
       <c r="N59" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="22" customHeight="1">
+      <c r="O59" s="72">
+        <v>0</v>
+      </c>
+      <c r="P59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="22" customHeight="1">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="9"/>
@@ -12818,8 +13180,14 @@
       <c r="N60" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="22" customHeight="1">
+      <c r="O60" s="72">
+        <v>0</v>
+      </c>
+      <c r="P60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="22" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="9"/>
@@ -12856,8 +13224,14 @@
       <c r="N61" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="22" customHeight="1" thickBot="1">
+      <c r="O61" s="72">
+        <v>0</v>
+      </c>
+      <c r="P61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="22" customHeight="1" thickBot="1">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="9"/>
@@ -12894,8 +13268,14 @@
       <c r="N62" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="22" customHeight="1">
+      <c r="O62" s="78">
+        <v>0</v>
+      </c>
+      <c r="P62" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="22" customHeight="1">
       <c r="A63" s="27" t="s">
         <v>51</v>
       </c>
@@ -12938,8 +13318,14 @@
       <c r="N63" s="70">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="22" customHeight="1">
+      <c r="O63" s="70">
+        <v>0</v>
+      </c>
+      <c r="P63" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="22" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="9"/>
@@ -12976,8 +13362,14 @@
       <c r="N64" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="22" customHeight="1">
+      <c r="O64" s="72">
+        <v>0</v>
+      </c>
+      <c r="P64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="22" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="9"/>
@@ -13014,8 +13406,14 @@
       <c r="N65" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" ht="22" customHeight="1">
+      <c r="O65" s="72">
+        <v>0</v>
+      </c>
+      <c r="P65" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="22" customHeight="1">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="9"/>
@@ -13052,8 +13450,14 @@
       <c r="N66" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="22" customHeight="1">
+      <c r="O66" s="72">
+        <v>0</v>
+      </c>
+      <c r="P66" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="22" customHeight="1">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="9"/>
@@ -13090,8 +13494,14 @@
       <c r="N67" s="72">
         <v>2.8637133784777098</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="22" customHeight="1">
+      <c r="O67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="P67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="22" customHeight="1">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="9"/>
@@ -13128,8 +13538,14 @@
       <c r="N68" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="22" customHeight="1">
+      <c r="O68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="P68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="22" customHeight="1">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="9"/>
@@ -13166,8 +13582,14 @@
       <c r="N69" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="22" customHeight="1">
+      <c r="O69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="P69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="22" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="9"/>
@@ -13204,8 +13626,14 @@
       <c r="N70" s="72">
         <v>136.13844946706701</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="22" customHeight="1">
+      <c r="O70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+      <c r="P70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="22" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="9"/>
@@ -13242,8 +13670,14 @@
       <c r="N71" s="72">
         <v>256.058048053954</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="22" customHeight="1">
+      <c r="O71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="P71" s="72">
+        <v>256.058048053954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="22" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="9"/>
@@ -13280,8 +13714,14 @@
       <c r="N72" s="72">
         <v>377.09238254086802</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="22" customHeight="1">
+      <c r="O72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="P72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="22" customHeight="1">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="9"/>
@@ -13318,8 +13758,14 @@
       <c r="N73" s="72">
         <v>449.95552662570299</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="22" customHeight="1">
+      <c r="O73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="P73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="22" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="9"/>
@@ -13356,8 +13802,14 @@
       <c r="N74" s="72">
         <v>468.97003171270302</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="22" customHeight="1">
+      <c r="O74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="P74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="22" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="9"/>
@@ -13394,8 +13846,14 @@
       <c r="N75" s="72">
         <v>458.46522359386699</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="22" customHeight="1">
+      <c r="O75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+      <c r="P75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="22" customHeight="1">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="9"/>
@@ -13432,8 +13890,14 @@
       <c r="N76" s="72">
         <v>395.77516323430098</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="22" customHeight="1">
+      <c r="O76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="P76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="22" customHeight="1">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="9"/>
@@ -13470,8 +13934,14 @@
       <c r="N77" s="72">
         <v>298.27754053509602</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="22" customHeight="1">
+      <c r="O77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+      <c r="P77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="22" customHeight="1">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="9"/>
@@ -13508,8 +13978,14 @@
       <c r="N78" s="72">
         <v>170.259190480049</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="22" customHeight="1">
+      <c r="O78" s="72">
+        <v>170.259190480049</v>
+      </c>
+      <c r="P78" s="72">
+        <v>170.259190480049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="22" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="9"/>
@@ -13546,8 +14022,14 @@
       <c r="N79" s="72">
         <v>80.3704132013644</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="22" customHeight="1">
+      <c r="O79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+      <c r="P79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="22" customHeight="1">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="9"/>
@@ -13584,8 +14066,14 @@
       <c r="N80" s="72">
         <v>52.3869711625888</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="22" customHeight="1">
+      <c r="O80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="P80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="22" customHeight="1">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="9"/>
@@ -13622,8 +14110,14 @@
       <c r="N81" s="72">
         <v>15.185447700664</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="22" customHeight="1">
+      <c r="O81" s="72">
+        <v>15.185447700664</v>
+      </c>
+      <c r="P81" s="72">
+        <v>15.185447700664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="22" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="9"/>
@@ -13660,8 +14154,14 @@
       <c r="N82" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="22" customHeight="1">
+      <c r="O82" s="72">
+        <v>0</v>
+      </c>
+      <c r="P82" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="22" customHeight="1">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="9"/>
@@ -13698,8 +14198,14 @@
       <c r="N83" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="22" customHeight="1">
+      <c r="O83" s="72">
+        <v>0</v>
+      </c>
+      <c r="P83" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="22" customHeight="1">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="9"/>
@@ -13736,8 +14242,14 @@
       <c r="N84" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="22" customHeight="1">
+      <c r="O84" s="72">
+        <v>0</v>
+      </c>
+      <c r="P84" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="22" customHeight="1">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="9"/>
@@ -13774,8 +14286,14 @@
       <c r="N85" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="22" customHeight="1" thickBot="1">
+      <c r="O85" s="72">
+        <v>0</v>
+      </c>
+      <c r="P85" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="22" customHeight="1" thickBot="1">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
@@ -13812,8 +14330,14 @@
       <c r="N86" s="74">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="22" customHeight="1">
+      <c r="O86" s="74">
+        <v>0</v>
+      </c>
+      <c r="P86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="22" customHeight="1">
       <c r="A87" s="11" t="s">
         <v>52</v>
       </c>
@@ -13856,8 +14380,14 @@
       <c r="N87" s="76">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="22" customHeight="1">
+      <c r="O87" s="76">
+        <v>0</v>
+      </c>
+      <c r="P87" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="22" customHeight="1">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="9"/>
@@ -13894,8 +14424,14 @@
       <c r="N88" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="22" customHeight="1">
+      <c r="O88" s="72">
+        <v>0</v>
+      </c>
+      <c r="P88" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="22" customHeight="1">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="9"/>
@@ -13932,8 +14468,14 @@
       <c r="N89" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="22" customHeight="1">
+      <c r="O89" s="72">
+        <v>0</v>
+      </c>
+      <c r="P89" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="22" customHeight="1">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="9"/>
@@ -13970,8 +14512,14 @@
       <c r="N90" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="22" customHeight="1">
+      <c r="O90" s="72">
+        <v>0</v>
+      </c>
+      <c r="P90" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="22" customHeight="1">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="9"/>
@@ -14008,8 +14556,14 @@
       <c r="N91" s="72">
         <v>2.8637133784777098</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="22" customHeight="1">
+      <c r="O91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="P91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="22" customHeight="1">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="9"/>
@@ -14046,8 +14600,14 @@
       <c r="N92" s="72">
         <v>35.657192616625203</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="22" customHeight="1">
+      <c r="O92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="P92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="22" customHeight="1">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="9"/>
@@ -14084,8 +14644,14 @@
       <c r="N93" s="72">
         <v>90.292560606232698</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="22" customHeight="1">
+      <c r="O93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="P93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="22" customHeight="1">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="9"/>
@@ -14122,8 +14688,14 @@
       <c r="N94" s="72">
         <v>128.822928421532</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="22" customHeight="1">
+      <c r="O94" s="72">
+        <v>128.822928421532</v>
+      </c>
+      <c r="P94" s="72">
+        <v>128.822928421532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="22" customHeight="1">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="9"/>
@@ -14160,8 +14732,14 @@
       <c r="N95" s="72">
         <v>146.384406923434</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="22" customHeight="1">
+      <c r="O95" s="72">
+        <v>146.384406923434</v>
+      </c>
+      <c r="P95" s="72">
+        <v>146.384406923434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="22" customHeight="1">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="9"/>
@@ -14198,8 +14776,14 @@
       <c r="N96" s="72">
         <v>152.71793835913999</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="22" customHeight="1">
+      <c r="O96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+      <c r="P96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="22" customHeight="1">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="9"/>
@@ -14236,8 +14820,14 @@
       <c r="N97" s="72">
         <v>149.82549640042001</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="22" customHeight="1">
+      <c r="O97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+      <c r="P97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="22" customHeight="1">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="9"/>
@@ -14274,8 +14864,14 @@
       <c r="N98" s="72">
         <v>142.658018842411</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="22" customHeight="1">
+      <c r="O98" s="72">
+        <v>142.658018842411</v>
+      </c>
+      <c r="P98" s="72">
+        <v>142.658018842411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="22" customHeight="1">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="9"/>
@@ -14312,8 +14908,14 @@
       <c r="N99" s="72">
         <v>257.39997310920597</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="22" customHeight="1">
+      <c r="O99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+      <c r="P99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="22" customHeight="1">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="9"/>
@@ -14350,8 +14952,14 @@
       <c r="N100" s="72">
         <v>457.00809230009401</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="22" customHeight="1">
+      <c r="O100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+      <c r="P100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="22" customHeight="1">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="9"/>
@@ -14388,8 +14996,14 @@
       <c r="N101" s="72">
         <v>616.36245027703899</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="22" customHeight="1">
+      <c r="O101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+      <c r="P101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="22" customHeight="1">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="9"/>
@@ -14426,8 +15040,14 @@
       <c r="N102" s="72">
         <v>668.52498183778198</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="22" customHeight="1">
+      <c r="O102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+      <c r="P102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="22" customHeight="1">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="9"/>
@@ -14464,8 +15084,14 @@
       <c r="N103" s="72">
         <v>511.04463204636198</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" ht="22" customHeight="1">
+      <c r="O103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+      <c r="P103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="22" customHeight="1">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="9"/>
@@ -14502,8 +15128,14 @@
       <c r="N104" s="72">
         <v>163.21927401853401</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="22" customHeight="1">
+      <c r="O104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+      <c r="P104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="22" customHeight="1">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="9"/>
@@ -14540,8 +15172,14 @@
       <c r="N105" s="72">
         <v>26.890184979785399</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" ht="22" customHeight="1">
+      <c r="O105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+      <c r="P105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="22" customHeight="1">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="9"/>
@@ -14578,8 +15216,14 @@
       <c r="N106" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" ht="22" customHeight="1">
+      <c r="O106" s="72">
+        <v>0</v>
+      </c>
+      <c r="P106" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="22" customHeight="1">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="9"/>
@@ -14616,8 +15260,14 @@
       <c r="N107" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="22" customHeight="1">
+      <c r="O107" s="72">
+        <v>0</v>
+      </c>
+      <c r="P107" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="22" customHeight="1">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="9"/>
@@ -14654,8 +15304,14 @@
       <c r="N108" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="22" customHeight="1">
+      <c r="O108" s="72">
+        <v>0</v>
+      </c>
+      <c r="P108" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="22" customHeight="1">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="9"/>
@@ -14692,8 +15348,14 @@
       <c r="N109" s="72">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="22" customHeight="1" thickBot="1">
+      <c r="O109" s="72">
+        <v>0</v>
+      </c>
+      <c r="P109" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="22" customHeight="1" thickBot="1">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="9"/>
@@ -14730,8 +15392,14 @@
       <c r="N110" s="78">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="22" customHeight="1">
+      <c r="O110" s="78">
+        <v>0</v>
+      </c>
+      <c r="P110" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="22" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>27</v>
       </c>
@@ -14774,8 +15442,14 @@
       <c r="N111" s="80">
         <v>1.42980827056293</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="22" customHeight="1">
+      <c r="O111" s="80">
+        <v>0</v>
+      </c>
+      <c r="P111" s="80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="22" customHeight="1">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="9"/>
@@ -14812,8 +15486,14 @@
       <c r="N112" s="82">
         <v>2.1166171308218602</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="22" customHeight="1">
+      <c r="O112" s="82">
+        <v>0</v>
+      </c>
+      <c r="P112" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="22" customHeight="1">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="9"/>
@@ -14850,8 +15530,14 @@
       <c r="N113" s="82">
         <v>2.4546912506710798</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="22" customHeight="1">
+      <c r="O113" s="82">
+        <v>0</v>
+      </c>
+      <c r="P113" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="22" customHeight="1">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="9"/>
@@ -14888,8 +15574,14 @@
       <c r="N114" s="82">
         <v>2.61820236670474</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="22" customHeight="1">
+      <c r="O114" s="82">
+        <v>0</v>
+      </c>
+      <c r="P114" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="22" customHeight="1">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="9"/>
@@ -14926,8 +15618,14 @@
       <c r="N115" s="82">
         <v>2.7059989103891802</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="22" customHeight="1">
+      <c r="O115" s="82">
+        <v>0</v>
+      </c>
+      <c r="P115" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="22" customHeight="1">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="9"/>
@@ -14964,8 +15662,14 @@
       <c r="N116" s="82">
         <v>2.7462089718105802</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="22" customHeight="1">
+      <c r="O116" s="82">
+        <v>0</v>
+      </c>
+      <c r="P116" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="22" customHeight="1">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="9"/>
@@ -15002,8 +15706,14 @@
       <c r="N117" s="82">
         <v>2.7719284157476198</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="22" customHeight="1">
+      <c r="O117" s="82">
+        <v>0</v>
+      </c>
+      <c r="P117" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="22" customHeight="1">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="9"/>
@@ -15040,8 +15750,14 @@
       <c r="N118" s="82">
         <v>6.3683027397084899</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="22" customHeight="1">
+      <c r="O118" s="82">
+        <v>0</v>
+      </c>
+      <c r="P118" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="22" customHeight="1">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="9"/>
@@ -15078,8 +15794,14 @@
       <c r="N119" s="82">
         <v>3.1158627994719899</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="22" customHeight="1">
+      <c r="O119" s="82">
+        <v>0</v>
+      </c>
+      <c r="P119" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="22" customHeight="1">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="9"/>
@@ -15116,8 +15838,14 @@
       <c r="N120" s="82">
         <v>1.0191255644430599</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="22" customHeight="1">
+      <c r="O120" s="82">
+        <v>0</v>
+      </c>
+      <c r="P120" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="22" customHeight="1">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="9"/>
@@ -15154,8 +15882,14 @@
       <c r="N121" s="82">
         <v>-1.6887888191306901E-2</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="22" customHeight="1">
+      <c r="O121" s="82">
+        <v>0</v>
+      </c>
+      <c r="P121" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="22" customHeight="1">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="9"/>
@@ -15192,8 +15926,14 @@
       <c r="N122" s="82">
         <v>-1.6620686753995699</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="22" customHeight="1">
+      <c r="O122" s="82">
+        <v>0</v>
+      </c>
+      <c r="P122" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="22" customHeight="1">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="9"/>
@@ -15230,8 +15970,14 @@
       <c r="N123" s="82">
         <v>-3.23178694197225</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="22" customHeight="1">
+      <c r="O123" s="82">
+        <v>0</v>
+      </c>
+      <c r="P123" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="22" customHeight="1">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="9"/>
@@ -15268,8 +16014,14 @@
       <c r="N124" s="82">
         <v>-3.5684894496470698</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="22" customHeight="1">
+      <c r="O124" s="82">
+        <v>-0.23935658160096199</v>
+      </c>
+      <c r="P124" s="82">
+        <v>-0.243368481249368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="22" customHeight="1">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="9"/>
@@ -15306,8 +16058,14 @@
       <c r="N125" s="82">
         <v>-2.9443721191211498</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="22" customHeight="1">
+      <c r="O125" s="82">
+        <v>-1.22450739585899</v>
+      </c>
+      <c r="P125" s="82">
+        <v>-1.2310344050898201</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="22" customHeight="1">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="9"/>
@@ -15344,8 +16102,14 @@
       <c r="N126" s="82">
         <v>-1.4650725129792299</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="22" customHeight="1">
+      <c r="O126" s="82">
+        <v>-0.78785123837791504</v>
+      </c>
+      <c r="P126" s="82">
+        <v>-0.79086527932147599</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="22" customHeight="1">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="9"/>
@@ -15382,8 +16146,14 @@
       <c r="N127" s="82">
         <v>-1.9374538483483701E-2</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="22" customHeight="1">
+      <c r="O127" s="82">
+        <v>0</v>
+      </c>
+      <c r="P127" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="22" customHeight="1">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="9"/>
@@ -15420,8 +16190,14 @@
       <c r="N128" s="82">
         <v>0.42611545089313202</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="22" customHeight="1">
+      <c r="O128" s="82">
+        <v>0</v>
+      </c>
+      <c r="P128" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="22" customHeight="1">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="9"/>
@@ -15458,8 +16234,14 @@
       <c r="N129" s="82">
         <v>1.8312577070249301</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="22" customHeight="1">
+      <c r="O129" s="82">
+        <v>0</v>
+      </c>
+      <c r="P129" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="22" customHeight="1">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="9"/>
@@ -15496,8 +16278,14 @@
       <c r="N130" s="82">
         <v>2.5733552649387699</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="22" customHeight="1">
+      <c r="O130" s="82">
+        <v>0</v>
+      </c>
+      <c r="P130" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="22" customHeight="1">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="9"/>
@@ -15534,8 +16322,14 @@
       <c r="N131" s="82">
         <v>2.9783615235030201</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="22" customHeight="1">
+      <c r="O131" s="82">
+        <v>0</v>
+      </c>
+      <c r="P131" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="22" customHeight="1">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="9"/>
@@ -15572,8 +16366,14 @@
       <c r="N132" s="82">
         <v>3.1892508319538302</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" ht="22" customHeight="1">
+      <c r="O132" s="82">
+        <v>0</v>
+      </c>
+      <c r="P132" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="22" customHeight="1">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="9"/>
@@ -15610,8 +16410,14 @@
       <c r="N133" s="82">
         <v>3.2471473011649001</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" ht="22" customHeight="1">
+      <c r="O133" s="82">
+        <v>0</v>
+      </c>
+      <c r="P133" s="82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="22" customHeight="1">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="9"/>
@@ -15648,8 +16454,14 @@
       <c r="N134" s="88">
         <v>0.155108052067924</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134" s="88">
+        <v>0</v>
+      </c>
+      <c r="P134" s="88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="39" t="s">
         <v>48</v>
       </c>
@@ -15678,6 +16490,8 @@
       </c>
       <c r="M135" s="89"/>
       <c r="N135" s="89"/>
+      <c r="O135" s="89"/>
+      <c r="P135" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15685,7 +16499,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="G39:G62">
-    <cfRule type="dataBar" priority="55">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15699,7 +16513,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:G38">
-    <cfRule type="dataBar" priority="54">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15713,7 +16527,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G63:G86">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15727,7 +16541,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G87:G110">
-    <cfRule type="dataBar" priority="52">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15741,7 +16555,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G111:G134">
-    <cfRule type="dataBar" priority="51">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15755,7 +16569,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39:H62">
-    <cfRule type="dataBar" priority="70">
+    <cfRule type="dataBar" priority="80">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15769,7 +16583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H38">
-    <cfRule type="dataBar" priority="72">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15783,7 +16597,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H86">
-    <cfRule type="dataBar" priority="74">
+    <cfRule type="dataBar" priority="84">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15797,7 +16611,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87:H110">
-    <cfRule type="dataBar" priority="76">
+    <cfRule type="dataBar" priority="86">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15811,7 +16625,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111:H134">
-    <cfRule type="dataBar" priority="78">
+    <cfRule type="dataBar" priority="88">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15825,7 +16639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F62">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15839,7 +16653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F38">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15853,7 +16667,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F86">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15867,7 +16681,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87:F110">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15881,7 +16695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F111:F134">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15895,7 +16709,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15909,7 +16723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15923,7 +16737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="48">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15937,7 +16751,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="47">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15951,7 +16765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="36">
+    <cfRule type="dataBar" priority="46">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15965,7 +16779,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:E62">
-    <cfRule type="dataBar" priority="35">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15979,7 +16793,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E38">
-    <cfRule type="dataBar" priority="34">
+    <cfRule type="dataBar" priority="44">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -15993,7 +16807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E86">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16007,7 +16821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87:E110">
-    <cfRule type="dataBar" priority="32">
+    <cfRule type="dataBar" priority="42">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16021,7 +16835,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111:E134">
-    <cfRule type="dataBar" priority="31">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16035,7 +16849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39:I62">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="35">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16049,7 +16863,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I38">
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16063,7 +16877,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I86">
-    <cfRule type="dataBar" priority="23">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16077,7 +16891,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:I110">
-    <cfRule type="dataBar" priority="22">
+    <cfRule type="dataBar" priority="32">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16091,7 +16905,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111:I134">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="31">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16105,7 +16919,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39:J62">
-    <cfRule type="dataBar" priority="26">
+    <cfRule type="dataBar" priority="36">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16119,7 +16933,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:J38">
-    <cfRule type="dataBar" priority="27">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16133,7 +16947,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J86">
-    <cfRule type="dataBar" priority="28">
+    <cfRule type="dataBar" priority="38">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16147,7 +16961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J87:J110">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="39">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16161,7 +16975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J111:J134">
-    <cfRule type="dataBar" priority="30">
+    <cfRule type="dataBar" priority="40">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16175,7 +16989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39:K62">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16189,7 +17003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K38">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16203,7 +17017,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K86">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16217,7 +17031,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87:K110">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16231,7 +17045,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K111:K134">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16245,7 +17059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39:L62">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16259,7 +17073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:L38">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16273,7 +17087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63:L86">
-    <cfRule type="dataBar" priority="18">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16287,7 +17101,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L87:L110">
-    <cfRule type="dataBar" priority="19">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16301,7 +17115,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L111:L134">
-    <cfRule type="dataBar" priority="20">
+    <cfRule type="dataBar" priority="30">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16315,7 +17129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39:M62">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16329,7 +17143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:M38">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16343,7 +17157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M86">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16357,7 +17171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M87:M110">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16371,7 +17185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111:M134">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16385,7 +17199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39:N62">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16399,7 +17213,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N38">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16413,7 +17227,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63:N86">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16427,7 +17241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N87:N110">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -16441,6 +17255,146 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N111:N134">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{70AAB0C2-F254-8943-A1D5-EFE7B7DBF0FA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O39:O62">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F2A6960-3398-634D-BC88-AADD40AE3397}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:O38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC8A686F-8816-7344-AF4F-57F5E4A60D37}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O63:O86">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B7BCDF88-32EB-474A-BF83-0765900E517D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O87:O110">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{735F6D0A-A2CA-BB40-9AFC-43B177A358D7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O111:O134">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BE7F5C38-E8BF-6A44-B00F-319703EE0AA4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P39:P62">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AB7BFAF3-A381-3B49-84FA-0C2B96CD2005}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15:P38">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D10C1D78-6715-324B-B35F-C20B6F21F091}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P63:P86">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6331C3F7-2C59-1C4A-82B9-237DAA71D97D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P87:P110">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0DAD00C-C356-F546-B722-AA866BE349AB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P111:P134">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -16449,7 +17403,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{70AAB0C2-F254-8943-A1D5-EFE7B7DBF0FA}</x14:id>
+          <x14:id>{24176F39-F66A-0248-BA06-467B6ED97607}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -17173,6 +18127,136 @@
           </x14:cfRule>
           <xm:sqref>N111:N134</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F2A6960-3398-634D-BC88-AADD40AE3397}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O39:O62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC8A686F-8816-7344-AF4F-57F5E4A60D37}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O15:O38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B7BCDF88-32EB-474A-BF83-0765900E517D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O63:O86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{735F6D0A-A2CA-BB40-9AFC-43B177A358D7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O87:O110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BE7F5C38-E8BF-6A44-B00F-319703EE0AA4}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O111:O134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AB7BFAF3-A381-3B49-84FA-0C2B96CD2005}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P39:P62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D10C1D78-6715-324B-B35F-C20B6F21F091}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P15:P38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6331C3F7-2C59-1C4A-82B9-237DAA71D97D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P63:P86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0DAD00C-C356-F546-B722-AA866BE349AB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P87:P110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24176F39-F66A-0248-BA06-467B6ED97607}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P111:P134</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -5,37 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eikichiono/Documents/04_Association/SHASE/ECP/EnergyPlus_SHASEG1008/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02192E-A16C-4942-9470-C704BF6852E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46A9B3-6FFF-4C40-A27C-3D6A61FD7A9C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
+    <workbookView xWindow="-36920" yWindow="-2280" windowWidth="36920" windowHeight="21100" activeTab="2" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 600 検証" sheetId="1" r:id="rId1"/>
     <sheet name="Case600シリーズ" sheetId="2" r:id="rId2"/>
+    <sheet name="Case600_AS140 vs miyata vs ono" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
   <si>
     <t>ESP</t>
   </si>
@@ -449,6 +441,16 @@
 AS140</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Case600
+ono</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Case600
+ono             rev</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -716,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,6 +972,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1365,26 +1379,26 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="100" t="s">
+      <c r="P2" s="104" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="98" t="s">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="102" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="99"/>
-      <c r="X2" s="99"/>
-      <c r="Y2" s="99"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
     </row>
     <row r="3" spans="1:25" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -10524,8 +10538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -10576,10 +10590,10 @@
       <c r="P2" s="94"/>
     </row>
     <row r="3" spans="1:16" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="12" t="s">
         <v>35</v>
       </c>
@@ -18261,4 +18275,3604 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8253DF10-A04E-E549-AC8A-DE85024F6458}">
+  <dimension ref="A1:H135"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="10.28515625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.7109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="26" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="98"/>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" ht="118" customHeight="1" thickBot="1">
+      <c r="A3" s="100" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="101"/>
+      <c r="C3" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="31" customFormat="1" ht="22" customHeight="1" thickTop="1">
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="53">
+        <v>4.25629460896252</v>
+      </c>
+      <c r="F4" s="53">
+        <v>4.3875967142160803</v>
+      </c>
+      <c r="G4" s="53">
+        <v>4.3870752069822396</v>
+      </c>
+      <c r="H4" s="53">
+        <v>4.3884562293967102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="56">
+        <v>6.98028102271559</v>
+      </c>
+      <c r="F5" s="56">
+        <v>6.7454089805195903</v>
+      </c>
+      <c r="G5" s="56">
+        <v>6.7452875892443798</v>
+      </c>
+      <c r="H5" s="56">
+        <v>6.7469934313606501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="31" customFormat="1" ht="22" customHeight="1">
+      <c r="A6" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="59">
+        <v>3.7777232238976399</v>
+      </c>
+      <c r="F6" s="59">
+        <v>3.75239351564427</v>
+      </c>
+      <c r="G6" s="59">
+        <v>3.7517925242407602</v>
+      </c>
+      <c r="H6" s="59">
+        <v>3.7518345454419801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="31" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="A7" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="61">
+        <v>6.7026362077421497</v>
+      </c>
+      <c r="F7" s="61">
+        <v>6.5688349796946497</v>
+      </c>
+      <c r="G7" s="61">
+        <v>6.5685983560496499</v>
+      </c>
+      <c r="H7" s="61">
+        <v>6.5701243370405003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="63">
+        <v>431.14310695601603</v>
+      </c>
+      <c r="F8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="G8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+      <c r="H8" s="63">
+        <v>432.13421939075698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="65">
+        <v>1178.63790733683</v>
+      </c>
+      <c r="F9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+      <c r="G9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+      <c r="H9" s="65">
+        <v>1179.2604523596699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A10" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="65">
+        <v>1040.16727469284</v>
+      </c>
+      <c r="F10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+      <c r="G10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+      <c r="H10" s="65">
+        <v>1040.5181340796801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A11" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="65">
+        <v>1546.77418428137</v>
+      </c>
+      <c r="F11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="G11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+      <c r="H11" s="65">
+        <v>1544.9788966738599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A12" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="65">
+        <v>1841.6843240220601</v>
+      </c>
+      <c r="F12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="G12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+      <c r="H12" s="65">
+        <v>1840.06074216252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="66">
+        <v>981.29753084260597</v>
+      </c>
+      <c r="F13" s="66">
+        <v>980.36646390538101</v>
+      </c>
+      <c r="G13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+      <c r="H13" s="66">
+        <v>980.36646390777798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="38" customFormat="1" ht="22" customHeight="1" thickBot="1">
+      <c r="A14" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="45"/>
+      <c r="E14" s="68">
+        <v>0.63441550862094065</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0.63455006797567493</v>
+      </c>
+      <c r="G14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+      <c r="H14" s="68">
+        <v>0.63455006797722602</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="22" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="70">
+        <v>0</v>
+      </c>
+      <c r="F15" s="70">
+        <v>0</v>
+      </c>
+      <c r="G15" s="70">
+        <v>0</v>
+      </c>
+      <c r="H15" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="22" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="99">
+        <v>2</v>
+      </c>
+      <c r="E16" s="72">
+        <v>0</v>
+      </c>
+      <c r="F16" s="72">
+        <v>0</v>
+      </c>
+      <c r="G16" s="72">
+        <v>0</v>
+      </c>
+      <c r="H16" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="99">
+        <v>3</v>
+      </c>
+      <c r="E17" s="72">
+        <v>0</v>
+      </c>
+      <c r="F17" s="72">
+        <v>0</v>
+      </c>
+      <c r="G17" s="72">
+        <v>0</v>
+      </c>
+      <c r="H17" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="22" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="99">
+        <v>4</v>
+      </c>
+      <c r="E18" s="72">
+        <v>0</v>
+      </c>
+      <c r="F18" s="72">
+        <v>0</v>
+      </c>
+      <c r="G18" s="72">
+        <v>0</v>
+      </c>
+      <c r="H18" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="99">
+        <v>5</v>
+      </c>
+      <c r="E19" s="72">
+        <v>0</v>
+      </c>
+      <c r="F19" s="72">
+        <v>0</v>
+      </c>
+      <c r="G19" s="72">
+        <v>0</v>
+      </c>
+      <c r="H19" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="22" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="99">
+        <v>6</v>
+      </c>
+      <c r="E20" s="72">
+        <v>0</v>
+      </c>
+      <c r="F20" s="72">
+        <v>0</v>
+      </c>
+      <c r="G20" s="72">
+        <v>0</v>
+      </c>
+      <c r="H20" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="22" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="99">
+        <v>7</v>
+      </c>
+      <c r="E21" s="72">
+        <v>5.0856129995372603</v>
+      </c>
+      <c r="F21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="G21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+      <c r="H21" s="72">
+        <v>4.1392058833219298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="22" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="99">
+        <v>8</v>
+      </c>
+      <c r="E22" s="72">
+        <v>21.8340609865378</v>
+      </c>
+      <c r="F22" s="72">
+        <v>19.906615707371898</v>
+      </c>
+      <c r="G22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+      <c r="H22" s="72">
+        <v>19.906615707371799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="22" customHeight="1">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="99">
+        <v>9</v>
+      </c>
+      <c r="E23" s="72">
+        <v>37.312531214070397</v>
+      </c>
+      <c r="F23" s="72">
+        <v>35.478919433919799</v>
+      </c>
+      <c r="G23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+      <c r="H23" s="72">
+        <v>35.4789194339197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="22" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="99">
+        <v>10</v>
+      </c>
+      <c r="E24" s="72">
+        <v>50.436410101312902</v>
+      </c>
+      <c r="F24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="G24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+      <c r="H24" s="72">
+        <v>48.983743617066096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="23" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="99">
+        <v>11</v>
+      </c>
+      <c r="E25" s="72">
+        <v>59.378299762643103</v>
+      </c>
+      <c r="F25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="G25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+      <c r="H25" s="72">
+        <v>58.449624348728598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="99">
+        <v>12</v>
+      </c>
+      <c r="E26" s="72">
+        <v>64.056627407931302</v>
+      </c>
+      <c r="F26" s="72">
+        <v>63.727583713799099</v>
+      </c>
+      <c r="G26" s="72">
+        <v>63.727583713799</v>
+      </c>
+      <c r="H26" s="72">
+        <v>63.727583713799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="22" customHeight="1">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="99">
+        <v>13</v>
+      </c>
+      <c r="E27" s="72">
+        <v>63.038126650306801</v>
+      </c>
+      <c r="F27" s="72">
+        <v>63.469189819430397</v>
+      </c>
+      <c r="G27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+      <c r="H27" s="72">
+        <v>63.469189819430298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="22" customHeight="1">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="99">
+        <v>14</v>
+      </c>
+      <c r="E28" s="72">
+        <v>56.049459936031496</v>
+      </c>
+      <c r="F28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="G28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+      <c r="H28" s="72">
+        <v>57.163889629705899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="22" customHeight="1">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="99">
+        <v>15</v>
+      </c>
+      <c r="E29" s="72">
+        <v>44.5192468052715</v>
+      </c>
+      <c r="F29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="G29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+      <c r="H29" s="72">
+        <v>46.140358781121201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="22" customHeight="1">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="99">
+        <v>16</v>
+      </c>
+      <c r="E30" s="72">
+        <v>29.742885665231402</v>
+      </c>
+      <c r="F30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="G30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+      <c r="H30" s="72">
+        <v>31.726053230763501</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="22" customHeight="1">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="99">
+        <v>17</v>
+      </c>
+      <c r="E31" s="72">
+        <v>13.657600183065799</v>
+      </c>
+      <c r="F31" s="72">
+        <v>15.6423155213275</v>
+      </c>
+      <c r="G31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+      <c r="H31" s="72">
+        <v>15.642315521327401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="22" customHeight="1">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="99">
+        <v>18</v>
+      </c>
+      <c r="E32" s="72">
+        <v>1.2753462418547099</v>
+      </c>
+      <c r="F32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="G32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+      <c r="H32" s="72">
+        <v>2.6701979412288002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="22" customHeight="1">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="99">
+        <v>19</v>
+      </c>
+      <c r="E33" s="72">
+        <v>0</v>
+      </c>
+      <c r="F33" s="72">
+        <v>0</v>
+      </c>
+      <c r="G33" s="72">
+        <v>0</v>
+      </c>
+      <c r="H33" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="22" customHeight="1">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="99">
+        <v>20</v>
+      </c>
+      <c r="E34" s="72">
+        <v>0</v>
+      </c>
+      <c r="F34" s="72">
+        <v>0</v>
+      </c>
+      <c r="G34" s="72">
+        <v>0</v>
+      </c>
+      <c r="H34" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="22" customHeight="1">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="99">
+        <v>21</v>
+      </c>
+      <c r="E35" s="72">
+        <v>0</v>
+      </c>
+      <c r="F35" s="72">
+        <v>0</v>
+      </c>
+      <c r="G35" s="72">
+        <v>0</v>
+      </c>
+      <c r="H35" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="22" customHeight="1">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="99">
+        <v>22</v>
+      </c>
+      <c r="E36" s="72">
+        <v>0</v>
+      </c>
+      <c r="F36" s="72">
+        <v>0</v>
+      </c>
+      <c r="G36" s="72">
+        <v>0</v>
+      </c>
+      <c r="H36" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="22" customHeight="1">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="99">
+        <v>23</v>
+      </c>
+      <c r="E37" s="72">
+        <v>0</v>
+      </c>
+      <c r="F37" s="72">
+        <v>0</v>
+      </c>
+      <c r="G37" s="72">
+        <v>0</v>
+      </c>
+      <c r="H37" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="22" customHeight="1" thickBot="1">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="20">
+        <v>24</v>
+      </c>
+      <c r="E38" s="74">
+        <v>0</v>
+      </c>
+      <c r="F38" s="74">
+        <v>0</v>
+      </c>
+      <c r="G38" s="74">
+        <v>0</v>
+      </c>
+      <c r="H38" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="22" customHeight="1">
+      <c r="A39" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="76">
+        <v>0</v>
+      </c>
+      <c r="F39" s="76">
+        <v>0</v>
+      </c>
+      <c r="G39" s="76">
+        <v>0</v>
+      </c>
+      <c r="H39" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="22" customHeight="1">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="99">
+        <v>2</v>
+      </c>
+      <c r="E40" s="72">
+        <v>0</v>
+      </c>
+      <c r="F40" s="72">
+        <v>0</v>
+      </c>
+      <c r="G40" s="72">
+        <v>0</v>
+      </c>
+      <c r="H40" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="22" customHeight="1">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="99">
+        <v>3</v>
+      </c>
+      <c r="E41" s="72">
+        <v>0</v>
+      </c>
+      <c r="F41" s="72">
+        <v>0</v>
+      </c>
+      <c r="G41" s="72">
+        <v>0</v>
+      </c>
+      <c r="H41" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="22" customHeight="1">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="99">
+        <v>4</v>
+      </c>
+      <c r="E42" s="72">
+        <v>0</v>
+      </c>
+      <c r="F42" s="72">
+        <v>0</v>
+      </c>
+      <c r="G42" s="72">
+        <v>0</v>
+      </c>
+      <c r="H42" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="22" customHeight="1">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="99">
+        <v>5</v>
+      </c>
+      <c r="E43" s="72">
+        <v>0</v>
+      </c>
+      <c r="F43" s="72">
+        <v>0</v>
+      </c>
+      <c r="G43" s="72">
+        <v>0</v>
+      </c>
+      <c r="H43" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="22" customHeight="1">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="99">
+        <v>6</v>
+      </c>
+      <c r="E44" s="72">
+        <v>0</v>
+      </c>
+      <c r="F44" s="72">
+        <v>0</v>
+      </c>
+      <c r="G44" s="72">
+        <v>0</v>
+      </c>
+      <c r="H44" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="22" customHeight="1">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="99">
+        <v>7</v>
+      </c>
+      <c r="E45" s="72">
+        <v>5.0381229194369501</v>
+      </c>
+      <c r="F45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+      <c r="G45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+      <c r="H45" s="72">
+        <v>4.1007164603674999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="22" customHeight="1">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="99">
+        <v>8</v>
+      </c>
+      <c r="E46" s="72">
+        <v>21.4392328551193</v>
+      </c>
+      <c r="F46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+      <c r="G46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+      <c r="H46" s="72">
+        <v>19.5371160502471</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="22" customHeight="1">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="99">
+        <v>9</v>
+      </c>
+      <c r="E47" s="72">
+        <v>36.412172324603198</v>
+      </c>
+      <c r="F47" s="72">
+        <v>34.579912168593303</v>
+      </c>
+      <c r="G47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+      <c r="H47" s="72">
+        <v>34.579912168593196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="22" customHeight="1">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="99">
+        <v>10</v>
+      </c>
+      <c r="E48" s="72">
+        <v>49.306611916789102</v>
+      </c>
+      <c r="F48" s="72">
+        <v>47.821201299679501</v>
+      </c>
+      <c r="G48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+      <c r="H48" s="72">
+        <v>47.821201299679402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="22" customHeight="1">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="99">
+        <v>11</v>
+      </c>
+      <c r="E49" s="72">
+        <v>57.893153896431301</v>
+      </c>
+      <c r="F49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+      <c r="G49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+      <c r="H49" s="72">
+        <v>56.972936122782201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="22" customHeight="1">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="99">
+        <v>12</v>
+      </c>
+      <c r="E50" s="72">
+        <v>61.658124821474203</v>
+      </c>
+      <c r="F50" s="72">
+        <v>61.327749698869802</v>
+      </c>
+      <c r="G50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+      <c r="H50" s="72">
+        <v>61.327749698869702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="22" customHeight="1">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="99">
+        <v>13</v>
+      </c>
+      <c r="E51" s="72">
+        <v>61.257588489026801</v>
+      </c>
+      <c r="F51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+      <c r="G51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+      <c r="H51" s="72">
+        <v>61.427469085573499</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="22" customHeight="1">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="99">
+        <v>14</v>
+      </c>
+      <c r="E52" s="72">
+        <v>55.397452117656201</v>
+      </c>
+      <c r="F52" s="72">
+        <v>56.276220495865097</v>
+      </c>
+      <c r="G52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+      <c r="H52" s="72">
+        <v>56.276220495864997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="22" customHeight="1">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="99">
+        <v>15</v>
+      </c>
+      <c r="E53" s="72">
+        <v>44.675926435862898</v>
+      </c>
+      <c r="F53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+      <c r="G53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+      <c r="H53" s="72">
+        <v>46.126684198485002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="22" customHeight="1">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="99">
+        <v>16</v>
+      </c>
+      <c r="E54" s="72">
+        <v>30.3863832517216</v>
+      </c>
+      <c r="F54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+      <c r="G54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+      <c r="H54" s="72">
+        <v>32.250110470764497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="22" customHeight="1">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="99">
+        <v>17</v>
+      </c>
+      <c r="E55" s="72">
+        <v>14.128362014674501</v>
+      </c>
+      <c r="F55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+      <c r="G55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+      <c r="H55" s="72">
+        <v>16.123599338209999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="22" customHeight="1">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="99">
+        <v>18</v>
+      </c>
+      <c r="E56" s="72">
+        <v>1.2753462418547099</v>
+      </c>
+      <c r="F56" s="72">
+        <v>2.7155242506330302</v>
+      </c>
+      <c r="G56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+      <c r="H56" s="72">
+        <v>2.7155242506330199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="22" customHeight="1">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="99">
+        <v>19</v>
+      </c>
+      <c r="E57" s="72">
+        <v>0</v>
+      </c>
+      <c r="F57" s="72">
+        <v>0</v>
+      </c>
+      <c r="G57" s="72">
+        <v>0</v>
+      </c>
+      <c r="H57" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="22" customHeight="1">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="99">
+        <v>20</v>
+      </c>
+      <c r="E58" s="72">
+        <v>0</v>
+      </c>
+      <c r="F58" s="72">
+        <v>0</v>
+      </c>
+      <c r="G58" s="72">
+        <v>0</v>
+      </c>
+      <c r="H58" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="22" customHeight="1">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="99">
+        <v>21</v>
+      </c>
+      <c r="E59" s="72">
+        <v>0</v>
+      </c>
+      <c r="F59" s="72">
+        <v>0</v>
+      </c>
+      <c r="G59" s="72">
+        <v>0</v>
+      </c>
+      <c r="H59" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="22" customHeight="1">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="99">
+        <v>22</v>
+      </c>
+      <c r="E60" s="72">
+        <v>0</v>
+      </c>
+      <c r="F60" s="72">
+        <v>0</v>
+      </c>
+      <c r="G60" s="72">
+        <v>0</v>
+      </c>
+      <c r="H60" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="22" customHeight="1">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="99">
+        <v>23</v>
+      </c>
+      <c r="E61" s="72">
+        <v>0</v>
+      </c>
+      <c r="F61" s="72">
+        <v>0</v>
+      </c>
+      <c r="G61" s="72">
+        <v>0</v>
+      </c>
+      <c r="H61" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="22" customHeight="1" thickBot="1">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="8">
+        <v>24</v>
+      </c>
+      <c r="E62" s="78">
+        <v>0</v>
+      </c>
+      <c r="F62" s="78">
+        <v>0</v>
+      </c>
+      <c r="G62" s="78">
+        <v>0</v>
+      </c>
+      <c r="H62" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="22" customHeight="1">
+      <c r="A63" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="19">
+        <v>1</v>
+      </c>
+      <c r="E63" s="70">
+        <v>0</v>
+      </c>
+      <c r="F63" s="70">
+        <v>0</v>
+      </c>
+      <c r="G63" s="70">
+        <v>0</v>
+      </c>
+      <c r="H63" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="22" customHeight="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="99">
+        <v>2</v>
+      </c>
+      <c r="E64" s="72">
+        <v>0</v>
+      </c>
+      <c r="F64" s="72">
+        <v>0</v>
+      </c>
+      <c r="G64" s="72">
+        <v>0</v>
+      </c>
+      <c r="H64" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="22" customHeight="1">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="99">
+        <v>3</v>
+      </c>
+      <c r="E65" s="72">
+        <v>0</v>
+      </c>
+      <c r="F65" s="72">
+        <v>0</v>
+      </c>
+      <c r="G65" s="72">
+        <v>0</v>
+      </c>
+      <c r="H65" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="22" customHeight="1">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="99">
+        <v>4</v>
+      </c>
+      <c r="E66" s="72">
+        <v>0</v>
+      </c>
+      <c r="F66" s="72">
+        <v>0</v>
+      </c>
+      <c r="G66" s="72">
+        <v>0</v>
+      </c>
+      <c r="H66" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="22" customHeight="1">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="99">
+        <v>5</v>
+      </c>
+      <c r="E67" s="72">
+        <v>5.7274267569554196</v>
+      </c>
+      <c r="F67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="G67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="H67" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="22" customHeight="1">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="99">
+        <v>6</v>
+      </c>
+      <c r="E68" s="72">
+        <v>41.5215847690245</v>
+      </c>
+      <c r="F68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="G68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="H68" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="22" customHeight="1">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="99">
+        <v>7</v>
+      </c>
+      <c r="E69" s="72">
+        <v>97.0307614886067</v>
+      </c>
+      <c r="F69" s="72">
+        <v>90.292560606232797</v>
+      </c>
+      <c r="G69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="H69" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="22" customHeight="1">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="99">
+        <v>8</v>
+      </c>
+      <c r="E70" s="72">
+        <v>151.73065815059101</v>
+      </c>
+      <c r="F70" s="72">
+        <v>136.138449467068</v>
+      </c>
+      <c r="G70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+      <c r="H70" s="72">
+        <v>136.13844946706701</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="22" customHeight="1">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="99">
+        <v>9</v>
+      </c>
+      <c r="E71" s="72">
+        <v>281.41835662262798</v>
+      </c>
+      <c r="F71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="G71" s="72">
+        <v>256.058048053954</v>
+      </c>
+      <c r="H71" s="72">
+        <v>256.058048053954</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="22" customHeight="1">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="99">
+        <v>10</v>
+      </c>
+      <c r="E72" s="72">
+        <v>399.45641051455101</v>
+      </c>
+      <c r="F72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="G72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+      <c r="H72" s="72">
+        <v>377.09238254086802</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="22" customHeight="1">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="99">
+        <v>11</v>
+      </c>
+      <c r="E73" s="72">
+        <v>463.66506059306101</v>
+      </c>
+      <c r="F73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="G73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+      <c r="H73" s="72">
+        <v>449.95552662570299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="22" customHeight="1">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="99">
+        <v>12</v>
+      </c>
+      <c r="E74" s="72">
+        <v>479.41473940183801</v>
+      </c>
+      <c r="F74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="G74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+      <c r="H74" s="72">
+        <v>468.97003171270302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="22" customHeight="1">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="99">
+        <v>13</v>
+      </c>
+      <c r="E75" s="72">
+        <v>463.415866740392</v>
+      </c>
+      <c r="F75" s="72">
+        <v>458.46522359386802</v>
+      </c>
+      <c r="G75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+      <c r="H75" s="72">
+        <v>458.46522359386699</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="22" customHeight="1">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="99">
+        <v>14</v>
+      </c>
+      <c r="E76" s="72">
+        <v>394.68128721933601</v>
+      </c>
+      <c r="F76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="G76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+      <c r="H76" s="72">
+        <v>395.77516323430098</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="22" customHeight="1">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="99">
+        <v>15</v>
+      </c>
+      <c r="E77" s="72">
+        <v>292.14955753406298</v>
+      </c>
+      <c r="F77" s="72">
+        <v>298.27754053509699</v>
+      </c>
+      <c r="G77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+      <c r="H77" s="72">
+        <v>298.27754053509602</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="22" customHeight="1">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="99">
+        <v>16</v>
+      </c>
+      <c r="E78" s="72">
+        <v>160.672223607658</v>
+      </c>
+      <c r="F78" s="72">
+        <v>170.25919048004999</v>
+      </c>
+      <c r="G78" s="72">
+        <v>170.259190480049</v>
+      </c>
+      <c r="H78" s="72">
+        <v>170.259190480049</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="22" customHeight="1">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="99">
+        <v>17</v>
+      </c>
+      <c r="E79" s="72">
+        <v>75.960245594974793</v>
+      </c>
+      <c r="F79" s="72">
+        <v>80.370413201364499</v>
+      </c>
+      <c r="G79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+      <c r="H79" s="72">
+        <v>80.3704132013644</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="22" customHeight="1">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="99">
+        <v>18</v>
+      </c>
+      <c r="E80" s="72">
+        <v>48.292261762398098</v>
+      </c>
+      <c r="F80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="G80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+      <c r="H80" s="72">
+        <v>52.3869711625888</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="22" customHeight="1">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="99">
+        <v>19</v>
+      </c>
+      <c r="E81" s="72">
+        <v>11.3538488213179</v>
+      </c>
+      <c r="F81" s="72">
+        <v>15.185447700664101</v>
+      </c>
+      <c r="G81" s="72">
+        <v>15.185447700664</v>
+      </c>
+      <c r="H81" s="72">
+        <v>15.185447700664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="22" customHeight="1">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="99">
+        <v>20</v>
+      </c>
+      <c r="E82" s="72">
+        <v>0</v>
+      </c>
+      <c r="F82" s="72">
+        <v>0</v>
+      </c>
+      <c r="G82" s="72">
+        <v>0</v>
+      </c>
+      <c r="H82" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="22" customHeight="1">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="99">
+        <v>21</v>
+      </c>
+      <c r="E83" s="72">
+        <v>0</v>
+      </c>
+      <c r="F83" s="72">
+        <v>0</v>
+      </c>
+      <c r="G83" s="72">
+        <v>0</v>
+      </c>
+      <c r="H83" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="22" customHeight="1">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="99">
+        <v>22</v>
+      </c>
+      <c r="E84" s="72">
+        <v>0</v>
+      </c>
+      <c r="F84" s="72">
+        <v>0</v>
+      </c>
+      <c r="G84" s="72">
+        <v>0</v>
+      </c>
+      <c r="H84" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="22" customHeight="1">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="99">
+        <v>23</v>
+      </c>
+      <c r="E85" s="72">
+        <v>0</v>
+      </c>
+      <c r="F85" s="72">
+        <v>0</v>
+      </c>
+      <c r="G85" s="72">
+        <v>0</v>
+      </c>
+      <c r="H85" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="22" customHeight="1" thickBot="1">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="20">
+        <v>24</v>
+      </c>
+      <c r="E86" s="74">
+        <v>0</v>
+      </c>
+      <c r="F86" s="74">
+        <v>0</v>
+      </c>
+      <c r="G86" s="74">
+        <v>0</v>
+      </c>
+      <c r="H86" s="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="22" customHeight="1">
+      <c r="A87" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D87" s="18">
+        <v>1</v>
+      </c>
+      <c r="E87" s="76">
+        <v>0</v>
+      </c>
+      <c r="F87" s="76">
+        <v>0</v>
+      </c>
+      <c r="G87" s="76">
+        <v>0</v>
+      </c>
+      <c r="H87" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="22" customHeight="1">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="99">
+        <v>2</v>
+      </c>
+      <c r="E88" s="72">
+        <v>0</v>
+      </c>
+      <c r="F88" s="72">
+        <v>0</v>
+      </c>
+      <c r="G88" s="72">
+        <v>0</v>
+      </c>
+      <c r="H88" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="22" customHeight="1">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="99">
+        <v>3</v>
+      </c>
+      <c r="E89" s="72">
+        <v>0</v>
+      </c>
+      <c r="F89" s="72">
+        <v>0</v>
+      </c>
+      <c r="G89" s="72">
+        <v>0</v>
+      </c>
+      <c r="H89" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="22" customHeight="1">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="99">
+        <v>4</v>
+      </c>
+      <c r="E90" s="72">
+        <v>0</v>
+      </c>
+      <c r="F90" s="72">
+        <v>0</v>
+      </c>
+      <c r="G90" s="72">
+        <v>0</v>
+      </c>
+      <c r="H90" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="22" customHeight="1">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="99">
+        <v>5</v>
+      </c>
+      <c r="E91" s="72">
+        <v>5.7274267569554196</v>
+      </c>
+      <c r="F91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="G91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+      <c r="H91" s="72">
+        <v>2.8637133784777098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="22" customHeight="1">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="99">
+        <v>6</v>
+      </c>
+      <c r="E92" s="72">
+        <v>41.5215847690245</v>
+      </c>
+      <c r="F92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="G92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+      <c r="H92" s="72">
+        <v>35.657192616625203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="22" customHeight="1">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="99">
+        <v>7</v>
+      </c>
+      <c r="E93" s="72">
+        <v>97.0307614886067</v>
+      </c>
+      <c r="F93" s="72">
+        <v>90.292560606232797</v>
+      </c>
+      <c r="G93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+      <c r="H93" s="72">
+        <v>90.292560606232698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="22" customHeight="1">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="99">
+        <v>8</v>
+      </c>
+      <c r="E94" s="72">
+        <v>133.462743476632</v>
+      </c>
+      <c r="F94" s="72">
+        <v>128.82292842153299</v>
+      </c>
+      <c r="G94" s="72">
+        <v>128.822928421532</v>
+      </c>
+      <c r="H94" s="72">
+        <v>128.822928421532</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="22" customHeight="1">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="99">
+        <v>9</v>
+      </c>
+      <c r="E95" s="72">
+        <v>147.42812891281599</v>
+      </c>
+      <c r="F95" s="72">
+        <v>146.384406923434</v>
+      </c>
+      <c r="G95" s="72">
+        <v>146.384406923434</v>
+      </c>
+      <c r="H95" s="72">
+        <v>146.384406923434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="22" customHeight="1">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="99">
+        <v>10</v>
+      </c>
+      <c r="E96" s="72">
+        <v>153.94038791292701</v>
+      </c>
+      <c r="F96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+      <c r="G96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+      <c r="H96" s="72">
+        <v>152.71793835913999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="22" customHeight="1">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="99">
+        <v>11</v>
+      </c>
+      <c r="E97" s="72">
+        <v>149.58241044862601</v>
+      </c>
+      <c r="F97" s="72">
+        <v>149.825496400421</v>
+      </c>
+      <c r="G97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+      <c r="H97" s="72">
+        <v>149.82549640042001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="22" customHeight="1">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="99">
+        <v>12</v>
+      </c>
+      <c r="E98" s="72">
+        <v>141.65477818382999</v>
+      </c>
+      <c r="F98" s="72">
+        <v>142.658018842411</v>
+      </c>
+      <c r="G98" s="72">
+        <v>142.658018842411</v>
+      </c>
+      <c r="H98" s="72">
+        <v>142.658018842411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="22" customHeight="1">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="99">
+        <v>13</v>
+      </c>
+      <c r="E99" s="72">
+        <v>285.97373128511703</v>
+      </c>
+      <c r="F99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+      <c r="G99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+      <c r="H99" s="72">
+        <v>257.39997310920597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="22" customHeight="1">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="99">
+        <v>14</v>
+      </c>
+      <c r="E100" s="72">
+        <v>481.92480835528102</v>
+      </c>
+      <c r="F100" s="72">
+        <v>457.00809230009497</v>
+      </c>
+      <c r="G100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+      <c r="H100" s="72">
+        <v>457.00809230009401</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="22" customHeight="1">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="99">
+        <v>15</v>
+      </c>
+      <c r="E101" s="72">
+        <v>634.49816287975398</v>
+      </c>
+      <c r="F101" s="72">
+        <v>616.36245027704001</v>
+      </c>
+      <c r="G101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+      <c r="H101" s="72">
+        <v>616.36245027703899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="22" customHeight="1">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="99">
+        <v>16</v>
+      </c>
+      <c r="E102" s="72">
+        <v>669.38731128392203</v>
+      </c>
+      <c r="F102" s="72">
+        <v>668.524981837783</v>
+      </c>
+      <c r="G102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+      <c r="H102" s="72">
+        <v>668.52498183778198</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="22" customHeight="1">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="99">
+        <v>17</v>
+      </c>
+      <c r="E103" s="72">
+        <v>482.80810913144097</v>
+      </c>
+      <c r="F103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+      <c r="G103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+      <c r="H103" s="72">
+        <v>511.04463204636198</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="22" customHeight="1">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="99">
+        <v>18</v>
+      </c>
+      <c r="E104" s="72">
+        <v>122.368864660307</v>
+      </c>
+      <c r="F104" s="72">
+        <v>163.219274018535</v>
+      </c>
+      <c r="G104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+      <c r="H104" s="72">
+        <v>163.21927401853401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="22" customHeight="1">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="99">
+        <v>19</v>
+      </c>
+      <c r="E105" s="72">
+        <v>16.9621683731242</v>
+      </c>
+      <c r="F105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+      <c r="G105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+      <c r="H105" s="72">
+        <v>26.890184979785399</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="22" customHeight="1">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="99">
+        <v>20</v>
+      </c>
+      <c r="E106" s="72">
+        <v>0</v>
+      </c>
+      <c r="F106" s="72">
+        <v>0</v>
+      </c>
+      <c r="G106" s="72">
+        <v>0</v>
+      </c>
+      <c r="H106" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="22" customHeight="1">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="99">
+        <v>21</v>
+      </c>
+      <c r="E107" s="72">
+        <v>0</v>
+      </c>
+      <c r="F107" s="72">
+        <v>0</v>
+      </c>
+      <c r="G107" s="72">
+        <v>0</v>
+      </c>
+      <c r="H107" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="22" customHeight="1">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="99">
+        <v>22</v>
+      </c>
+      <c r="E108" s="72">
+        <v>0</v>
+      </c>
+      <c r="F108" s="72">
+        <v>0</v>
+      </c>
+      <c r="G108" s="72">
+        <v>0</v>
+      </c>
+      <c r="H108" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="22" customHeight="1">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="99">
+        <v>23</v>
+      </c>
+      <c r="E109" s="72">
+        <v>0</v>
+      </c>
+      <c r="F109" s="72">
+        <v>0</v>
+      </c>
+      <c r="G109" s="72">
+        <v>0</v>
+      </c>
+      <c r="H109" s="72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="22" customHeight="1" thickBot="1">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="8">
+        <v>24</v>
+      </c>
+      <c r="E110" s="78">
+        <v>0</v>
+      </c>
+      <c r="F110" s="78">
+        <v>0</v>
+      </c>
+      <c r="G110" s="78">
+        <v>0</v>
+      </c>
+      <c r="H110" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="22" customHeight="1">
+      <c r="A111" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D111" s="19">
+        <v>1</v>
+      </c>
+      <c r="E111" s="80">
+        <v>3.6074466923558499</v>
+      </c>
+      <c r="F111" s="80">
+        <v>3.5740311942822802</v>
+      </c>
+      <c r="G111" s="80">
+        <v>3.57349608795914</v>
+      </c>
+      <c r="H111" s="80">
+        <v>3.5736901307868099</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="22" customHeight="1">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="99">
+        <v>2</v>
+      </c>
+      <c r="E112" s="82">
+        <v>3.7230959483081199</v>
+      </c>
+      <c r="F112" s="82">
+        <v>3.6935666006096302</v>
+      </c>
+      <c r="G112" s="82">
+        <v>3.6930025211156998</v>
+      </c>
+      <c r="H112" s="82">
+        <v>3.6931281616349398</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="22" customHeight="1">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="99">
+        <v>3</v>
+      </c>
+      <c r="E113" s="82">
+        <v>3.7517035792922</v>
+      </c>
+      <c r="F113" s="82">
+        <v>3.7316850302353299</v>
+      </c>
+      <c r="G113" s="82">
+        <v>3.7311421691940199</v>
+      </c>
+      <c r="H113" s="82">
+        <v>3.7312307618195999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="22" customHeight="1">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="99">
+        <v>4</v>
+      </c>
+      <c r="E114" s="82">
+        <v>3.7699421632669701</v>
+      </c>
+      <c r="F114" s="82">
+        <v>3.7407123731193299</v>
+      </c>
+      <c r="G114" s="82">
+        <v>3.7401412495197301</v>
+      </c>
+      <c r="H114" s="82">
+        <v>3.7402030249185199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="22" customHeight="1">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="99">
+        <v>5</v>
+      </c>
+      <c r="E115" s="82">
+        <v>3.7777232238976399</v>
+      </c>
+      <c r="F115" s="82">
+        <v>3.75239351564427</v>
+      </c>
+      <c r="G115" s="82">
+        <v>3.7517925242407602</v>
+      </c>
+      <c r="H115" s="82">
+        <v>3.7518345454419801</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="22" customHeight="1">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="99">
+        <v>6</v>
+      </c>
+      <c r="E116" s="82">
+        <v>3.7711320093854699</v>
+      </c>
+      <c r="F116" s="82">
+        <v>3.74849524191298</v>
+      </c>
+      <c r="G116" s="82">
+        <v>3.7479041328603899</v>
+      </c>
+      <c r="H116" s="82">
+        <v>3.7479326002026601</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="22" customHeight="1">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="99">
+        <v>7</v>
+      </c>
+      <c r="E117" s="82">
+        <v>3.7748426500040102</v>
+      </c>
+      <c r="F117" s="82">
+        <v>3.7483432815873798</v>
+      </c>
+      <c r="G117" s="82">
+        <v>3.74775388170504</v>
+      </c>
+      <c r="H117" s="82">
+        <v>3.74777253223554</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="22" customHeight="1">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="99">
+        <v>8</v>
+      </c>
+      <c r="E118" s="82">
+        <v>3.4409923212026401</v>
+      </c>
+      <c r="F118" s="82">
+        <v>3.5216094088103498</v>
+      </c>
+      <c r="G118" s="82">
+        <v>3.5211002631468702</v>
+      </c>
+      <c r="H118" s="82">
+        <v>3.5211040931677302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="22" customHeight="1">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="99">
+        <v>9</v>
+      </c>
+      <c r="E119" s="82">
+        <v>2.0006141669751898</v>
+      </c>
+      <c r="F119" s="82">
+        <v>2.1272023564671501</v>
+      </c>
+      <c r="G119" s="82">
+        <v>2.1268667460958102</v>
+      </c>
+      <c r="H119" s="82">
+        <v>2.1267137617237801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="22" customHeight="1">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="99">
+        <v>10</v>
+      </c>
+      <c r="E120" s="82">
+        <v>0.42205497878057302</v>
+      </c>
+      <c r="F120" s="82">
+        <v>0.599565083428791</v>
+      </c>
+      <c r="G120" s="82">
+        <v>0.59940979403229899</v>
+      </c>
+      <c r="H120" s="82">
+        <v>0.59897576539559205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="22" customHeight="1">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="99">
+        <v>11</v>
+      </c>
+      <c r="E121" s="82">
+        <v>-0.12334542744886499</v>
+      </c>
+      <c r="F121" s="82">
+        <v>-7.1968313908028797E-2</v>
+      </c>
+      <c r="G121" s="82">
+        <v>-7.1877254466433296E-2</v>
+      </c>
+      <c r="H121" s="82">
+        <v>-7.2493763418807894E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="22" customHeight="1">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="99">
+        <v>12</v>
+      </c>
+      <c r="E122" s="82">
+        <v>-1.9806998146235699</v>
+      </c>
+      <c r="F122" s="82">
+        <v>-1.9510994138116899</v>
+      </c>
+      <c r="G122" s="82">
+        <v>-1.95094768903657</v>
+      </c>
+      <c r="H122" s="82">
+        <v>-1.95440444309085</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="22" customHeight="1">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="99">
+        <v>13</v>
+      </c>
+      <c r="E123" s="82">
+        <v>-3.3511737949721798</v>
+      </c>
+      <c r="F123" s="82">
+        <v>-3.3540290668455599</v>
+      </c>
+      <c r="G123" s="82">
+        <v>-3.3540107814471698</v>
+      </c>
+      <c r="H123" s="82">
+        <v>-3.35687671633278</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="22" customHeight="1">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="99">
+        <v>14</v>
+      </c>
+      <c r="E124" s="82">
+        <v>-3.5807597943220402</v>
+      </c>
+      <c r="F124" s="82">
+        <v>-3.6171988490660398</v>
+      </c>
+      <c r="G124" s="82">
+        <v>-3.6172263719093301</v>
+      </c>
+      <c r="H124" s="82">
+        <v>-3.6188948540100401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="22" customHeight="1">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="99">
+        <v>15</v>
+      </c>
+      <c r="E125" s="82">
+        <v>-2.8565532207671702</v>
+      </c>
+      <c r="F125" s="82">
+        <v>-2.9635222186760299</v>
+      </c>
+      <c r="G125" s="82">
+        <v>-2.9636077091718702</v>
+      </c>
+      <c r="H125" s="82">
+        <v>-2.9641156377458699</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="22" customHeight="1">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="99">
+        <v>16</v>
+      </c>
+      <c r="E126" s="82">
+        <v>-1.27877382218195</v>
+      </c>
+      <c r="F126" s="82">
+        <v>-1.4727638757292301</v>
+      </c>
+      <c r="G126" s="82">
+        <v>-1.4730398717164701</v>
+      </c>
+      <c r="H126" s="82">
+        <v>-1.47265990199384</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="22" customHeight="1">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="99">
+        <v>17</v>
+      </c>
+      <c r="E127" s="82">
+        <v>0</v>
+      </c>
+      <c r="F127" s="82">
+        <v>-2.0431361506559401E-2</v>
+      </c>
+      <c r="G127" s="82">
+        <v>-2.05361721602948E-2</v>
+      </c>
+      <c r="H127" s="82">
+        <v>-2.0342154632648001E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="22" customHeight="1">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="99">
+        <v>18</v>
+      </c>
+      <c r="E128" s="82">
+        <v>0.32396725333012399</v>
+      </c>
+      <c r="F128" s="82">
+        <v>0.42364115100175698</v>
+      </c>
+      <c r="G128" s="82">
+        <v>0.42360065453588402</v>
+      </c>
+      <c r="H128" s="82">
+        <v>0.42477651607761802</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="22" customHeight="1">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="99">
+        <v>19</v>
+      </c>
+      <c r="E129" s="82">
+        <v>1.6276128386570199</v>
+      </c>
+      <c r="F129" s="82">
+        <v>1.8286220018014001</v>
+      </c>
+      <c r="G129" s="82">
+        <v>1.8280985175472499</v>
+      </c>
+      <c r="H129" s="82">
+        <v>1.82988695680057</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="22" customHeight="1">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="99">
+        <v>20</v>
+      </c>
+      <c r="E130" s="82">
+        <v>2.4554541143537199</v>
+      </c>
+      <c r="F130" s="82">
+        <v>2.5715373712320599</v>
+      </c>
+      <c r="G130" s="82">
+        <v>2.5710302292953799</v>
+      </c>
+      <c r="H130" s="82">
+        <v>2.57268608538581</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="22" customHeight="1">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="99">
+        <v>21</v>
+      </c>
+      <c r="E131" s="82">
+        <v>2.91487643140217</v>
+      </c>
+      <c r="F131" s="82">
+        <v>2.9771518888179398</v>
+      </c>
+      <c r="G131" s="82">
+        <v>2.9766136851374898</v>
+      </c>
+      <c r="H131" s="82">
+        <v>2.97800219020524</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="22" customHeight="1">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="99">
+        <v>22</v>
+      </c>
+      <c r="E132" s="82">
+        <v>3.1453202517520702</v>
+      </c>
+      <c r="F132" s="82">
+        <v>3.1885986717029202</v>
+      </c>
+      <c r="G132" s="82">
+        <v>3.1880497360790798</v>
+      </c>
+      <c r="H132" s="82">
+        <v>3.18906066864057</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="22" customHeight="1">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="99">
+        <v>23</v>
+      </c>
+      <c r="E133" s="82">
+        <v>3.2193476821434199</v>
+      </c>
+      <c r="F133" s="82">
+        <v>3.2468747150203199</v>
+      </c>
+      <c r="G133" s="82">
+        <v>3.2463680307142502</v>
+      </c>
+      <c r="H133" s="82">
+        <v>3.2470470465871899</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="22" customHeight="1">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="8">
+        <v>24</v>
+      </c>
+      <c r="E134" s="88">
+        <v>3.2652669417572899</v>
+      </c>
+      <c r="F134" s="88">
+        <v>3.2648178007061399</v>
+      </c>
+      <c r="G134" s="88">
+        <v>3.26434128943706</v>
+      </c>
+      <c r="H134" s="88">
+        <v>3.26477098961875</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C135" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" s="97"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="89"/>
+      <c r="H135" s="89">
+        <v>674.31902791520997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="F39:F62">
+    <cfRule type="dataBar" priority="85">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AD814D94-7D32-CF4B-80BD-2F7B5F711245}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15:F38">
+    <cfRule type="dataBar" priority="84">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A09D35D4-B814-3B41-8690-6538BBFFCCDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F63:F86">
+    <cfRule type="dataBar" priority="83">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EB60FEF1-E503-D342-BA02-9FEBD2B9373D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F110">
+    <cfRule type="dataBar" priority="82">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC87997C-550A-2244-BE67-2FE0E2388975}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F111:F134">
+    <cfRule type="dataBar" priority="81">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29E3A0BC-870D-3248-A835-50EFC61170E8}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E62">
+    <cfRule type="dataBar" priority="75">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DFAEC73-2B29-1144-AA57-9B5424F6EC59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E38">
+    <cfRule type="dataBar" priority="74">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{01E86262-DE61-E442-8F5E-0EACBD2DE79B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E86">
+    <cfRule type="dataBar" priority="73">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64E9EE5C-4D04-5946-A324-7CCB954BABDE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E110">
+    <cfRule type="dataBar" priority="72">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4AA54A5A-6628-7A4D-9C2B-DBCF32A601DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111:E134">
+    <cfRule type="dataBar" priority="71">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3CF9559C-D5BB-4E4B-955C-834E873BDE5C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39:E62">
+    <cfRule type="dataBar" priority="70">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B44E7E65-9836-6C4D-8EA5-6F76A6B58BED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15:E38">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F74056CC-44EC-0641-9615-489440D57C71}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E63:E86">
+    <cfRule type="dataBar" priority="68">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{02B3E73D-EC1C-D44B-B3EA-7F5E39A7F77D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87:E110">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FD46A8BF-9454-4F44-94C5-1E541E1A0DF1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111:E134">
+    <cfRule type="dataBar" priority="66">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BDE009D4-DA63-1048-9C05-3A4E5FE99D24}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H62">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9464ACCF-EC09-B54F-AA3D-746BC0560C57}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15:H38">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{593EFDDA-F81B-5141-9F4B-C891A1FF8B15}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63:H86">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A0A355BE-09DD-094B-A92E-309B08B9D1E7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:H110">
+    <cfRule type="dataBar" priority="14">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FC940F70-1CD3-0A48-95DA-55265240BF89}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H111:H134">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{656EECA9-28C0-0E47-9ED4-C19E8D3A81E3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G62">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55C5B452-AD74-5248-A718-B45E6709DF53}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G38">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94AC1ACF-9B71-8348-93DF-D22BF48BD79E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G86">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BC7EBF3C-C2DB-7E42-B7EB-A9B9FF96E65F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87:G110">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F1ECA1E-9168-8847-81D6-0F0A6363F99C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G134">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7208FFA8-D36B-8148-92FF-FA00EC2542D2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39:G62">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76CD1EC0-D213-0343-99A5-2D5D6C132B52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G38">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E6C1BAFA-82EE-204F-B60F-238047737C28}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G63:G86">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF555A"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8E601F25-B979-5F4B-BE6F-2AA5DB6688A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G87:G110">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{04DA5A2B-22AB-6546-91C2-B95A7A5331CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111:G134">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E94B91A7-F3A6-8542-9F9B-23E387079DE5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AD814D94-7D32-CF4B-80BD-2F7B5F711245}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F39:F62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A09D35D4-B814-3B41-8690-6538BBFFCCDA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F15:F38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EB60FEF1-E503-D342-BA02-9FEBD2B9373D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F63:F86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC87997C-550A-2244-BE67-2FE0E2388975}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F87:F110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29E3A0BC-870D-3248-A835-50EFC61170E8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F111:F134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DFAEC73-2B29-1144-AA57-9B5424F6EC59}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{01E86262-DE61-E442-8F5E-0EACBD2DE79B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15:E38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64E9EE5C-4D04-5946-A324-7CCB954BABDE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E63:E86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4AA54A5A-6628-7A4D-9C2B-DBCF32A601DA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E87:E110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3CF9559C-D5BB-4E4B-955C-834E873BDE5C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E111:E134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B44E7E65-9836-6C4D-8EA5-6F76A6B58BED}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E39:E62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F74056CC-44EC-0641-9615-489440D57C71}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E15:E38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{02B3E73D-EC1C-D44B-B3EA-7F5E39A7F77D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E63:E86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FD46A8BF-9454-4F44-94C5-1E541E1A0DF1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E87:E110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BDE009D4-DA63-1048-9C05-3A4E5FE99D24}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E111:E134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9464ACCF-EC09-B54F-AA3D-746BC0560C57}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H39:H62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{593EFDDA-F81B-5141-9F4B-C891A1FF8B15}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H15:H38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A0A355BE-09DD-094B-A92E-309B08B9D1E7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H63:H86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FC940F70-1CD3-0A48-95DA-55265240BF89}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H87:H110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{656EECA9-28C0-0E47-9ED4-C19E8D3A81E3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H111:H134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55C5B452-AD74-5248-A718-B45E6709DF53}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G39:G62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94AC1ACF-9B71-8348-93DF-D22BF48BD79E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G15:G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BC7EBF3C-C2DB-7E42-B7EB-A9B9FF96E65F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G63:G86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F1ECA1E-9168-8847-81D6-0F0A6363F99C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G87:G110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7208FFA8-D36B-8148-92FF-FA00EC2542D2}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G111:G134</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76CD1EC0-D213-0343-99A5-2D5D6C132B52}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G39:G62</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E6C1BAFA-82EE-204F-B60F-238047737C28}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G15:G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8E601F25-B979-5F4B-BE6F-2AA5DB6688A3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FFFF555A"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G63:G86</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{04DA5A2B-22AB-6546-91C2-B95A7A5331CE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G87:G110</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E94B91A7-F3A6-8542-9F9B-23E387079DE5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G111:G134</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/idf_miyata/詳細分析_Case600シリーズ.xlsx
+++ b/idf_miyata/詳細分析_Case600シリーズ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masato/Dropbox/Programs/EnergyPlus_SHASEG1008/idf_miyata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A02192E-A16C-4942-9470-C704BF6852E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5188217-BC41-5D46-8E6F-6A01B1E0027C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24240" yWindow="2060" windowWidth="31740" windowHeight="29160" activeTab="1" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
+    <workbookView xWindow="2040" yWindow="700" windowWidth="51140" windowHeight="31540" xr2:uid="{B9F3B0C5-6B90-2944-9651-3C8A236D33E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Case 600 検証" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,6 +550,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -716,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,6 +994,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1305,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5353AB3E-87E1-A24B-85ED-E2A836375961}">
   <dimension ref="A1:Y134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q134"/>
+    <sheetView tabSelected="1" zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1314,7 +1323,8 @@
     <col min="1" max="2" width="35.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" style="7" customWidth="1"/>
-    <col min="5" max="23" width="10.28515625" style="3" customWidth="1"/>
+    <col min="5" max="15" width="10.28515625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="23" width="10.28515625" style="3" customWidth="1"/>
     <col min="24" max="24" width="0.7109375" style="3" customWidth="1"/>
     <col min="25" max="25" width="10.28515625" style="3" customWidth="1"/>
     <col min="26" max="16384" width="10.7109375" style="3"/>
@@ -2652,16 +2662,16 @@
       <c r="O21" s="71">
         <v>2.0813722222222202</v>
       </c>
-      <c r="P21" s="72">
+      <c r="P21" s="102">
         <v>3.50450404962861</v>
       </c>
-      <c r="Q21" s="72">
+      <c r="Q21" s="102">
         <v>4.1392058833219298</v>
       </c>
-      <c r="R21" s="72">
+      <c r="R21" s="102">
         <v>5.0928525617849898</v>
       </c>
-      <c r="S21" s="72">
+      <c r="S21" s="102">
         <v>0</v>
       </c>
       <c r="T21" s="72">
@@ -10524,8 +10534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF2825F-1B8C-C946-B43C-54017D34F702}">
   <dimension ref="A1:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
